--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$159</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="154">
   <si>
     <t>Char_Name</t>
   </si>
@@ -474,6 +474,21 @@
   </si>
   <si>
     <t>4500-NH3 E</t>
+  </si>
+  <si>
+    <t>608.3</t>
+  </si>
+  <si>
+    <t>310.1</t>
+  </si>
+  <si>
+    <t>300.1</t>
+  </si>
+  <si>
+    <t>525.2</t>
+  </si>
+  <si>
+    <t>150.2</t>
   </si>
 </sst>
 </file>
@@ -814,11 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,8 +903,8 @@
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3">
-        <v>310.10000000000002</v>
+      <c r="C4" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>49</v>
@@ -1500,8 +1515,8 @@
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3">
-        <v>300.10000000000002</v>
+      <c r="C40" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>49</v>
@@ -1636,8 +1651,8 @@
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="3">
-        <v>300.10000000000002</v>
+      <c r="C48" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>49</v>
@@ -1976,8 +1991,8 @@
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="3">
-        <v>525.20000000000005</v>
+      <c r="C68" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>49</v>
@@ -2078,8 +2093,8 @@
       <c r="B74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="3">
-        <v>525.20000000000005</v>
+      <c r="C74" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>49</v>
@@ -2571,8 +2586,8 @@
       <c r="B103" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="3">
-        <v>525.20000000000005</v>
+      <c r="C103" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>49</v>
@@ -2843,8 +2858,8 @@
       <c r="B119" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C119" s="3">
-        <v>150.19999999999999</v>
+      <c r="C119" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>49</v>
@@ -3302,8 +3317,8 @@
       <c r="B146" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C146" s="3">
-        <v>300.10000000000002</v>
+      <c r="C146" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>49</v>
@@ -3438,8 +3453,8 @@
       <c r="B154" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C154" s="3">
-        <v>525.20000000000005</v>
+      <c r="C154" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>49</v>
@@ -3450,13 +3465,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C155" s="3">
-        <v>200.7</v>
+        <v>141</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>49</v>
@@ -3473,7 +3488,7 @@
         <v>143</v>
       </c>
       <c r="C156" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>49</v>
@@ -3489,11 +3504,11 @@
       <c r="B157" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>76</v>
+      <c r="C157" s="3">
+        <v>200.8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>144</v>
@@ -3507,17 +3522,34 @@
         <v>143</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E158" s="1" t="s">
+      <c r="D159" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D158">
+  <autoFilter ref="A1:D159">
     <sortState ref="A2:D272">
       <sortCondition ref="A1:A272"/>
     </sortState>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$161</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="155">
   <si>
     <t>Char_Name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Alkalinity, total</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>7429-90-5</t>
   </si>
   <si>
@@ -489,6 +486,12 @@
   </si>
   <si>
     <t>150.2</t>
+  </si>
+  <si>
+    <t>120.1</t>
+  </si>
+  <si>
+    <t>2340B</t>
   </si>
 </sst>
 </file>
@@ -829,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,10 +876,10 @@
         <v>615</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,13 +890,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,16 +904,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -918,2638 +921,2672 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>200.7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>200.8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3">
         <v>350.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C18" s="3">
         <v>200.7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C19" s="3">
         <v>200.8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C20" s="3">
         <v>200.9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3">
         <v>200.7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3">
         <v>200.8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3">
         <v>200.9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3">
         <v>614</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
         <v>200.7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3">
         <v>200.8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C32" s="3">
         <v>200.7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C33" s="3">
         <v>200.8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3">
         <v>200.7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3">
         <v>200.8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C39" s="3">
         <v>300</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C41" s="3">
         <v>200.7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C42" s="3">
         <v>200.8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C43" s="3">
         <v>200.9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C51" s="3">
         <v>200.7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C52" s="3">
         <v>200.8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C53" s="3">
         <v>200.9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C54" s="3">
         <v>218.2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3">
         <v>200.7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3">
         <v>200.8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C61" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C62" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>55</v>
+      <c r="C63" s="3">
+        <v>200.9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="3">
-        <v>335.4</v>
+        <v>85</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>90</v>
+      <c r="C66" s="3">
+        <v>335.4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="3">
-        <v>353.2</v>
+        <v>49</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="C77" s="3">
+        <v>353.2</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C79" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>76</v>
+      <c r="C80" s="3">
+        <v>200.8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C81" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="3">
-        <v>200.7</v>
+        <v>100</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C83" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C84" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>76</v>
+      <c r="C85" s="3">
+        <v>200.9</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="3">
-        <v>200.7</v>
+        <v>102</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="C90" s="3">
+        <v>200.8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="3">
-        <v>614</v>
+        <v>19</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C93" s="3">
-        <v>200.7</v>
+        <v>614</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95" s="3">
-        <v>1638</v>
+        <v>200.8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1638</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98" s="3">
-        <v>245.1</v>
+        <v>21</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C99" s="3">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C100" s="3">
-        <v>245.7</v>
+        <v>245.2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>109</v>
+      <c r="C101" s="3">
+        <v>245.7</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D102" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C104" s="3">
-        <v>200.7</v>
+        <v>110</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C105" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="C106" s="3">
+        <v>200.8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" s="3">
-        <v>200.7</v>
+        <v>23</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C108" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>55</v>
+      <c r="C109" s="3">
+        <v>200.8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="3">
-        <v>10206</v>
+        <v>114</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C112" s="3">
+        <v>10206</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C115" s="3">
-        <v>353.2</v>
+        <v>49</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>118</v>
+        <v>49</v>
+      </c>
+      <c r="C116" s="3">
+        <v>353.2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="3">
-        <v>614</v>
+        <v>49</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>153</v>
+        <v>123</v>
+      </c>
+      <c r="C119" s="3">
+        <v>614</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C122" s="3">
-        <v>420.1</v>
+        <v>49</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C123" s="3">
-        <v>365.3</v>
+        <v>420.1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>122</v>
+        <v>49</v>
+      </c>
+      <c r="C124" s="3">
+        <v>365.3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="3">
-        <v>200.7</v>
+        <v>126</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C127" s="3">
-        <v>365.3</v>
+        <v>200.7</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C128" s="3">
-        <v>365.4</v>
+        <v>365.3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>121</v>
+      <c r="C129" s="3">
+        <v>365.4</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C130" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C131" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B132" s="2">
-        <v>2023695</v>
+        <v>28</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C133" s="3">
-        <v>200.7</v>
+        <v>127</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2023695</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C134" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C135" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>65</v>
+      <c r="C136" s="3">
+        <v>200.9</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C137" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C138" s="3">
-        <v>200.7</v>
+        <v>129</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C139" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C140" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>55</v>
+      <c r="C141" s="3">
+        <v>200.9</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C142" s="3">
-        <v>615</v>
+        <v>131</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>51</v>
+      <c r="C143" s="3">
+        <v>615</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C146" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C147" s="3" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C149" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C150" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C151" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C152" s="3">
         <v>200.7</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="C153" s="3">
+        <v>200.7</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C156" s="3">
-        <v>200.7</v>
+        <v>140</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C157" s="3">
-        <v>200.8</v>
+        <v>140</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>76</v>
+      <c r="C158" s="3">
+        <v>200.7</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>55</v>
+      <c r="C159" s="3">
+        <v>200.8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D159">
+  <autoFilter ref="A1:D161">
     <sortState ref="A2:D272">
       <sortCondition ref="A1:A272"/>
     </sortState>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$161</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="194">
   <si>
     <t>Char_Name</t>
   </si>
@@ -492,6 +489,123 @@
   </si>
   <si>
     <t>2340B</t>
+  </si>
+  <si>
+    <t>1,1-Dichloroethane</t>
+  </si>
+  <si>
+    <t>1,1-Dichloroethylene</t>
+  </si>
+  <si>
+    <t>1,1,1-Trichloroethane</t>
+  </si>
+  <si>
+    <t>1,1,2-Trichloroethane</t>
+  </si>
+  <si>
+    <t>1,1,2,2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t>1,2-Dichloroethane</t>
+  </si>
+  <si>
+    <t>1,2,4-Trichlorobenzene</t>
+  </si>
+  <si>
+    <t>2-Chloroethyl vinyl ether</t>
+  </si>
+  <si>
+    <t>1,2-Dichloropropane</t>
+  </si>
+  <si>
+    <t>2,4,6-Trichlorophenol</t>
+  </si>
+  <si>
+    <t>2,4-Dichlorophenol</t>
+  </si>
+  <si>
+    <t>2,4-Dimethylphenol</t>
+  </si>
+  <si>
+    <t>2,4-Dinitrophenol</t>
+  </si>
+  <si>
+    <t>2,4-Dinitrotoluene</t>
+  </si>
+  <si>
+    <t>2,6-Dinitrotoluene</t>
+  </si>
+  <si>
+    <t>2-Chloronaphthalene</t>
+  </si>
+  <si>
+    <t>3,3'-Dichlorobenzidine</t>
+  </si>
+  <si>
+    <t>4,6-Dinitro-o-cresol</t>
+  </si>
+  <si>
+    <t>71-55-6</t>
+  </si>
+  <si>
+    <t>79-34-5</t>
+  </si>
+  <si>
+    <t>79-00-5</t>
+  </si>
+  <si>
+    <t>75-34-3</t>
+  </si>
+  <si>
+    <t>75-35-4</t>
+  </si>
+  <si>
+    <t>120-82-1</t>
+  </si>
+  <si>
+    <t>107-06-2</t>
+  </si>
+  <si>
+    <t>78-87-5</t>
+  </si>
+  <si>
+    <t>110-75-8</t>
+  </si>
+  <si>
+    <t>88-06-2</t>
+  </si>
+  <si>
+    <t>120-83-2</t>
+  </si>
+  <si>
+    <t>105-67-9</t>
+  </si>
+  <si>
+    <t>51-28-5</t>
+  </si>
+  <si>
+    <t>121-14-2</t>
+  </si>
+  <si>
+    <t>606-20-2</t>
+  </si>
+  <si>
+    <t>91-58-7</t>
+  </si>
+  <si>
+    <t>91-94-1</t>
+  </si>
+  <si>
+    <t>534-52-1</t>
+  </si>
+  <si>
+    <t>624.1</t>
+  </si>
+  <si>
+    <t>625.1</t>
+  </si>
+  <si>
+    <t>612</t>
   </si>
 </sst>
 </file>
@@ -832,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,14 +980,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>615</v>
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>48</v>
@@ -883,31 +997,31 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -917,31 +1031,31 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>200.7</v>
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
@@ -951,14 +1065,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>200.8</v>
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -968,31 +1082,31 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3">
-        <v>350.1</v>
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -1002,34 +1116,34 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>143</v>
@@ -1037,16 +1151,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>615</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>143</v>
@@ -1054,13 +1168,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>51</v>
@@ -1070,82 +1184,82 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>147</v>
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="3">
-        <v>200.7</v>
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -1155,14 +1269,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="3">
-        <v>200.8</v>
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>48</v>
@@ -1172,14 +1286,14 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3">
-        <v>200.9</v>
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>48</v>
@@ -1189,31 +1303,31 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3">
-        <v>200.7</v>
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>48</v>
@@ -1224,13 +1338,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>48</v>
@@ -1241,16 +1355,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="3">
-        <v>200.9</v>
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>143</v>
@@ -1258,16 +1372,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>200.7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>143</v>
@@ -1275,16 +1389,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>200.8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>143</v>
@@ -1292,10 +1406,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>54</v>
@@ -1309,13 +1423,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3">
-        <v>614</v>
+        <v>350.1</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>48</v>
@@ -1326,16 +1440,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <v>200.7</v>
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>143</v>
@@ -1343,16 +1457,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3">
-        <v>200.8</v>
+        <v>55</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>143</v>
@@ -1360,13 +1474,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>51</v>
@@ -1377,16 +1491,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="3">
-        <v>200.7</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>143</v>
@@ -1394,16 +1508,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="3">
-        <v>200.8</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>143</v>
@@ -1411,16 +1525,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>143</v>
@@ -1428,16 +1542,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3">
-        <v>200.7</v>
+        <v>55</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>143</v>
@@ -1445,16 +1559,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3">
-        <v>200.8</v>
+        <v>55</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>143</v>
@@ -1462,16 +1576,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="C37" s="3">
+        <v>200.7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>143</v>
@@ -1479,16 +1593,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="C38" s="3">
+        <v>200.8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>143</v>
@@ -1496,13 +1610,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3">
-        <v>300</v>
+        <v>200.9</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>48</v>
@@ -1513,16 +1627,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>143</v>
@@ -1530,10 +1644,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3">
         <v>200.7</v>
@@ -1547,10 +1661,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3">
         <v>200.8</v>
@@ -1564,10 +1678,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3">
         <v>200.9</v>
@@ -1581,10 +1695,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>63</v>
@@ -1598,33 +1712,33 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>143</v>
@@ -1632,13 +1746,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>65</v>
+      </c>
+      <c r="C47" s="3">
+        <v>614</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>48</v>
@@ -1649,13 +1763,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="C48" s="3">
+        <v>200.7</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>48</v>
@@ -1666,16 +1780,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>77</v>
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>200.8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>143</v>
@@ -1683,13 +1797,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
@@ -1700,10 +1814,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3">
         <v>200.7</v>
@@ -1717,10 +1831,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3">
         <v>200.8</v>
@@ -1734,16 +1848,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="3">
-        <v>200.9</v>
+        <v>68</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>143</v>
@@ -1751,13 +1865,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C54" s="3">
-        <v>218.2</v>
+        <v>200.7</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>48</v>
@@ -1768,16 +1882,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="C55" s="3">
+        <v>200.8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>143</v>
@@ -1785,16 +1899,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="3">
-        <v>200.7</v>
+        <v>7</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>143</v>
@@ -1802,16 +1916,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="3">
-        <v>200.8</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>143</v>
@@ -1819,16 +1933,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="C58" s="3">
+        <v>300</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>143</v>
@@ -1836,16 +1950,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>143</v>
@@ -1853,13 +1967,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>153</v>
+        <v>72</v>
+      </c>
+      <c r="C60" s="3">
+        <v>200.7</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>48</v>
@@ -1870,13 +1984,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C61" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>48</v>
@@ -1887,13 +2001,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C62" s="3">
-        <v>200.8</v>
+        <v>200.9</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>48</v>
@@ -1904,16 +2018,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="3">
-        <v>200.9</v>
+        <v>72</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>143</v>
@@ -1921,10 +2035,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>54</v>
@@ -1936,18 +2050,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>143</v>
@@ -1955,13 +2069,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="3">
-        <v>335.4</v>
+        <v>11</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>48</v>
@@ -1972,16 +2086,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>143</v>
@@ -1989,13 +2103,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>51</v>
@@ -2006,16 +2120,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>143</v>
@@ -2023,13 +2137,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>146</v>
+        <v>80</v>
+      </c>
+      <c r="C70" s="3">
+        <v>200.7</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>48</v>
@@ -2040,16 +2154,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="C71" s="3">
+        <v>200.8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>143</v>
@@ -2057,16 +2171,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="C72" s="3">
+        <v>200.9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>143</v>
@@ -2074,16 +2188,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="C73" s="3">
+        <v>218.2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>143</v>
@@ -2091,13 +2205,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>51</v>
@@ -2108,13 +2222,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="C75" s="3">
+        <v>200.7</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>48</v>
@@ -2125,13 +2239,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="C76" s="3">
+        <v>200.8</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>48</v>
@@ -2142,16 +2256,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="3">
-        <v>353.2</v>
+        <v>12</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>143</v>
@@ -2159,16 +2273,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>143</v>
@@ -2176,13 +2290,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>48</v>
@@ -2193,13 +2307,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C80" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>48</v>
@@ -2210,16 +2324,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="C81" s="3">
+        <v>200.8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>143</v>
@@ -2227,16 +2341,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>54</v>
+        <v>85</v>
+      </c>
+      <c r="C82" s="3">
+        <v>200.9</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>143</v>
@@ -2244,16 +2358,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="3">
-        <v>200.7</v>
+        <v>85</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>143</v>
@@ -2261,16 +2375,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="3">
-        <v>200.8</v>
+        <v>85</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>143</v>
@@ -2278,13 +2392,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C85" s="3">
-        <v>200.9</v>
+        <v>335.4</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>48</v>
@@ -2295,13 +2409,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>51</v>
@@ -2312,13 +2426,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>51</v>
@@ -2329,16 +2443,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>143</v>
@@ -2346,13 +2460,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="3">
-        <v>200.7</v>
+        <v>16</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>48</v>
@@ -2363,16 +2477,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="3">
-        <v>200.8</v>
+        <v>16</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>143</v>
@@ -2380,13 +2494,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>51</v>
@@ -2397,13 +2511,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>51</v>
@@ -2414,16 +2528,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="3">
-        <v>614</v>
+        <v>16</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>143</v>
@@ -2431,13 +2545,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="3">
-        <v>200.7</v>
+        <v>97</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>48</v>
@@ -2448,13 +2562,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>48</v>
@@ -2465,13 +2579,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C96" s="3">
-        <v>1638</v>
+        <v>353.2</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>48</v>
@@ -2482,16 +2596,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>143</v>
@@ -2499,16 +2613,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="C98" s="3">
+        <v>200.7</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>143</v>
@@ -2516,13 +2630,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C99" s="3">
-        <v>245.1</v>
+        <v>200.8</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>48</v>
@@ -2533,16 +2647,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="3">
-        <v>245.2</v>
+        <v>100</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>143</v>
@@ -2550,16 +2664,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C101" s="3">
-        <v>245.7</v>
+        <v>100</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>143</v>
@@ -2567,13 +2681,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="C102" s="3">
+        <v>200.7</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>48</v>
@@ -2584,16 +2698,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="C103" s="3">
+        <v>200.8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>143</v>
@@ -2601,13 +2715,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>151</v>
+        <v>102</v>
+      </c>
+      <c r="C104" s="3">
+        <v>200.9</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>48</v>
@@ -2618,16 +2732,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="3">
-        <v>200.7</v>
+        <v>102</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>143</v>
@@ -2635,16 +2749,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="3">
-        <v>200.8</v>
+        <v>102</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>143</v>
@@ -2652,10 +2766,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>54</v>
@@ -2669,10 +2783,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C108" s="3">
         <v>200.7</v>
@@ -2686,10 +2800,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C109" s="3">
         <v>200.8</v>
@@ -2703,13 +2817,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>51</v>
@@ -2720,16 +2834,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>143</v>
@@ -2737,16 +2851,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C112" s="3">
-        <v>10206</v>
+        <v>614</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>143</v>
@@ -2754,16 +2868,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="C113" s="3">
+        <v>200.7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>143</v>
@@ -2771,16 +2885,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>116</v>
+        <v>21</v>
+      </c>
+      <c r="C114" s="3">
+        <v>200.8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>143</v>
@@ -2788,13 +2902,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>146</v>
+        <v>21</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1638</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>48</v>
@@ -2805,16 +2919,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116" s="3">
-        <v>353.2</v>
+        <v>21</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>143</v>
@@ -2822,13 +2936,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>51</v>
@@ -2839,16 +2953,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="C118" s="3">
+        <v>245.1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>143</v>
@@ -2856,13 +2970,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C119" s="3">
-        <v>614</v>
+        <v>245.2</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>48</v>
@@ -2873,13 +2987,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>152</v>
+        <v>107</v>
+      </c>
+      <c r="C120" s="3">
+        <v>245.7</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>48</v>
@@ -2890,16 +3004,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>143</v>
@@ -2907,16 +3021,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>143</v>
@@ -2924,13 +3038,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" s="3">
-        <v>420.1</v>
+        <v>110</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>48</v>
@@ -2941,13 +3055,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C124" s="3">
-        <v>365.3</v>
+        <v>200.7</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>48</v>
@@ -2958,16 +3072,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>121</v>
+        <v>23</v>
+      </c>
+      <c r="C125" s="3">
+        <v>200.8</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>143</v>
@@ -2975,13 +3089,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>51</v>
@@ -2992,10 +3106,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C127" s="3">
         <v>200.7</v>
@@ -3009,13 +3123,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C128" s="3">
-        <v>365.3</v>
+        <v>200.8</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>48</v>
@@ -3026,16 +3140,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C129" s="3">
-        <v>365.4</v>
+        <v>112</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>143</v>
@@ -3043,16 +3157,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>143</v>
@@ -3060,16 +3174,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="C131" s="3">
+        <v>10206</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>143</v>
@@ -3077,13 +3191,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>51</v>
@@ -3094,16 +3208,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B133" s="2">
-        <v>2023695</v>
+        <v>24</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>143</v>
@@ -3111,13 +3225,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C134" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>48</v>
@@ -3128,13 +3242,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="C135" s="3">
-        <v>200.8</v>
+        <v>353.2</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>48</v>
@@ -3145,16 +3259,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" s="3">
-        <v>200.9</v>
+        <v>49</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>143</v>
@@ -3162,13 +3276,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>51</v>
@@ -3179,16 +3293,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>54</v>
+        <v>123</v>
+      </c>
+      <c r="C138" s="3">
+        <v>614</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>143</v>
@@ -3196,13 +3310,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C139" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>48</v>
@@ -3213,16 +3327,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C140" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>143</v>
@@ -3230,16 +3344,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C141" s="3">
-        <v>200.9</v>
+        <v>49</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>143</v>
@@ -3247,16 +3361,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C142" s="3">
+        <v>420.1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>143</v>
@@ -3264,13 +3378,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C143" s="3">
-        <v>615</v>
+        <v>365.3</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>48</v>
@@ -3281,13 +3395,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>51</v>
@@ -3298,16 +3412,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>143</v>
@@ -3315,13 +3429,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>146</v>
+        <v>28</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" s="3">
+        <v>200.7</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>48</v>
@@ -3332,13 +3446,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>150</v>
+        <v>28</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="3">
+        <v>365.3</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>48</v>
@@ -3349,16 +3463,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>77</v>
+        <v>28</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="3">
+        <v>365.4</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>143</v>
@@ -3366,13 +3480,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>51</v>
@@ -3383,16 +3497,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" s="3">
-        <v>200.7</v>
+        <v>29</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>143</v>
@@ -3400,16 +3514,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C151" s="3">
-        <v>200.8</v>
+        <v>29</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>143</v>
@@ -3417,13 +3531,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C152" s="3">
-        <v>200.7</v>
+        <v>127</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2023695</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>48</v>
@@ -3434,10 +3548,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C153" s="3">
         <v>200.7</v>
@@ -3451,16 +3565,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>96</v>
+        <v>129</v>
+      </c>
+      <c r="C154" s="3">
+        <v>200.8</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>143</v>
@@ -3468,16 +3582,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>154</v>
+        <v>129</v>
+      </c>
+      <c r="C155" s="3">
+        <v>200.9</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>143</v>
@@ -3485,16 +3599,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>143</v>
@@ -3502,16 +3616,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>143</v>
@@ -3519,10 +3633,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C158" s="3">
         <v>200.7</v>
@@ -3536,10 +3650,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C159" s="3">
         <v>200.8</v>
@@ -3553,16 +3667,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>75</v>
+        <v>131</v>
+      </c>
+      <c r="C160" s="3">
+        <v>200.9</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>143</v>
@@ -3570,10 +3684,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>54</v>
@@ -3585,12 +3699,330 @@
         <v>143</v>
       </c>
     </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" s="3">
+        <v>615</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C178" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D161">
-    <sortState ref="A2:D272">
-      <sortCondition ref="A1:A272"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Permit Job\R_Scripts\EDD_Data_QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R_Scripts\EDD_Data_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -949,8 +949,8 @@
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="197">
   <si>
     <t>Char_Name</t>
   </si>
@@ -606,6 +606,15 @@
   </si>
   <si>
     <t>612</t>
+  </si>
+  <si>
+    <t>Chromium(VI)</t>
+  </si>
+  <si>
+    <t>218.6</t>
+  </si>
+  <si>
+    <t>18540-29-9</t>
   </si>
 </sst>
 </file>
@@ -946,11 +955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,13 +2231,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="3">
-        <v>200.7</v>
+        <v>194</v>
+      </c>
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>48</v>
@@ -2245,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="C76" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>48</v>
@@ -2261,11 +2270,11 @@
       <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>54</v>
+      <c r="C77" s="3">
+        <v>200.8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>143</v>
@@ -2273,13 +2282,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>51</v>
@@ -2296,10 +2305,10 @@
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>143</v>
@@ -2307,13 +2316,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>48</v>
@@ -2330,7 +2339,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>48</v>
@@ -2347,7 +2356,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -2363,11 +2372,11 @@
       <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>54</v>
+      <c r="C83" s="3">
+        <v>200.9</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>143</v>
@@ -2381,7 +2390,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>51</v>
@@ -2392,16 +2401,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="3">
-        <v>335.4</v>
+        <v>85</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>143</v>
@@ -2414,11 +2423,11 @@
       <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>89</v>
+      <c r="C86" s="3">
+        <v>335.4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>143</v>
@@ -2426,13 +2435,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>51</v>
@@ -2443,16 +2452,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>143</v>
@@ -2460,13 +2469,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>48</v>
@@ -2483,10 +2492,10 @@
         <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>143</v>
@@ -2500,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>51</v>
@@ -2517,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>51</v>
@@ -2534,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>51</v>
@@ -2545,16 +2554,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>143</v>
@@ -2562,13 +2571,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>48</v>
@@ -2584,8 +2593,8 @@
       <c r="B96" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C96" s="3">
-        <v>353.2</v>
+      <c r="C96" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>48</v>
@@ -2601,8 +2610,8 @@
       <c r="B97" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>98</v>
+      <c r="C97" s="3">
+        <v>353.2</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>48</v>
@@ -2613,13 +2622,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>48</v>
@@ -2636,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="C99" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>48</v>
@@ -2652,11 +2661,11 @@
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>75</v>
+      <c r="C100" s="3">
+        <v>200.8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>143</v>
@@ -2670,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>51</v>
@@ -2681,16 +2690,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="3">
-        <v>200.7</v>
+        <v>100</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>143</v>
@@ -2704,7 +2713,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>48</v>
@@ -2721,7 +2730,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>48</v>
@@ -2737,11 +2746,11 @@
       <c r="B105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>75</v>
+      <c r="C105" s="3">
+        <v>200.9</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>143</v>
@@ -2755,7 +2764,7 @@
         <v>102</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>51</v>
@@ -2772,7 +2781,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>51</v>
@@ -2783,16 +2792,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="3">
-        <v>200.7</v>
+        <v>102</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>143</v>
@@ -2806,7 +2815,7 @@
         <v>19</v>
       </c>
       <c r="C109" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>48</v>
@@ -2822,11 +2831,11 @@
       <c r="B110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>75</v>
+      <c r="C110" s="3">
+        <v>200.8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>143</v>
@@ -2840,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>51</v>
@@ -2851,16 +2860,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="3">
-        <v>614</v>
+        <v>19</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>143</v>
@@ -2868,13 +2877,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C113" s="3">
-        <v>200.7</v>
+        <v>614</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>48</v>
@@ -2891,7 +2900,7 @@
         <v>21</v>
       </c>
       <c r="C114" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>48</v>
@@ -2908,7 +2917,7 @@
         <v>21</v>
       </c>
       <c r="C115" s="3">
-        <v>1638</v>
+        <v>200.8</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>48</v>
@@ -2924,11 +2933,11 @@
       <c r="B116" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>75</v>
+      <c r="C116" s="3">
+        <v>1638</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>143</v>
@@ -2942,7 +2951,7 @@
         <v>21</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>51</v>
@@ -2953,16 +2962,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C118" s="3">
-        <v>245.1</v>
+        <v>21</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>143</v>
@@ -2976,7 +2985,7 @@
         <v>107</v>
       </c>
       <c r="C119" s="3">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>48</v>
@@ -2993,7 +3002,7 @@
         <v>107</v>
       </c>
       <c r="C120" s="3">
-        <v>245.7</v>
+        <v>245.2</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>48</v>
@@ -3009,8 +3018,8 @@
       <c r="B121" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>108</v>
+      <c r="C121" s="3">
+        <v>245.7</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>48</v>
@@ -3027,10 +3036,10 @@
         <v>107</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>143</v>
@@ -3038,16 +3047,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>143</v>
@@ -3055,13 +3064,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" s="3">
-        <v>200.7</v>
+        <v>110</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>48</v>
@@ -3078,7 +3087,7 @@
         <v>23</v>
       </c>
       <c r="C125" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>48</v>
@@ -3094,11 +3103,11 @@
       <c r="B126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>54</v>
+      <c r="C126" s="3">
+        <v>200.8</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>143</v>
@@ -3106,16 +3115,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C127" s="3">
-        <v>200.7</v>
+        <v>23</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>143</v>
@@ -3129,7 +3138,7 @@
         <v>113</v>
       </c>
       <c r="C128" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>48</v>
@@ -3145,11 +3154,11 @@
       <c r="B129" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>54</v>
+      <c r="C129" s="3">
+        <v>200.8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>143</v>
@@ -3157,16 +3166,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>143</v>
@@ -3179,11 +3188,11 @@
       <c r="B131" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C131" s="3">
-        <v>10206</v>
+      <c r="C131" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>143</v>
@@ -3196,11 +3205,11 @@
       <c r="B132" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>115</v>
+      <c r="C132" s="3">
+        <v>10206</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>143</v>
@@ -3214,7 +3223,7 @@
         <v>114</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>51</v>
@@ -3225,16 +3234,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>143</v>
@@ -3247,8 +3256,8 @@
       <c r="B135" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="3">
-        <v>353.2</v>
+      <c r="C135" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>48</v>
@@ -3264,11 +3273,11 @@
       <c r="B136" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>117</v>
+      <c r="C136" s="3">
+        <v>353.2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>143</v>
@@ -3276,13 +3285,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>51</v>
@@ -3293,16 +3302,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C138" s="3">
-        <v>614</v>
+        <v>49</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>143</v>
@@ -3310,13 +3319,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
+      </c>
+      <c r="C139" s="3">
+        <v>614</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>48</v>
@@ -3333,10 +3342,10 @@
         <v>49</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>143</v>
@@ -3350,10 +3359,10 @@
         <v>49</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>143</v>
@@ -3361,16 +3370,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C142" s="3">
-        <v>420.1</v>
+      <c r="C142" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>143</v>
@@ -3378,13 +3387,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C143" s="3">
-        <v>365.3</v>
+        <v>420.1</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>48</v>
@@ -3400,11 +3409,11 @@
       <c r="B144" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>121</v>
+      <c r="C144" s="3">
+        <v>365.3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>143</v>
@@ -3418,7 +3427,7 @@
         <v>49</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>51</v>
@@ -3429,16 +3438,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C146" s="3">
-        <v>200.7</v>
+        <v>126</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>143</v>
@@ -3452,7 +3461,7 @@
         <v>29</v>
       </c>
       <c r="C147" s="3">
-        <v>365.3</v>
+        <v>200.7</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>48</v>
@@ -3469,7 +3478,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="3">
-        <v>365.4</v>
+        <v>365.3</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>48</v>
@@ -3485,11 +3494,11 @@
       <c r="B149" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>120</v>
+      <c r="C149" s="3">
+        <v>365.4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>143</v>
@@ -3499,11 +3508,11 @@
       <c r="A150" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>51</v>
@@ -3520,7 +3529,7 @@
         <v>29</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>51</v>
@@ -3531,16 +3540,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B152" s="2">
-        <v>2023695</v>
+        <v>28</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>143</v>
@@ -3548,13 +3557,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C153" s="3">
-        <v>200.7</v>
+        <v>127</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2023695</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>48</v>
@@ -3571,7 +3580,7 @@
         <v>129</v>
       </c>
       <c r="C154" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>48</v>
@@ -3588,7 +3597,7 @@
         <v>129</v>
       </c>
       <c r="C155" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>48</v>
@@ -3604,11 +3613,11 @@
       <c r="B156" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>64</v>
+      <c r="C156" s="3">
+        <v>200.9</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>143</v>
@@ -3622,7 +3631,7 @@
         <v>129</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>51</v>
@@ -3633,16 +3642,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C158" s="3">
-        <v>200.7</v>
+        <v>129</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>143</v>
@@ -3656,7 +3665,7 @@
         <v>131</v>
       </c>
       <c r="C159" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>48</v>
@@ -3673,7 +3682,7 @@
         <v>131</v>
       </c>
       <c r="C160" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>48</v>
@@ -3689,11 +3698,11 @@
       <c r="B161" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>54</v>
+      <c r="C161" s="3">
+        <v>200.9</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>143</v>
@@ -3701,16 +3710,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C162" s="3">
-        <v>615</v>
+        <v>131</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>143</v>
@@ -3723,11 +3732,11 @@
       <c r="B163" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>50</v>
+      <c r="C163" s="3">
+        <v>615</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>143</v>
@@ -3735,16 +3744,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>143</v>
@@ -3752,13 +3761,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>48</v>
@@ -3775,7 +3784,7 @@
         <v>33</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>48</v>
@@ -3792,10 +3801,10 @@
         <v>33</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>143</v>
@@ -3803,13 +3812,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>51</v>
@@ -3820,16 +3829,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C169" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>143</v>
@@ -3843,7 +3852,7 @@
         <v>136</v>
       </c>
       <c r="C170" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>48</v>
@@ -3854,13 +3863,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C171" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>48</v>
@@ -3871,10 +3880,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C172" s="3">
         <v>200.7</v>
@@ -3888,16 +3897,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="C173" s="3">
+        <v>200.7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>143</v>
@@ -3911,7 +3920,7 @@
         <v>49</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>51</v>
@@ -3922,16 +3931,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>143</v>
@@ -3945,7 +3954,7 @@
         <v>140</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>48</v>
@@ -3956,13 +3965,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C177" s="3">
-        <v>200.7</v>
+        <v>140</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>48</v>
@@ -3979,7 +3988,7 @@
         <v>142</v>
       </c>
       <c r="C178" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>48</v>
@@ -3995,11 +4004,11 @@
       <c r="B179" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>75</v>
+      <c r="C179" s="3">
+        <v>200.8</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>143</v>
@@ -4013,12 +4022,29 @@
         <v>142</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E180" s="1" t="s">
+      <c r="D181" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>143</v>
       </c>
     </row>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="200">
   <si>
     <t>Char_Name</t>
   </si>
@@ -615,6 +615,15 @@
   </si>
   <si>
     <t>18540-29-9</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>351.2</t>
+  </si>
+  <si>
+    <t>Total Kjeldahl nitrogen</t>
   </si>
 </sst>
 </file>
@@ -955,11 +964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,10 +3062,10 @@
         <v>107</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>143</v>
@@ -3064,16 +3073,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>143</v>
@@ -3081,13 +3090,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" s="3">
-        <v>200.7</v>
+        <v>110</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>48</v>
@@ -3104,7 +3113,7 @@
         <v>23</v>
       </c>
       <c r="C126" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>48</v>
@@ -3120,11 +3129,11 @@
       <c r="B127" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>54</v>
+      <c r="C127" s="3">
+        <v>200.8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>143</v>
@@ -3132,16 +3141,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C128" s="3">
-        <v>200.7</v>
+        <v>23</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>143</v>
@@ -3155,7 +3164,7 @@
         <v>113</v>
       </c>
       <c r="C129" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>48</v>
@@ -3171,11 +3180,11 @@
       <c r="B130" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>54</v>
+      <c r="C130" s="3">
+        <v>200.8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>143</v>
@@ -3183,16 +3192,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>143</v>
@@ -3205,11 +3214,11 @@
       <c r="B132" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C132" s="3">
-        <v>10206</v>
+      <c r="C132" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>143</v>
@@ -3222,11 +3231,11 @@
       <c r="B133" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>115</v>
+      <c r="C133" s="3">
+        <v>10206</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>143</v>
@@ -3240,7 +3249,7 @@
         <v>114</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>51</v>
@@ -3251,16 +3260,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>143</v>
@@ -3273,8 +3282,8 @@
       <c r="B136" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C136" s="3">
-        <v>353.2</v>
+      <c r="C136" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>48</v>
@@ -3290,11 +3299,11 @@
       <c r="B137" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>117</v>
+      <c r="C137" s="3">
+        <v>353.2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>143</v>
@@ -3302,13 +3311,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>51</v>
@@ -3319,16 +3328,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C139" s="3">
-        <v>614</v>
+        <v>49</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>143</v>
@@ -3336,13 +3345,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
+      </c>
+      <c r="C140" s="3">
+        <v>614</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>48</v>
@@ -3359,10 +3368,10 @@
         <v>49</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>143</v>
@@ -3376,10 +3385,10 @@
         <v>49</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>143</v>
@@ -3387,16 +3396,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C143" s="3">
-        <v>420.1</v>
+      <c r="C143" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>143</v>
@@ -3404,13 +3413,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C144" s="3">
-        <v>365.3</v>
+        <v>420.1</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>48</v>
@@ -3426,11 +3435,11 @@
       <c r="B145" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>121</v>
+      <c r="C145" s="3">
+        <v>365.3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>143</v>
@@ -3444,7 +3453,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>51</v>
@@ -3455,16 +3464,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C147" s="3">
-        <v>200.7</v>
+        <v>126</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>143</v>
@@ -3478,7 +3487,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="3">
-        <v>365.3</v>
+        <v>200.7</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>48</v>
@@ -3495,7 +3504,7 @@
         <v>29</v>
       </c>
       <c r="C149" s="3">
-        <v>365.4</v>
+        <v>365.3</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>48</v>
@@ -3511,11 +3520,11 @@
       <c r="B150" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>120</v>
+      <c r="C150" s="3">
+        <v>365.4</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>143</v>
@@ -3525,11 +3534,11 @@
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>51</v>
@@ -3546,7 +3555,7 @@
         <v>29</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>51</v>
@@ -3557,16 +3566,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B153" s="2">
-        <v>2023695</v>
+        <v>28</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>143</v>
@@ -3574,13 +3583,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C154" s="3">
-        <v>200.7</v>
+        <v>127</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2023695</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>48</v>
@@ -3597,7 +3606,7 @@
         <v>129</v>
       </c>
       <c r="C155" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>48</v>
@@ -3614,7 +3623,7 @@
         <v>129</v>
       </c>
       <c r="C156" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>48</v>
@@ -3630,11 +3639,11 @@
       <c r="B157" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>64</v>
+      <c r="C157" s="3">
+        <v>200.9</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>143</v>
@@ -3648,7 +3657,7 @@
         <v>129</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>51</v>
@@ -3659,16 +3668,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C159" s="3">
-        <v>200.7</v>
+        <v>129</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>143</v>
@@ -3682,7 +3691,7 @@
         <v>131</v>
       </c>
       <c r="C160" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>48</v>
@@ -3699,7 +3708,7 @@
         <v>131</v>
       </c>
       <c r="C161" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>48</v>
@@ -3715,11 +3724,11 @@
       <c r="B162" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>54</v>
+      <c r="C162" s="3">
+        <v>200.9</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>143</v>
@@ -3727,16 +3736,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C163" s="3">
-        <v>615</v>
+        <v>131</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>143</v>
@@ -3749,11 +3758,11 @@
       <c r="B164" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>50</v>
+      <c r="C164" s="3">
+        <v>615</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>143</v>
@@ -3761,16 +3770,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>143</v>
@@ -3778,13 +3787,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>48</v>
@@ -3801,7 +3810,7 @@
         <v>33</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>48</v>
@@ -3818,10 +3827,10 @@
         <v>33</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>143</v>
@@ -3829,13 +3838,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>51</v>
@@ -3846,16 +3855,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>143</v>
@@ -3869,7 +3878,7 @@
         <v>136</v>
       </c>
       <c r="C171" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>48</v>
@@ -3880,13 +3889,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C172" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>48</v>
@@ -3897,10 +3906,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C173" s="3">
         <v>200.7</v>
@@ -3914,16 +3923,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="C174" s="3">
+        <v>200.7</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>143</v>
@@ -3937,7 +3946,7 @@
         <v>49</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>51</v>
@@ -3948,16 +3957,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>143</v>
@@ -3965,13 +3974,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>48</v>
@@ -3982,13 +3991,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C178" s="3">
-        <v>200.7</v>
+        <v>140</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>48</v>
@@ -3999,13 +4008,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C179" s="3">
-        <v>200.8</v>
+        <v>140</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>48</v>
@@ -4021,11 +4030,11 @@
       <c r="B180" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>75</v>
+      <c r="C180" s="3">
+        <v>200.7</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>143</v>
@@ -4038,13 +4047,47 @@
       <c r="B181" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E181" s="1" t="s">
+      <c r="D183" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>143</v>
       </c>
     </row>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$186</definedName>
+  </definedNames>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="205">
   <si>
     <t>Char_Name</t>
   </si>
@@ -624,13 +627,28 @@
   </si>
   <si>
     <t>Total Kjeldahl nitrogen</t>
+  </si>
+  <si>
+    <t>Petroleum phenols</t>
+  </si>
+  <si>
+    <t>420.4</t>
+  </si>
+  <si>
+    <t>64743-03-9</t>
+  </si>
+  <si>
+    <t>Hardness, total by calculation</t>
+  </si>
+  <si>
+    <t>Hardness, Ca, Mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +668,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -659,7 +683,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -667,11 +691,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -684,6 +723,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,11 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,16 +2625,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>143</v>
@@ -2597,16 +2639,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>143</v>
@@ -2614,13 +2653,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="3">
-        <v>353.2</v>
+        <v>97</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>48</v>
@@ -2637,7 +2676,7 @@
         <v>49</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>48</v>
@@ -2648,13 +2687,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C99" s="3">
-        <v>200.7</v>
+        <v>353.2</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>48</v>
@@ -2665,13 +2704,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>48</v>
@@ -2687,11 +2726,11 @@
       <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>75</v>
+      <c r="C101" s="3">
+        <v>200.7</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>143</v>
@@ -2704,11 +2743,11 @@
       <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>54</v>
+      <c r="C102" s="3">
+        <v>200.8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>143</v>
@@ -2716,16 +2755,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="3">
-        <v>200.7</v>
+        <v>100</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>143</v>
@@ -2733,16 +2772,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" s="3">
-        <v>200.8</v>
+        <v>100</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>143</v>
@@ -2756,7 +2795,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="3">
-        <v>200.9</v>
+        <v>200.7</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>48</v>
@@ -2772,11 +2811,11 @@
       <c r="B106" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>75</v>
+      <c r="C106" s="3">
+        <v>200.8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>143</v>
@@ -2789,11 +2828,11 @@
       <c r="B107" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>63</v>
+      <c r="C107" s="3">
+        <v>200.9</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>143</v>
@@ -2807,7 +2846,7 @@
         <v>102</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>51</v>
@@ -2818,16 +2857,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="3">
-        <v>200.7</v>
+        <v>102</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>143</v>
@@ -2835,16 +2874,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="3">
-        <v>200.8</v>
+        <v>102</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>143</v>
@@ -2857,11 +2896,11 @@
       <c r="B111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>75</v>
+      <c r="C111" s="3">
+        <v>200.7</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>143</v>
@@ -2874,11 +2913,11 @@
       <c r="B112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>54</v>
+      <c r="C112" s="3">
+        <v>200.8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>143</v>
@@ -2886,16 +2925,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" s="3">
-        <v>614</v>
+        <v>19</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>143</v>
@@ -2903,16 +2942,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="3">
-        <v>200.7</v>
+        <v>19</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>143</v>
@@ -2920,13 +2959,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C115" s="3">
-        <v>200.8</v>
+        <v>614</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>48</v>
@@ -2943,7 +2982,7 @@
         <v>21</v>
       </c>
       <c r="C116" s="3">
-        <v>1638</v>
+        <v>200.7</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>48</v>
@@ -2959,11 +2998,11 @@
       <c r="B117" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>75</v>
+      <c r="C117" s="3">
+        <v>200.8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>143</v>
@@ -2976,11 +3015,11 @@
       <c r="B118" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>54</v>
+      <c r="C118" s="3">
+        <v>1638</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>143</v>
@@ -2988,16 +3027,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" s="3">
-        <v>245.1</v>
+        <v>21</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>143</v>
@@ -3005,16 +3044,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C120" s="3">
-        <v>245.2</v>
+        <v>21</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>143</v>
@@ -3028,7 +3067,7 @@
         <v>107</v>
       </c>
       <c r="C121" s="3">
-        <v>245.7</v>
+        <v>245.1</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>48</v>
@@ -3044,8 +3083,8 @@
       <c r="B122" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>108</v>
+      <c r="C122" s="3">
+        <v>245.2</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>48</v>
@@ -3061,8 +3100,8 @@
       <c r="B123" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>197</v>
+      <c r="C123" s="3">
+        <v>245.7</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>48</v>
@@ -3079,10 +3118,10 @@
         <v>107</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>143</v>
@@ -3090,13 +3129,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>48</v>
@@ -3107,16 +3146,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="3">
-        <v>200.7</v>
+        <v>107</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>143</v>
@@ -3124,13 +3163,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="3">
-        <v>200.8</v>
+        <v>110</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>48</v>
@@ -3146,11 +3185,11 @@
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>54</v>
+      <c r="C128" s="3">
+        <v>200.7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>143</v>
@@ -3158,13 +3197,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C129" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>48</v>
@@ -3175,16 +3214,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C130" s="3">
-        <v>200.8</v>
+        <v>23</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>143</v>
@@ -3197,11 +3236,11 @@
       <c r="B131" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>54</v>
+      <c r="C131" s="3">
+        <v>200.7</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>143</v>
@@ -3209,13 +3248,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C132" s="3">
+        <v>200.8</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>48</v>
@@ -3226,16 +3265,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C133" s="3">
-        <v>10206</v>
+        <v>113</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>143</v>
@@ -3249,10 +3288,10 @@
         <v>114</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>143</v>
@@ -3265,11 +3304,11 @@
       <c r="B135" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>116</v>
+      <c r="C135" s="3">
+        <v>10206</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>143</v>
@@ -3277,16 +3316,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>143</v>
@@ -3294,16 +3333,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" s="3">
-        <v>353.2</v>
+        <v>114</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>143</v>
@@ -3317,10 +3356,10 @@
         <v>49</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>143</v>
@@ -3328,16 +3367,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>119</v>
+      <c r="C139" s="3">
+        <v>353.2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>143</v>
@@ -3345,16 +3384,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C140" s="3">
-        <v>614</v>
+        <v>49</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>143</v>
@@ -3362,16 +3401,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>143</v>
@@ -3379,16 +3418,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C142" s="3">
+        <v>614</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>143</v>
@@ -3396,16 +3435,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>49</v>
+        <v>200</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>143</v>
@@ -3413,13 +3452,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C144" s="3">
-        <v>420.1</v>
+      <c r="C144" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>48</v>
@@ -3430,16 +3469,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C145" s="3">
-        <v>365.3</v>
+      <c r="C145" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>143</v>
@@ -3447,16 +3486,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>143</v>
@@ -3464,16 +3503,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>122</v>
+      <c r="C147" s="3">
+        <v>420.1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>143</v>
@@ -3481,13 +3520,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C148" s="3">
-        <v>200.7</v>
+        <v>365.3</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>48</v>
@@ -3498,16 +3537,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C149" s="3">
-        <v>365.3</v>
+        <v>126</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>143</v>
@@ -3515,16 +3554,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C150" s="3">
-        <v>365.4</v>
+        <v>126</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>143</v>
@@ -3537,11 +3576,11 @@
       <c r="B151" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>120</v>
+      <c r="C151" s="3">
+        <v>200.7</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>143</v>
@@ -3551,14 +3590,14 @@
       <c r="A152" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>121</v>
+      <c r="C152" s="3">
+        <v>365.3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>143</v>
@@ -3568,14 +3607,14 @@
       <c r="A153" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>122</v>
+      <c r="C153" s="3">
+        <v>365.4</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>143</v>
@@ -3583,16 +3622,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B154" s="2">
-        <v>2023695</v>
+        <v>28</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>143</v>
@@ -3600,16 +3639,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C155" s="3">
-        <v>200.7</v>
+        <v>29</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>143</v>
@@ -3617,16 +3656,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C156" s="3">
-        <v>200.8</v>
+        <v>29</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>143</v>
@@ -3634,13 +3673,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C157" s="3">
-        <v>200.9</v>
+        <v>127</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2023695</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>48</v>
@@ -3656,11 +3695,11 @@
       <c r="B158" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>64</v>
+      <c r="C158" s="3">
+        <v>200.7</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>143</v>
@@ -3673,11 +3712,11 @@
       <c r="B159" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>54</v>
+      <c r="C159" s="3">
+        <v>200.8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>143</v>
@@ -3685,13 +3724,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C160" s="3">
-        <v>200.7</v>
+        <v>200.9</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>48</v>
@@ -3702,16 +3741,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C161" s="3">
-        <v>200.8</v>
+        <v>129</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>143</v>
@@ -3719,16 +3758,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C162" s="3">
-        <v>200.9</v>
+        <v>129</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>143</v>
@@ -3741,11 +3780,11 @@
       <c r="B163" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>54</v>
+      <c r="C163" s="3">
+        <v>200.7</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>143</v>
@@ -3753,13 +3792,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C164" s="3">
-        <v>615</v>
+        <v>200.8</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>48</v>
@@ -3770,16 +3809,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>50</v>
+        <v>131</v>
+      </c>
+      <c r="C165" s="3">
+        <v>200.9</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>143</v>
@@ -3787,16 +3826,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>143</v>
@@ -3804,13 +3843,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>146</v>
+        <v>31</v>
+      </c>
+      <c r="C167" s="3">
+        <v>615</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>48</v>
@@ -3821,16 +3860,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>143</v>
@@ -3838,16 +3877,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>143</v>
@@ -3855,16 +3894,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>143</v>
@@ -3872,13 +3911,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C171" s="3">
-        <v>200.7</v>
+        <v>33</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>48</v>
@@ -3889,16 +3928,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C172" s="3">
-        <v>200.8</v>
+        <v>33</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>143</v>
@@ -3906,16 +3945,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>143</v>
@@ -3923,10 +3962,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C174" s="3">
         <v>200.7</v>
@@ -3940,16 +3979,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>96</v>
+        <v>136</v>
+      </c>
+      <c r="C175" s="3">
+        <v>200.8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>143</v>
@@ -3957,16 +3996,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>154</v>
+        <v>34</v>
+      </c>
+      <c r="C176" s="3">
+        <v>200.7</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>143</v>
@@ -3974,13 +4013,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>198</v>
+        <v>35</v>
+      </c>
+      <c r="C177" s="3">
+        <v>200.7</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>48</v>
@@ -3991,16 +4030,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>143</v>
@@ -4008,16 +4047,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>143</v>
@@ -4025,13 +4064,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C180" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>48</v>
@@ -4042,13 +4081,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C181" s="3">
-        <v>200.8</v>
+        <v>140</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>48</v>
@@ -4059,16 +4098,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>143</v>
@@ -4081,17 +4120,73 @@
       <c r="B183" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C184" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E183" s="1" t="s">
+      <c r="D186" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E186">
+    <sortState ref="A2:E185">
+      <sortCondition ref="A1:A185"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$294</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="344">
   <si>
     <t>Char_Name</t>
   </si>
@@ -642,6 +642,423 @@
   </si>
   <si>
     <t>Hardness, Ca, Mg</t>
+  </si>
+  <si>
+    <t>Azobenzene</t>
+  </si>
+  <si>
+    <t>o-Chlorophenol</t>
+  </si>
+  <si>
+    <t>o-Nitrophenol</t>
+  </si>
+  <si>
+    <t>BDE-003</t>
+  </si>
+  <si>
+    <t>p-Chloro-m-cresol</t>
+  </si>
+  <si>
+    <t>p-Chlorophenyl phenyl ether</t>
+  </si>
+  <si>
+    <t>p-Nitrophenol</t>
+  </si>
+  <si>
+    <t>Acenaphthene</t>
+  </si>
+  <si>
+    <t>Acenaphthylene</t>
+  </si>
+  <si>
+    <t>Anthracene</t>
+  </si>
+  <si>
+    <t>Benz[a]anthracene</t>
+  </si>
+  <si>
+    <t>Benzidine</t>
+  </si>
+  <si>
+    <t>Benzo[a]pyrene</t>
+  </si>
+  <si>
+    <t>Benzo(b)fluoranthene</t>
+  </si>
+  <si>
+    <t>Benzo[ghi]perylene</t>
+  </si>
+  <si>
+    <t>Benzo[k]fluoranthene</t>
+  </si>
+  <si>
+    <t>Bis(2-chloroethoxy)methane</t>
+  </si>
+  <si>
+    <t>Bis(2-chloroethyl) ether</t>
+  </si>
+  <si>
+    <t>Di(2-ethylhexyl) phthalate</t>
+  </si>
+  <si>
+    <t>Butyl benzyl phthalate</t>
+  </si>
+  <si>
+    <t>Chrysene</t>
+  </si>
+  <si>
+    <t>Dibenz[a,h]anthracene</t>
+  </si>
+  <si>
+    <t>Diethyl phthalate</t>
+  </si>
+  <si>
+    <t>Dimethyl phthalate</t>
+  </si>
+  <si>
+    <t>Dibutyl phthalate</t>
+  </si>
+  <si>
+    <t>Di-n-octyl phthalate</t>
+  </si>
+  <si>
+    <t>Fluoranthene</t>
+  </si>
+  <si>
+    <t>Fluorene</t>
+  </si>
+  <si>
+    <t>Hexachlorobenzene</t>
+  </si>
+  <si>
+    <t>Hexachlorobutadiene</t>
+  </si>
+  <si>
+    <t>Hexachlorocyclopentadiene</t>
+  </si>
+  <si>
+    <t>Hexachloroethane</t>
+  </si>
+  <si>
+    <t>Indeno[1,2,3-cd]pyrene</t>
+  </si>
+  <si>
+    <t>Isophorone</t>
+  </si>
+  <si>
+    <t>Naphthalene</t>
+  </si>
+  <si>
+    <t>Nitrobenzene</t>
+  </si>
+  <si>
+    <t>N-Nitrosodimethylamine</t>
+  </si>
+  <si>
+    <t>Bis(2-chloro-1-methylethyl) ether</t>
+  </si>
+  <si>
+    <t>N-Nitrosodi-n-propylamine</t>
+  </si>
+  <si>
+    <t>N-Nitrosodiphenylamine</t>
+  </si>
+  <si>
+    <t>Pentachlorophenol</t>
+  </si>
+  <si>
+    <t>Phenanthrene</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Pyrene</t>
+  </si>
+  <si>
+    <t>103-33-3</t>
+  </si>
+  <si>
+    <t>95-57-8</t>
+  </si>
+  <si>
+    <t>88-75-5</t>
+  </si>
+  <si>
+    <t>101-55-3</t>
+  </si>
+  <si>
+    <t>59-50-7</t>
+  </si>
+  <si>
+    <t>7005-72-3</t>
+  </si>
+  <si>
+    <t>100-02-7</t>
+  </si>
+  <si>
+    <t>83-32-9</t>
+  </si>
+  <si>
+    <t>208-96-8</t>
+  </si>
+  <si>
+    <t>120-12-7</t>
+  </si>
+  <si>
+    <t>56-55-3</t>
+  </si>
+  <si>
+    <t>92-87-5</t>
+  </si>
+  <si>
+    <t>50-32-8</t>
+  </si>
+  <si>
+    <t>205-99-2</t>
+  </si>
+  <si>
+    <t>191-24-2</t>
+  </si>
+  <si>
+    <t>207-08-9</t>
+  </si>
+  <si>
+    <t>111-91-1</t>
+  </si>
+  <si>
+    <t>111-44-4</t>
+  </si>
+  <si>
+    <t>117-81-7</t>
+  </si>
+  <si>
+    <t>85-68-7</t>
+  </si>
+  <si>
+    <t>218-01-9</t>
+  </si>
+  <si>
+    <t>53-70-3</t>
+  </si>
+  <si>
+    <t>84-66-2</t>
+  </si>
+  <si>
+    <t>131-11-3</t>
+  </si>
+  <si>
+    <t>84-74-2</t>
+  </si>
+  <si>
+    <t>117-84-0</t>
+  </si>
+  <si>
+    <t>206-44-0</t>
+  </si>
+  <si>
+    <t>86-73-7</t>
+  </si>
+  <si>
+    <t>118-74-1</t>
+  </si>
+  <si>
+    <t>87-68-3</t>
+  </si>
+  <si>
+    <t>77-47-4</t>
+  </si>
+  <si>
+    <t>67-72-1</t>
+  </si>
+  <si>
+    <t>193-39-5</t>
+  </si>
+  <si>
+    <t>78-59-1</t>
+  </si>
+  <si>
+    <t>91-20-3</t>
+  </si>
+  <si>
+    <t>98-95-3</t>
+  </si>
+  <si>
+    <t>62-75-9</t>
+  </si>
+  <si>
+    <t>108-60-1</t>
+  </si>
+  <si>
+    <t>621-64-7</t>
+  </si>
+  <si>
+    <t>86-30-6</t>
+  </si>
+  <si>
+    <t>87-86-5</t>
+  </si>
+  <si>
+    <t>85-01-8</t>
+  </si>
+  <si>
+    <t>108-95-2</t>
+  </si>
+  <si>
+    <t>129-00-0</t>
+  </si>
+  <si>
+    <t>2,3,7,8-Tetrachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8-Pentachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8-Hexachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,3,6,7,8-Hexachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,9-Hexachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8-Heptachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9-Octachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>2,3,7,8-Tetrachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8-Pentachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>2,3,4,7,8-Pentachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8-Hexachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,6,7,8-Hexachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,9-Hexachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>2,3,4,6,7,8-Hexachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8-Heptachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8,9-Heptachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9-Octachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>Tetrachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>Pentachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>Heptachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,6,7-tetrachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>Pentachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>Hexachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>Heptachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1746-01-6</t>
+  </si>
+  <si>
+    <t>40321-76-4</t>
+  </si>
+  <si>
+    <t>39227-28-6</t>
+  </si>
+  <si>
+    <t>57653-85-7</t>
+  </si>
+  <si>
+    <t>19408-74-3</t>
+  </si>
+  <si>
+    <t>35822-46-9</t>
+  </si>
+  <si>
+    <t>3268-87-9</t>
+  </si>
+  <si>
+    <t>51207-31-9</t>
+  </si>
+  <si>
+    <t>57117-41-6</t>
+  </si>
+  <si>
+    <t>57117-31-4</t>
+  </si>
+  <si>
+    <t>70648-26-9</t>
+  </si>
+  <si>
+    <t>57117-44-9</t>
+  </si>
+  <si>
+    <t>72918-21-9</t>
+  </si>
+  <si>
+    <t>60851-34-5</t>
+  </si>
+  <si>
+    <t>67562-39-4</t>
+  </si>
+  <si>
+    <t>55673-89-7</t>
+  </si>
+  <si>
+    <t>39001-02-0</t>
+  </si>
+  <si>
+    <t>41903-57-5</t>
+  </si>
+  <si>
+    <t>36088-22-9</t>
+  </si>
+  <si>
+    <t>34465-46-8</t>
+  </si>
+  <si>
+    <t>37871-00-4</t>
+  </si>
+  <si>
+    <t>55722-27-5</t>
+  </si>
+  <si>
+    <t>30402-15-4</t>
+  </si>
+  <si>
+    <t>55684-94-1</t>
+  </si>
+  <si>
+    <t>38998-75-3</t>
+  </si>
+  <si>
+    <t>1613(B)</t>
   </si>
 </sst>
 </file>
@@ -710,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -727,6 +1144,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1009,11 +1429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,13 +1549,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>192</v>
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -1146,13 +1566,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>343</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>48</v>
@@ -1163,13 +1583,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>191</v>
+        <v>332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -1180,13 +1600,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>191</v>
+        <v>323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>343</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
@@ -1197,13 +1617,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>192</v>
+        <v>333</v>
+      </c>
+      <c r="C11" t="s">
+        <v>343</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
@@ -1213,14 +1633,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>615</v>
+      <c r="A12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
@@ -1230,17 +1650,17 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" t="s">
+        <v>343</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>143</v>
@@ -1248,13 +1668,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>192</v>
+        <v>329</v>
+      </c>
+      <c r="C14" t="s">
+        <v>343</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>48</v>
@@ -1265,13 +1685,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>192</v>
+        <v>321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>343</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
@@ -1282,13 +1702,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>192</v>
+        <v>330</v>
+      </c>
+      <c r="C16" t="s">
+        <v>343</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -1299,13 +1719,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>192</v>
+        <v>322</v>
+      </c>
+      <c r="C17" t="s">
+        <v>343</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>48</v>
@@ -1316,13 +1736,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>192</v>
+        <v>326</v>
+      </c>
+      <c r="C18" t="s">
+        <v>343</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -1333,13 +1753,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>191</v>
+        <v>319</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>48</v>
@@ -1350,10 +1770,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>192</v>
@@ -1367,13 +1787,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>48</v>
@@ -1384,135 +1804,135 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3">
-        <v>350.1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>143</v>
@@ -1520,16 +1940,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>615</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>143</v>
@@ -1537,13 +1957,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>51</v>
@@ -1553,99 +1973,99 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>147</v>
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="3">
-        <v>200.7</v>
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>48</v>
@@ -1655,14 +2075,14 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="3">
-        <v>200.8</v>
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>48</v>
@@ -1672,14 +2092,14 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="3">
-        <v>200.9</v>
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>48</v>
@@ -1689,31 +2109,31 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="3">
-        <v>200.7</v>
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>48</v>
@@ -1723,14 +2143,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="3">
-        <v>200.8</v>
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>48</v>
@@ -1740,14 +2160,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="3">
-        <v>200.9</v>
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>48</v>
@@ -1758,16 +2178,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>143</v>
@@ -1775,13 +2195,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>51</v>
@@ -1792,16 +2212,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>200.7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>143</v>
@@ -1809,13 +2229,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3">
-        <v>614</v>
+        <v>200.8</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>48</v>
@@ -1826,16 +2246,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3">
-        <v>200.7</v>
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>143</v>
@@ -1843,13 +2263,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3">
-        <v>200.8</v>
+        <v>350.1</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>48</v>
@@ -1860,13 +2280,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
@@ -1877,16 +2297,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="3">
-        <v>200.7</v>
+        <v>55</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>143</v>
@@ -1894,16 +2314,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="3">
-        <v>200.8</v>
+        <v>55</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>143</v>
@@ -1911,13 +2331,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>51</v>
@@ -1928,16 +2348,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="3">
-        <v>200.7</v>
+        <v>55</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>143</v>
@@ -1945,16 +2365,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="3">
-        <v>200.8</v>
+        <v>55</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>143</v>
@@ -1962,13 +2382,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>51</v>
@@ -1979,13 +2399,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>51</v>
@@ -1995,14 +2415,14 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="3">
-        <v>300</v>
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>48</v>
@@ -2013,13 +2433,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>150</v>
+        <v>61</v>
+      </c>
+      <c r="C59" s="3">
+        <v>200.7</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>48</v>
@@ -2030,13 +2450,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>48</v>
@@ -2047,13 +2467,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C61" s="3">
-        <v>200.8</v>
+        <v>200.9</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>48</v>
@@ -2064,16 +2484,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="3">
-        <v>200.9</v>
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>143</v>
@@ -2081,16 +2501,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="3">
+        <v>200.7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>143</v>
@@ -2098,30 +2518,30 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="C64" s="3">
+        <v>200.8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="3">
+        <v>200.9</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>48</v>
@@ -2132,16 +2552,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>143</v>
@@ -2149,16 +2569,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>143</v>
@@ -2166,13 +2586,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>51</v>
@@ -2183,30 +2603,30 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="3">
+        <v>614</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="3">
-        <v>200.7</v>
+      <c r="A70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>48</v>
@@ -2217,13 +2637,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>48</v>
@@ -2234,13 +2654,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C72" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>48</v>
@@ -2251,47 +2671,47 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="3">
-        <v>218.2</v>
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>80</v>
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>194</v>
+      <c r="A75" t="s">
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>48</v>
@@ -2301,14 +2721,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="3">
-        <v>200.7</v>
+      <c r="A76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>48</v>
@@ -2318,14 +2738,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="3">
-        <v>200.8</v>
+      <c r="A77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>48</v>
@@ -2335,48 +2755,48 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>12</v>
+      <c r="A78" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>49</v>
+      <c r="A79" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>49</v>
+      <c r="A80" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>48</v>
@@ -2387,10 +2807,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C81" s="3">
         <v>200.7</v>
@@ -2404,10 +2824,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C82" s="3">
         <v>200.8</v>
@@ -2421,64 +2841,64 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="3">
-        <v>200.9</v>
+        <v>68</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>85</v>
+      <c r="A84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" t="s">
+        <v>286</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>85</v>
+      <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>265</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="3">
-        <v>335.4</v>
+      <c r="A86" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>48</v>
@@ -2489,16 +2909,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>89</v>
+        <v>7</v>
+      </c>
+      <c r="C87" s="3">
+        <v>200.7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>143</v>
@@ -2506,16 +2926,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="C88" s="3">
+        <v>200.8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>143</v>
@@ -2523,16 +2943,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>143</v>
@@ -2540,16 +2960,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>143</v>
@@ -2557,16 +2977,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="C91" s="3">
+        <v>300</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>143</v>
@@ -2574,33 +2994,33 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>16</v>
+      <c r="A93" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" t="s">
+        <v>268</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>143</v>
@@ -2608,16 +3028,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
+      </c>
+      <c r="C94" s="3">
+        <v>200.7</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>143</v>
@@ -2625,13 +3045,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>154</v>
+        <v>71</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="3">
+        <v>200.8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>143</v>
@@ -2639,13 +3062,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>154</v>
+        <v>71</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="3">
+        <v>200.9</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>143</v>
@@ -2653,16 +3079,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>143</v>
@@ -2670,30 +3096,30 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="3">
-        <v>353.2</v>
+        <v>73</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>48</v>
@@ -2704,13 +3130,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>48</v>
@@ -2721,13 +3147,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="3">
-        <v>200.7</v>
+        <v>11</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>48</v>
@@ -2738,16 +3164,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="3">
-        <v>200.8</v>
+        <v>11</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>143</v>
@@ -2755,13 +3181,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>51</v>
@@ -2772,16 +3198,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="C104" s="3">
+        <v>200.7</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>143</v>
@@ -2789,13 +3215,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C105" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>48</v>
@@ -2806,13 +3232,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C106" s="3">
-        <v>200.8</v>
+        <v>200.9</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>48</v>
@@ -2823,13 +3249,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C107" s="3">
-        <v>200.9</v>
+        <v>218.2</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>48</v>
@@ -2840,13 +3266,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>51</v>
@@ -2857,33 +3283,33 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>102</v>
+        <v>194</v>
+      </c>
+      <c r="B109" t="s">
+        <v>196</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>102</v>
+      <c r="A110" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>269</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>143</v>
@@ -2891,10 +3317,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C111" s="3">
         <v>200.7</v>
@@ -2908,10 +3334,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C112" s="3">
         <v>200.8</v>
@@ -2925,13 +3351,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>51</v>
@@ -2942,13 +3368,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>51</v>
@@ -2959,13 +3385,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="3">
-        <v>614</v>
+        <v>49</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>48</v>
@@ -2976,10 +3402,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C116" s="3">
         <v>200.7</v>
@@ -2993,10 +3419,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C117" s="3">
         <v>200.8</v>
@@ -3010,13 +3436,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C118" s="3">
-        <v>1638</v>
+        <v>200.9</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>48</v>
@@ -3027,13 +3453,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>51</v>
@@ -3044,13 +3470,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>51</v>
@@ -3061,13 +3487,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C121" s="3">
-        <v>245.1</v>
+        <v>335.4</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>48</v>
@@ -3078,16 +3504,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="3">
-        <v>245.2</v>
+        <v>88</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>143</v>
@@ -3095,30 +3521,30 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C123" s="3">
-        <v>245.7</v>
+        <v>49</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>107</v>
+      <c r="A124" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" t="s">
+        <v>267</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>48</v>
@@ -3128,14 +3554,14 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>107</v>
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" t="s">
+        <v>270</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>48</v>
@@ -3145,31 +3571,31 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>107</v>
+      <c r="A126" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" t="s">
+        <v>273</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>110</v>
+      <c r="A127" t="s">
+        <v>227</v>
+      </c>
+      <c r="B127" t="s">
+        <v>271</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>48</v>
@@ -3179,14 +3605,14 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="3">
-        <v>200.7</v>
+      <c r="A128" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>48</v>
@@ -3196,14 +3622,14 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="3">
-        <v>200.8</v>
+      <c r="A129" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>48</v>
@@ -3214,30 +3640,30 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C131" s="3">
-        <v>200.7</v>
+      <c r="A131" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>48</v>
@@ -3247,14 +3673,14 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C132" s="3">
-        <v>200.8</v>
+      <c r="A132" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>48</v>
@@ -3265,16 +3691,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>143</v>
@@ -3282,16 +3708,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>143</v>
@@ -3299,16 +3725,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C135" s="3">
-        <v>10206</v>
+        <v>16</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>143</v>
@@ -3316,13 +3742,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>51</v>
@@ -3333,13 +3759,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>51</v>
@@ -3350,16 +3776,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>143</v>
@@ -3367,16 +3790,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C139" s="3">
-        <v>353.2</v>
+        <v>203</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>143</v>
@@ -3384,47 +3804,47 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>119</v>
+      <c r="A141" t="s">
+        <v>317</v>
+      </c>
+      <c r="B141" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" t="s">
+        <v>343</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142" s="3">
-        <v>614</v>
+      <c r="A142" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" t="s">
+        <v>338</v>
+      </c>
+      <c r="C142" t="s">
+        <v>343</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>48</v>
@@ -3434,14 +3854,14 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>202</v>
+      <c r="A143" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" t="s">
+        <v>277</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>48</v>
@@ -3451,14 +3871,14 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>49</v>
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>278</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>48</v>
@@ -3468,48 +3888,48 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>49</v>
+      <c r="A145" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" t="s">
+        <v>279</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>125</v>
+      <c r="A146" t="s">
+        <v>316</v>
+      </c>
+      <c r="B146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" t="s">
+        <v>343</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C147" s="3">
-        <v>420.1</v>
+      <c r="A147" t="s">
+        <v>312</v>
+      </c>
+      <c r="B147" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" t="s">
+        <v>343</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>48</v>
@@ -3519,14 +3939,14 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C148" s="3">
-        <v>365.3</v>
+      <c r="A148" t="s">
+        <v>236</v>
+      </c>
+      <c r="B148" t="s">
+        <v>280</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>48</v>
@@ -3536,17 +3956,17 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>49</v>
+      <c r="A149" t="s">
+        <v>237</v>
+      </c>
+      <c r="B149" t="s">
+        <v>281</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>143</v>
@@ -3554,16 +3974,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>143</v>
@@ -3571,13 +3991,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C151" s="3">
-        <v>200.7</v>
+        <v>353.2</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>48</v>
@@ -3588,13 +4008,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C152" s="3">
-        <v>365.3</v>
+        <v>18</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>48</v>
@@ -3605,13 +4025,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>29</v>
+        <v>99</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C153" s="3">
-        <v>365.4</v>
+        <v>200.7</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>48</v>
@@ -3622,16 +4042,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C154" s="3">
+        <v>200.8</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>143</v>
@@ -3639,13 +4059,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>51</v>
@@ -3656,13 +4076,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>51</v>
@@ -3672,14 +4092,14 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B157" s="2">
-        <v>2023695</v>
+      <c r="A157" t="s">
+        <v>238</v>
+      </c>
+      <c r="B157" t="s">
+        <v>282</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>48</v>
@@ -3690,10 +4110,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C158" s="3">
         <v>200.7</v>
@@ -3707,10 +4127,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C159" s="3">
         <v>200.8</v>
@@ -3724,10 +4144,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C160" s="3">
         <v>200.9</v>
@@ -3741,13 +4161,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>51</v>
@@ -3758,13 +4178,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>51</v>
@@ -3775,16 +4195,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C163" s="3">
-        <v>200.7</v>
+        <v>102</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>143</v>
@@ -3792,13 +4212,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C164" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>48</v>
@@ -3809,13 +4229,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C165" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>48</v>
@@ -3826,13 +4246,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>51</v>
@@ -3843,16 +4263,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C167" s="3">
-        <v>615</v>
+        <v>19</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>143</v>
@@ -3860,16 +4280,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>50</v>
+        <v>104</v>
+      </c>
+      <c r="C168" s="3">
+        <v>614</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>143</v>
@@ -3877,13 +4297,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="C169" s="3">
+        <v>200.7</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>48</v>
@@ -3894,13 +4314,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>146</v>
+        <v>21</v>
+      </c>
+      <c r="C170" s="3">
+        <v>200.8</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>48</v>
@@ -3911,13 +4331,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1638</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>48</v>
@@ -3928,13 +4348,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>51</v>
@@ -3945,13 +4365,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>51</v>
@@ -3962,13 +4382,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C174" s="3">
-        <v>200.7</v>
+        <v>245.1</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>48</v>
@@ -3979,13 +4399,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C175" s="3">
-        <v>200.8</v>
+        <v>245.2</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>48</v>
@@ -3996,13 +4416,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C176" s="3">
-        <v>200.7</v>
+        <v>245.7</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>48</v>
@@ -4013,13 +4433,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C177" s="3">
-        <v>200.7</v>
+        <v>107</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>48</v>
@@ -4030,16 +4450,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>143</v>
@@ -4047,13 +4467,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>51</v>
@@ -4064,13 +4484,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>48</v>
@@ -4081,13 +4501,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
+      </c>
+      <c r="C181" s="3">
+        <v>200.7</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>48</v>
@@ -4098,13 +4518,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>148</v>
+        <v>23</v>
+      </c>
+      <c r="C182" s="3">
+        <v>200.8</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>48</v>
@@ -4115,30 +4535,30 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C183" s="3">
-        <v>200.7</v>
+        <v>23</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C184" s="3">
-        <v>200.8</v>
+      <c r="A184" t="s">
+        <v>239</v>
+      </c>
+      <c r="B184" t="s">
+        <v>283</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>48</v>
@@ -4149,16 +4569,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="C185" s="3">
+        <v>200.7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>143</v>
@@ -4166,24 +4586,1830 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C186" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C189" s="3">
+        <v>10206</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" s="3">
+        <v>353.2</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B195" t="s">
+        <v>284</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" t="s">
+        <v>285</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>243</v>
+      </c>
+      <c r="B197" t="s">
+        <v>287</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>244</v>
+      </c>
+      <c r="B198" t="s">
+        <v>288</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>206</v>
+      </c>
+      <c r="B199" t="s">
+        <v>250</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>207</v>
+      </c>
+      <c r="B200" t="s">
+        <v>251</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C202" s="3">
+        <v>614</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" t="s">
+        <v>253</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" t="s">
+        <v>254</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>315</v>
+      </c>
+      <c r="B205" t="s">
+        <v>340</v>
+      </c>
+      <c r="C205" t="s">
+        <v>343</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>311</v>
+      </c>
+      <c r="B206" t="s">
+        <v>336</v>
+      </c>
+      <c r="C206" t="s">
+        <v>343</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>245</v>
+      </c>
+      <c r="B207" t="s">
+        <v>289</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>246</v>
+      </c>
+      <c r="B212" t="s">
+        <v>290</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>247</v>
+      </c>
+      <c r="B213" t="s">
+        <v>291</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C214" s="3">
+        <v>420.1</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C215" s="3">
+        <v>365.3</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" s="3">
+        <v>365.3</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" s="3">
+        <v>365.4</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>211</v>
+      </c>
+      <c r="B224" t="s">
+        <v>255</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2023695</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>248</v>
+      </c>
+      <c r="B226" t="s">
+        <v>292</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C227" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C228" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C229" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C232" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C233" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C234" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236" s="3">
+        <v>615</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>310</v>
+      </c>
+      <c r="B243" t="s">
+        <v>335</v>
+      </c>
+      <c r="C243" t="s">
+        <v>343</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C244" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C245" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C246" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B253" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C253" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C254" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D256" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257"/>
+      <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259"/>
+      <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260"/>
+      <c r="B260"/>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261"/>
+      <c r="B261"/>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262"/>
+      <c r="B262"/>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263"/>
+      <c r="B263"/>
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264"/>
+      <c r="B264"/>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265"/>
+      <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266"/>
+      <c r="B266"/>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267"/>
+      <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268"/>
+      <c r="B268"/>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269"/>
+      <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270"/>
+      <c r="B270"/>
+      <c r="C270"/>
+      <c r="D270"/>
+      <c r="E270"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271"/>
+      <c r="B271"/>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+      <c r="B272"/>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+      <c r="B273"/>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274"/>
+      <c r="B274"/>
+      <c r="C274"/>
+      <c r="D274"/>
+      <c r="E274"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+      <c r="B275"/>
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276"/>
+      <c r="B276"/>
+      <c r="C276"/>
+      <c r="D276"/>
+      <c r="E276"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277"/>
+      <c r="B277"/>
+      <c r="C277"/>
+      <c r="D277"/>
+      <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278"/>
+      <c r="B278"/>
+      <c r="C278"/>
+      <c r="D278"/>
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279"/>
+      <c r="B279"/>
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280"/>
+      <c r="B280"/>
+      <c r="C280"/>
+      <c r="D280"/>
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281"/>
+      <c r="B281"/>
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282"/>
+      <c r="B282"/>
+      <c r="C282"/>
+      <c r="D282"/>
+      <c r="E282"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283"/>
+      <c r="B283"/>
+      <c r="C283"/>
+      <c r="D283"/>
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284"/>
+      <c r="B284"/>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285"/>
+      <c r="B285"/>
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286"/>
+      <c r="B286"/>
+      <c r="C286"/>
+      <c r="D286"/>
+      <c r="E286"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287"/>
+      <c r="B287"/>
+      <c r="C287"/>
+      <c r="D287"/>
+      <c r="E287"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+      <c r="B288"/>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289"/>
+      <c r="B289"/>
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290"/>
+      <c r="B290"/>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291"/>
+      <c r="B291"/>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292"/>
+      <c r="B292"/>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293"/>
+      <c r="B293"/>
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294"/>
+      <c r="B294"/>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295"/>
+      <c r="B295"/>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296"/>
+      <c r="B296"/>
+      <c r="C296"/>
+      <c r="D296"/>
+      <c r="E296"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+      <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298"/>
+      <c r="B298"/>
+      <c r="C298"/>
+      <c r="D298"/>
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299"/>
+      <c r="B299"/>
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300"/>
+      <c r="B300"/>
+      <c r="C300"/>
+      <c r="D300"/>
+      <c r="E300"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301"/>
+      <c r="B301"/>
+      <c r="C301"/>
+      <c r="D301"/>
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302"/>
+      <c r="B302"/>
+      <c r="C302"/>
+      <c r="D302"/>
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+      <c r="B303"/>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+      <c r="B304"/>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+      <c r="B305"/>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306"/>
+      <c r="B306"/>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+      <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+      <c r="B308"/>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+      <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+      <c r="B310"/>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+      <c r="B311"/>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+      <c r="B312"/>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+      <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313"/>
+      <c r="E313"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+      <c r="B314"/>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+      <c r="B315"/>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+      <c r="B316"/>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+      <c r="B317"/>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+      <c r="B318"/>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+      <c r="B319"/>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+      <c r="B320"/>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+      <c r="B321"/>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+      <c r="B322"/>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+      <c r="B323"/>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+      <c r="B324"/>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+      <c r="B325"/>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+      <c r="B326"/>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+      <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+      <c r="B328"/>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+      <c r="B329"/>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+      <c r="B330"/>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+      <c r="B331"/>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+      <c r="B332"/>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+      <c r="B333"/>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+      <c r="B334"/>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+      <c r="B335"/>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+      <c r="B336"/>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+      <c r="B337"/>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+      <c r="B338"/>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+      <c r="B339"/>
+      <c r="C339"/>
+      <c r="D339"/>
+      <c r="E339"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+      <c r="B340"/>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341"/>
+      <c r="B341"/>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+      <c r="B342"/>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+      <c r="B343"/>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+      <c r="B344"/>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E186">
-    <sortState ref="A2:E185">
+  <autoFilter ref="A1:E294">
+    <sortState ref="A2:E294">
       <sortCondition ref="A1:A185"/>
     </sortState>
   </autoFilter>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$296</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="348">
   <si>
     <t>Char_Name</t>
   </si>
@@ -182,9 +182,6 @@
     <t>6640-B</t>
   </si>
   <si>
-    <t>American Public Health Association (Standards Methods)</t>
-  </si>
-  <si>
     <t>2320-B</t>
   </si>
   <si>
@@ -1059,6 +1056,21 @@
   </si>
   <si>
     <t>1613(B)</t>
+  </si>
+  <si>
+    <t>200.8</t>
+  </si>
+  <si>
+    <t>D7237</t>
+  </si>
+  <si>
+    <t>American Public Health Association (Standards Methods - SM)</t>
+  </si>
+  <si>
+    <t>5310-B</t>
+  </si>
+  <si>
+    <t>7440-09-7</t>
   </si>
 </sst>
 </file>
@@ -1429,11 +1441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E344"/>
+  <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,483 +1471,483 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1952,7 +1964,7 @@
         <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,215 +1977,215 @@
       <c r="C31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>51</v>
+      <c r="D31" t="s">
+        <v>345</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,13 +2196,13 @@
         <v>49</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,18 +2213,18 @@
         <v>49</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D45" t="s">
+        <v>345</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
@@ -2224,12 +2236,12 @@
         <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
@@ -2241,41 +2253,41 @@
         <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>345</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="3">
-        <v>350.1</v>
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>200.9</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,16 +2295,16 @@
         <v>37</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="C50" s="3">
+        <v>350.1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,16 +2312,16 @@
         <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>345</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2317,16 +2329,16 @@
         <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>345</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2334,16 +2346,16 @@
         <v>37</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>345</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2351,16 +2363,16 @@
         <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>345</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,16 +2380,16 @@
         <v>37</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,16 +2397,16 @@
         <v>37</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2402,118 +2414,118 @@
         <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>345</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>48</v>
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s">
+        <v>345</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="3">
-        <v>200.7</v>
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C60" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C61" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>54</v>
+      <c r="C62" s="3">
+        <v>200.9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>345</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,16 +2533,16 @@
         <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,16 +2550,16 @@
         <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,16 +2567,16 @@
         <v>42</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C66" s="3">
+        <v>200.9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,16 +2584,16 @@
         <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>51</v>
+      <c r="D67" t="s">
+        <v>345</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,169 +2601,169 @@
         <v>42</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>345</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="3">
+      <c r="B70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="3">
         <v>614</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>205</v>
-      </c>
-      <c r="B70" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="D70" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="3">
-        <v>200.7</v>
+      <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>54</v>
+      <c r="C73" s="3">
+        <v>200.8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" t="s">
-        <v>252</v>
+      <c r="A74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
+        <v>345</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2762,234 +2774,234 @@
         <v>261</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="3">
-        <v>200.7</v>
+      <c r="A81" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C82" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>54</v>
+      <c r="C83" s="3">
+        <v>200.8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>242</v>
-      </c>
-      <c r="B84" t="s">
-        <v>286</v>
+      <c r="A84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>345</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="3">
-        <v>200.7</v>
+      <c r="A87" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>54</v>
+      <c r="C89" s="3">
+        <v>200.8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D90" t="s">
+        <v>345</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="3">
-        <v>300</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" t="s">
+        <v>345</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,167 +3011,167 @@
       <c r="B92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>150</v>
+      <c r="C92" s="3">
+        <v>300</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" t="s">
-        <v>268</v>
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="3">
-        <v>200.7</v>
+      <c r="A94" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C95" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C96" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>63</v>
+      <c r="C97" s="3">
+        <v>200.9</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>345</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>150</v>
+        <v>343</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3170,13 +3182,13 @@
         <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,574 +3199,574 @@
         <v>11</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" t="s">
+        <v>345</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" t="s">
+        <v>345</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C106" s="3">
-        <v>200.9</v>
+        <v>200.7</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C107" s="3">
-        <v>218.2</v>
+        <v>200.8</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>54</v>
+      <c r="C108" s="3">
+        <v>200.9</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>195</v>
+        <v>78</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="3">
+        <v>218.2</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>225</v>
-      </c>
-      <c r="B110" t="s">
-        <v>269</v>
+      <c r="A110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D110" t="s">
+        <v>345</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="3">
-        <v>200.7</v>
+        <v>193</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="3">
-        <v>200.8</v>
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>54</v>
+      <c r="C113" s="3">
+        <v>200.7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="C114" s="3">
+        <v>200.8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D115" t="s">
+        <v>345</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C116" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" t="s">
+        <v>345</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C118" s="3">
-        <v>200.9</v>
+        <v>200.7</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>54</v>
+      <c r="C119" s="3">
+        <v>200.8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>86</v>
+      <c r="C120" s="3">
+        <v>200.9</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" s="3">
-        <v>335.4</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" t="s">
+        <v>345</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
+      </c>
+      <c r="D122" t="s">
+        <v>345</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" s="3">
+        <v>335.4</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" t="s">
+        <v>345</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>223</v>
-      </c>
-      <c r="B124" t="s">
-        <v>267</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>229</v>
-      </c>
-      <c r="B126" t="s">
-        <v>273</v>
-      </c>
       <c r="C126" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
+      </c>
+      <c r="D126" t="s">
+        <v>345</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>227</v>
-      </c>
-      <c r="B127" t="s">
-        <v>271</v>
+      <c r="A127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>91</v>
+      <c r="A130" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>272</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>16</v>
+      <c r="A133" t="s">
+        <v>229</v>
+      </c>
+      <c r="B133" t="s">
+        <v>273</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>16</v>
+      <c r="A135" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135" t="s">
+        <v>274</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>16</v>
+      <c r="A136" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" t="s">
+        <v>275</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,143 +3777,141 @@
         <v>16</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>204</v>
+        <v>15</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="D138" t="s">
+        <v>345</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>203</v>
+        <v>15</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="D139" t="s">
+        <v>345</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" t="s">
+        <v>345</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" t="s">
+        <v>345</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143"/>
+      <c r="C143" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" t="s">
+        <v>345</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144" t="s">
+        <v>345</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>317</v>
-      </c>
-      <c r="B141" t="s">
-        <v>342</v>
-      </c>
-      <c r="C141" t="s">
-        <v>343</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>313</v>
-      </c>
-      <c r="B142" t="s">
-        <v>338</v>
-      </c>
-      <c r="C142" t="s">
-        <v>343</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>233</v>
-      </c>
-      <c r="B143" t="s">
-        <v>277</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>234</v>
-      </c>
-      <c r="B144" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>235</v>
-      </c>
-      <c r="B145" t="s">
-        <v>279</v>
+      <c r="B145" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,13 +3922,13 @@
         <v>341</v>
       </c>
       <c r="C146" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,191 +3939,191 @@
         <v>337</v>
       </c>
       <c r="C147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>49</v>
+      <c r="A150" t="s">
+        <v>234</v>
+      </c>
+      <c r="B150" t="s">
+        <v>278</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C151" s="3">
-        <v>353.2</v>
+      <c r="A151" t="s">
+        <v>315</v>
+      </c>
+      <c r="B151" t="s">
+        <v>340</v>
+      </c>
+      <c r="C151" t="s">
+        <v>342</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>98</v>
+      <c r="A152" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s">
+        <v>336</v>
+      </c>
+      <c r="C152" t="s">
+        <v>342</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C153" s="3">
-        <v>200.7</v>
+      <c r="A153" t="s">
+        <v>235</v>
+      </c>
+      <c r="B153" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C154" s="3">
-        <v>200.8</v>
+      <c r="A154" t="s">
+        <v>236</v>
+      </c>
+      <c r="B154" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C156" s="3">
+        <v>353.2</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>238</v>
-      </c>
-      <c r="B157" t="s">
-        <v>282</v>
+      <c r="A157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C158" s="3">
         <v>200.7</v>
@@ -4122,15 +4132,15 @@
         <v>48</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C159" s="3">
         <v>200.8</v>
@@ -4139,168 +4149,168 @@
         <v>48</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C160" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D160" t="s">
+        <v>345</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D161" t="s">
+        <v>345</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>102</v>
+      <c r="A162" t="s">
+        <v>237</v>
+      </c>
+      <c r="B162" t="s">
+        <v>281</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>54</v>
+      <c r="C163" s="3">
+        <v>200.7</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C164" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C165" s="3">
-        <v>200.8</v>
+        <v>200.9</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="D166" t="s">
+        <v>345</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="D167" t="s">
+        <v>345</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C168" s="3">
-        <v>614</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" t="s">
+        <v>345</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C169" s="3">
         <v>200.7</v>
@@ -4309,15 +4319,15 @@
         <v>48</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C170" s="3">
         <v>200.8</v>
@@ -4326,1409 +4336,1409 @@
         <v>48</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1638</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D171" t="s">
+        <v>345</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D172" t="s">
+        <v>345</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="C173" s="3">
+        <v>614</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C174" s="3">
-        <v>245.1</v>
+        <v>200.7</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C175" s="3">
-        <v>245.2</v>
+        <v>200.8</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C176" s="3">
-        <v>245.7</v>
+        <v>1638</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="D177" t="s">
+        <v>345</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D178" t="s">
+        <v>345</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>109</v>
+      <c r="C179" s="3">
+        <v>245.1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>151</v>
+        <v>106</v>
+      </c>
+      <c r="C180" s="3">
+        <v>245.2</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C181" s="3">
-        <v>200.7</v>
+        <v>245.7</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C182" s="3">
-        <v>200.8</v>
+        <v>106</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>239</v>
-      </c>
-      <c r="B184" t="s">
-        <v>283</v>
+      <c r="A184" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
+      </c>
+      <c r="D184" t="s">
+        <v>345</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C185" s="3">
-        <v>200.7</v>
+        <v>109</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C186" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C187" s="3">
+        <v>200.8</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D188" t="s">
+        <v>345</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C189" s="3">
-        <v>10206</v>
+      <c r="A189" t="s">
+        <v>238</v>
+      </c>
+      <c r="B189" t="s">
+        <v>282</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C190" s="3">
+        <v>200.7</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C191" s="3">
+        <v>200.8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D192" t="s">
+        <v>345</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C193" s="3">
-        <v>353.2</v>
+        <v>113</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C194" s="3">
+        <v>10206</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D195" t="s">
+        <v>345</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D196" t="s">
+        <v>345</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>240</v>
-      </c>
-      <c r="B195" t="s">
-        <v>284</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>241</v>
-      </c>
-      <c r="B196" t="s">
-        <v>285</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>243</v>
-      </c>
-      <c r="B197" t="s">
-        <v>287</v>
-      </c>
       <c r="C197" s="3" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>244</v>
-      </c>
-      <c r="B198" t="s">
-        <v>288</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>192</v>
+      <c r="A198" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C198" s="3">
+        <v>353.2</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>206</v>
-      </c>
-      <c r="B199" t="s">
-        <v>250</v>
+      <c r="A199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
+      </c>
+      <c r="D199" t="s">
+        <v>345</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B200" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>49</v>
+      <c r="A201" t="s">
+        <v>240</v>
+      </c>
+      <c r="B201" t="s">
+        <v>284</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C202" s="3">
-        <v>614</v>
+      <c r="A202" t="s">
+        <v>242</v>
+      </c>
+      <c r="B202" t="s">
+        <v>286</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>315</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>340</v>
-      </c>
-      <c r="C205" t="s">
-        <v>343</v>
+        <v>250</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>311</v>
-      </c>
-      <c r="B206" t="s">
-        <v>336</v>
-      </c>
-      <c r="C206" t="s">
-        <v>343</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>48</v>
+      <c r="A206" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D206" t="s">
+        <v>345</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>245</v>
-      </c>
-      <c r="B207" t="s">
-        <v>289</v>
+      <c r="A207" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>48</v>
+        <v>346</v>
+      </c>
+      <c r="D207" t="s">
+        <v>345</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>201</v>
+        <v>26</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C208" s="3">
+        <v>614</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>49</v>
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>252</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>49</v>
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>253</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>125</v>
+      <c r="A211" t="s">
+        <v>314</v>
+      </c>
+      <c r="B211" t="s">
+        <v>339</v>
+      </c>
+      <c r="C211" t="s">
+        <v>342</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="B212" t="s">
-        <v>290</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>192</v>
+        <v>335</v>
+      </c>
+      <c r="C212" t="s">
+        <v>342</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B213" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C214" s="3">
-        <v>420.1</v>
+        <v>199</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C215" s="3">
-        <v>365.3</v>
+      <c r="C215" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
+      </c>
+      <c r="D216" t="s">
+        <v>345</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C218" s="3">
-        <v>200.7</v>
+      <c r="A218" t="s">
+        <v>245</v>
+      </c>
+      <c r="B218" t="s">
+        <v>289</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C219" s="3">
-        <v>365.3</v>
+      <c r="A219" t="s">
+        <v>246</v>
+      </c>
+      <c r="B219" t="s">
+        <v>290</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C220" s="3">
-        <v>365.4</v>
+        <v>420.1</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221" s="3">
+        <v>365.3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
+      </c>
+      <c r="D222" t="s">
+        <v>345</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D223" t="s">
+        <v>345</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>211</v>
-      </c>
-      <c r="B224" t="s">
-        <v>255</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>192</v>
+      <c r="C224" s="3">
+        <v>200.7</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B225" s="2">
-        <v>2023695</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>145</v>
+        <v>28</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" s="3">
+        <v>365.3</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>248</v>
-      </c>
-      <c r="B226" t="s">
-        <v>292</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>192</v>
+      <c r="A226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" s="3">
+        <v>365.4</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C227" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D227" t="s">
+        <v>345</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C228" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D228" t="s">
+        <v>345</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C229" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D229" t="s">
+        <v>345</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>129</v>
+      <c r="A230" t="s">
+        <v>210</v>
+      </c>
+      <c r="B230" t="s">
+        <v>254</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C232" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D232" t="s">
+        <v>345</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C233" s="3">
-        <v>200.8</v>
+      <c r="A233" t="s">
+        <v>247</v>
+      </c>
+      <c r="B233" t="s">
+        <v>291</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C234" s="3">
-        <v>200.9</v>
+        <v>200.7</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>54</v>
+        <v>128</v>
+      </c>
+      <c r="C235" s="3">
+        <v>200.8</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C236" s="3">
-        <v>615</v>
+        <v>200.9</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>345</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D238" t="s">
+        <v>345</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
+      </c>
+      <c r="C239" s="3">
+        <v>200.7</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
+      </c>
+      <c r="C240" s="3">
+        <v>200.8</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="C241" s="3">
+        <v>200.9</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D242" t="s">
+        <v>345</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>310</v>
-      </c>
-      <c r="B243" t="s">
-        <v>335</v>
-      </c>
-      <c r="C243" t="s">
-        <v>343</v>
+      <c r="A243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="3">
+        <v>615</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C244" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D244" t="s">
+        <v>345</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C245" s="3">
-        <v>200.8</v>
+        <v>131</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C246" s="3">
-        <v>200.7</v>
+        <v>33</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C247" s="3">
-        <v>200.7</v>
+        <v>33</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="D248" t="s">
+        <v>345</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
+      </c>
+      <c r="D249" t="s">
+        <v>345</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>198</v>
+      <c r="A250" t="s">
+        <v>309</v>
+      </c>
+      <c r="B250" t="s">
+        <v>334</v>
+      </c>
+      <c r="C250" t="s">
+        <v>342</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
+      </c>
+      <c r="C251" s="3">
+        <v>200.7</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
+      </c>
+      <c r="C252" s="3">
+        <v>200.8</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C253" s="3">
         <v>200.7</v>
@@ -5737,108 +5747,178 @@
         <v>48</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C254" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="D255" t="s">
+        <v>345</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D256" t="s">
+        <v>345</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B256" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257"/>
-      <c r="B257"/>
-      <c r="C257"/>
-      <c r="D257"/>
-      <c r="E257"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258"/>
-      <c r="B258"/>
-      <c r="C258"/>
-      <c r="D258"/>
-      <c r="E258"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259"/>
-      <c r="B259"/>
-      <c r="C259"/>
-      <c r="D259"/>
-      <c r="E259"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260"/>
-      <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
+      <c r="C260" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261"/>
-      <c r="B261"/>
-      <c r="C261"/>
-      <c r="D261"/>
-      <c r="E261"/>
+      <c r="A261" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C261" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262"/>
-      <c r="B262"/>
-      <c r="C262"/>
-      <c r="D262"/>
-      <c r="E262"/>
+      <c r="A262" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D262" t="s">
+        <v>345</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263"/>
-      <c r="B263"/>
-      <c r="C263"/>
-      <c r="D263"/>
-      <c r="E263"/>
+      <c r="A263" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D263" t="s">
+        <v>345</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264"/>
@@ -6407,10 +6487,24 @@
       <c r="D344"/>
       <c r="E344"/>
     </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+      <c r="B345"/>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+      <c r="B346"/>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E294">
-    <sortState ref="A2:E294">
-      <sortCondition ref="A1:A185"/>
+  <autoFilter ref="A1:E296">
+    <sortState ref="A2:E296">
+      <sortCondition ref="A1:A296"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="362">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1071,6 +1071,48 @@
   </si>
   <si>
     <t>7440-09-7</t>
+  </si>
+  <si>
+    <t>Total suspended solids</t>
+  </si>
+  <si>
+    <t>2540-D</t>
+  </si>
+  <si>
+    <t>Total dissolved solids</t>
+  </si>
+  <si>
+    <t>2540-C</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen (DO)</t>
+  </si>
+  <si>
+    <t>4500-O-G</t>
+  </si>
+  <si>
+    <t>Biochemical oxygen demand, standard conditions</t>
+  </si>
+  <si>
+    <t>5210-B</t>
+  </si>
+  <si>
+    <t>Chemical oxygen demand</t>
+  </si>
+  <si>
+    <t>5220-C</t>
+  </si>
+  <si>
+    <t>5220-D</t>
+  </si>
+  <si>
+    <t>Alkalinity, bicarbonate</t>
+  </si>
+  <si>
+    <t>Alkalinity, carbonate</t>
+  </si>
+  <si>
+    <t>Alkalinity, Hydroxide</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1486,8 @@
   <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C231" sqref="C231"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D270" sqref="D270:E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5921,67 +5963,139 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264"/>
+      <c r="A264" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="B264"/>
-      <c r="C264"/>
-      <c r="D264"/>
-      <c r="E264"/>
+      <c r="C264" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D264" t="s">
+        <v>345</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265"/>
+      <c r="A265" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="B265"/>
-      <c r="C265"/>
-      <c r="D265"/>
-      <c r="E265"/>
+      <c r="C265" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D265" t="s">
+        <v>345</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266"/>
+      <c r="A266" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="B266"/>
-      <c r="C266"/>
-      <c r="D266"/>
-      <c r="E266"/>
+      <c r="C266" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D266" t="s">
+        <v>345</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267"/>
+      <c r="A267" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="B267"/>
-      <c r="C267"/>
-      <c r="D267"/>
-      <c r="E267"/>
+      <c r="C267" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D267" t="s">
+        <v>345</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268"/>
+      <c r="A268" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="B268"/>
-      <c r="C268"/>
-      <c r="D268"/>
-      <c r="E268"/>
+      <c r="C268" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D268" t="s">
+        <v>345</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269"/>
+      <c r="A269" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="B269"/>
-      <c r="C269"/>
-      <c r="D269"/>
-      <c r="E269"/>
+      <c r="C269" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D269" t="s">
+        <v>345</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270"/>
+      <c r="A270" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="B270"/>
-      <c r="C270"/>
-      <c r="D270"/>
-      <c r="E270"/>
+      <c r="C270" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D270" t="s">
+        <v>345</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271"/>
+      <c r="A271" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B271"/>
-      <c r="C271"/>
-      <c r="D271"/>
-      <c r="E271"/>
+      <c r="C271" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" t="s">
+        <v>345</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272"/>
+      <c r="A272" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="B272"/>
-      <c r="C272"/>
-      <c r="D272"/>
-      <c r="E272"/>
+      <c r="C272" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D272" t="s">
+        <v>345</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273"/>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="387">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1113,13 +1113,88 @@
   </si>
   <si>
     <t>Alkalinity, Hydroxide</t>
+  </si>
+  <si>
+    <t>p,p'-DDD</t>
+  </si>
+  <si>
+    <t>p,p'-DDE</t>
+  </si>
+  <si>
+    <t>p,p'-DDT</t>
+  </si>
+  <si>
+    <t>Aldrin</t>
+  </si>
+  <si>
+    <t>.alpha.-Hexachlorocyclohexane</t>
+  </si>
+  <si>
+    <t>.beta.-Hexachlorocyclohexane</t>
+  </si>
+  <si>
+    <t>.delta.-Hexachlorocyclohexane</t>
+  </si>
+  <si>
+    <t>Dieldrin</t>
+  </si>
+  <si>
+    <t>.alpha.-Endosulfan</t>
+  </si>
+  <si>
+    <t>.beta.-Endosulfan</t>
+  </si>
+  <si>
+    <t>Endosulfan sulfate</t>
+  </si>
+  <si>
+    <t>Endrin aldehyde</t>
+  </si>
+  <si>
+    <t>Lindane</t>
+  </si>
+  <si>
+    <t>Heptachlor epoxide</t>
+  </si>
+  <si>
+    <t>Decachlorobiphenyl</t>
+  </si>
+  <si>
+    <t>Tetrachloro-m-xylene</t>
+  </si>
+  <si>
+    <t>Chlordane, technical</t>
+  </si>
+  <si>
+    <t>Aroclor 1016</t>
+  </si>
+  <si>
+    <t>Aroclor 1221</t>
+  </si>
+  <si>
+    <t>Aroclor 1232</t>
+  </si>
+  <si>
+    <t>Aroclor 1242</t>
+  </si>
+  <si>
+    <t>Aroclor 1248</t>
+  </si>
+  <si>
+    <t>Aroclor 1254</t>
+  </si>
+  <si>
+    <t>Aroclor 1260</t>
+  </si>
+  <si>
+    <t>OIA-1677</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1216,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1178,10 +1260,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1203,9 +1286,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1483,11 +1568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D270" sqref="D270:E272"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6097,224 +6182,474 @@
         <v>142</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
-      <c r="D273"/>
-      <c r="E273"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274"/>
-      <c r="B274"/>
-      <c r="C274"/>
-      <c r="D274"/>
-      <c r="E274"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275"/>
-      <c r="B275"/>
-      <c r="C275"/>
-      <c r="D275"/>
-      <c r="E275"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276"/>
-      <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276"/>
-      <c r="E276"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277"/>
-      <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278"/>
-      <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279"/>
-      <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280"/>
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281"/>
-      <c r="B281"/>
-      <c r="C281"/>
-      <c r="D281"/>
-      <c r="E281"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282"/>
-      <c r="B282"/>
-      <c r="C282"/>
-      <c r="D282"/>
-      <c r="E282"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283"/>
-      <c r="B283"/>
-      <c r="C283"/>
-      <c r="D283"/>
-      <c r="E283"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284"/>
-      <c r="B284"/>
-      <c r="C284"/>
-      <c r="D284"/>
-      <c r="E284"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285"/>
-      <c r="B285"/>
-      <c r="C285"/>
-      <c r="D285"/>
-      <c r="E285"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286"/>
-      <c r="B286"/>
-      <c r="C286"/>
-      <c r="D286"/>
-      <c r="E286"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287"/>
-      <c r="B287"/>
-      <c r="C287"/>
-      <c r="D287"/>
-      <c r="E287"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288"/>
-      <c r="B288"/>
-      <c r="C288"/>
-      <c r="D288"/>
-      <c r="E288"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289"/>
-      <c r="B289"/>
-      <c r="C289"/>
-      <c r="D289"/>
-      <c r="E289"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290"/>
-      <c r="B290"/>
-      <c r="C290"/>
-      <c r="D290"/>
-      <c r="E290"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291"/>
-      <c r="B291"/>
-      <c r="C291"/>
-      <c r="D291"/>
-      <c r="E291"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292"/>
-      <c r="B292"/>
-      <c r="C292"/>
-      <c r="D292"/>
-      <c r="E292"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293"/>
-      <c r="B293"/>
-      <c r="C293"/>
-      <c r="D293"/>
-      <c r="E293"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294"/>
-      <c r="B294"/>
-      <c r="C294"/>
-      <c r="D294"/>
-      <c r="E294"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295"/>
-      <c r="B295"/>
-      <c r="C295"/>
-      <c r="D295"/>
-      <c r="E295"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296"/>
-      <c r="B296"/>
-      <c r="C296"/>
-      <c r="D296"/>
-      <c r="E296"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297"/>
-      <c r="B297"/>
-      <c r="C297"/>
-      <c r="D297"/>
-      <c r="E297"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298"/>
-      <c r="B298"/>
-      <c r="C298"/>
-      <c r="D298"/>
-      <c r="E298"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299"/>
-      <c r="B299"/>
-      <c r="C299"/>
-      <c r="D299"/>
-      <c r="E299"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300"/>
-      <c r="B300"/>
-      <c r="C300"/>
-      <c r="D300"/>
-      <c r="E300"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B273" s="9"/>
+      <c r="C273" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B274" s="9"/>
+      <c r="C274" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F274"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B275" s="9"/>
+      <c r="C275" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F275"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B276" s="9"/>
+      <c r="C276" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F276"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B277" s="9"/>
+      <c r="C277" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B278" s="9"/>
+      <c r="C278" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F278"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B279" s="9"/>
+      <c r="C279" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F279"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B280" s="9"/>
+      <c r="C280" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B281" s="9"/>
+      <c r="C281" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F281"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B282" s="9"/>
+      <c r="C282" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B283" s="9"/>
+      <c r="C283" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284" s="9"/>
+      <c r="C284" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B285" s="9"/>
+      <c r="C285" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B286" s="9"/>
+      <c r="C286" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" s="9"/>
+      <c r="C287" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B288" s="9"/>
+      <c r="C288" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="9"/>
+      <c r="C289" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B291" s="9"/>
+      <c r="C291" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B295" s="9"/>
+      <c r="C295" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B296" s="9"/>
+      <c r="C296" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B297" s="9"/>
+      <c r="C297" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B298" s="9"/>
+      <c r="C298" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B299" s="9"/>
+      <c r="C299" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F299"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300" t="s">
+        <v>386</v>
+      </c>
+      <c r="D300" t="s">
+        <v>48</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
       <c r="E301"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
       <c r="E302"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
       <c r="E303"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="389">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1188,6 +1188,12 @@
   </si>
   <si>
     <t>OIA-1677</t>
+  </si>
+  <si>
+    <t>Alkalinity</t>
+  </si>
+  <si>
+    <t>3500-CR(B)</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1287,6 +1293,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,8 +1581,8 @@
   <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D303" sqref="D303:E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,16 +1612,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1619,16 +1627,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1636,16 +1642,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1653,16 +1657,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1670,16 +1672,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1688,13 +1688,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" t="s">
-        <v>342</v>
+        <v>172</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" t="s">
-        <v>342</v>
+        <v>173</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>48</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" t="s">
-        <v>342</v>
+        <v>174</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" t="s">
-        <v>342</v>
+        <v>175</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" t="s">
-        <v>342</v>
+        <v>176</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
         <v>342</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
         <v>342</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C14" t="s">
         <v>342</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>342</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>342</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C17" t="s">
         <v>342</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
         <v>342</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C19" t="s">
         <v>342</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>191</v>
+        <v>320</v>
+      </c>
+      <c r="C20" t="s">
+        <v>342</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>48</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>192</v>
+        <v>329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>342</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>48</v>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
         <v>342</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>190</v>
+        <v>325</v>
+      </c>
+      <c r="C23" t="s">
+        <v>342</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>48</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>190</v>
+        <v>318</v>
+      </c>
+      <c r="C24" t="s">
+        <v>342</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
-      </c>
-      <c r="C25" t="s">
-        <v>342</v>
+        <v>177</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>48</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
-      </c>
-      <c r="C26" t="s">
-        <v>342</v>
+        <v>177</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C27" t="s">
         <v>342</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28" t="s">
-        <v>342</v>
+        <v>178</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>48</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>48</v>
@@ -2078,14 +2078,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>615</v>
+      <c r="A30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>342</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>48</v>
@@ -2095,17 +2095,17 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>345</v>
+      <c r="A31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>142</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>191</v>
+        <v>324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>48</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>191</v>
+        <v>317</v>
+      </c>
+      <c r="C33" t="s">
+        <v>342</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>48</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>191</v>
@@ -2163,14 +2163,14 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>191</v>
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>615</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>48</v>
@@ -2180,17 +2180,17 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" t="s">
-        <v>186</v>
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>345</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>142</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>48</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>191</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>48</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>191</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>191</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>48</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>191</v>
@@ -2316,119 +2316,119 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C49" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C50" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D45" t="s">
-        <v>345</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>345</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>200.9</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="3">
-        <v>350.1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>48</v>
+      <c r="D50" t="s">
+        <v>345</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>142</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
         <v>345</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>345</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>345</v>
@@ -2487,16 +2487,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" t="s">
-        <v>345</v>
+        <v>148</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>142</v>
@@ -2504,16 +2504,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>345</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>142</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>200.7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>142</v>
@@ -2538,16 +2538,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" t="s">
-        <v>345</v>
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>142</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>146</v>
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D58" t="s">
         <v>345</v>
@@ -2571,14 +2571,14 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" t="s">
-        <v>257</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>191</v>
+      <c r="A59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>200.9</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>48</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3">
-        <v>200.7</v>
+        <v>350.1</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>48</v>
@@ -2606,16 +2606,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>345</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>142</v>
@@ -2623,16 +2623,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>345</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>142</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>345</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>345</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>142</v>
@@ -2674,16 +2674,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="3">
-        <v>200.8</v>
+        <v>54</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
@@ -2691,16 +2691,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="3">
-        <v>200.9</v>
+        <v>54</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>142</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
         <v>345</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D68" t="s">
         <v>345</v>
@@ -2741,17 +2741,17 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>61</v>
+      <c r="A69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>257</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>142</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C70" s="3">
-        <v>614</v>
+        <v>200.7</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>48</v>
@@ -2775,14 +2775,14 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>204</v>
-      </c>
-      <c r="B71" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>191</v>
+      <c r="A71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="3">
+        <v>200.8</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>48</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C72" s="3">
-        <v>200.7</v>
+        <v>200.9</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>48</v>
@@ -2810,49 +2810,45 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>345</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" t="s">
-        <v>345</v>
+      <c r="A74" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="A75" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -2860,16 +2856,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" t="s">
-        <v>258</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="A76" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -2877,16 +2871,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" t="s">
-        <v>259</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="A77" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2894,16 +2886,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78" t="s">
-        <v>261</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="A78" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -2911,16 +2901,14 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="A79" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -2928,16 +2916,14 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" t="s">
-        <v>262</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="A80" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -2945,14 +2931,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" t="s">
-        <v>263</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>191</v>
+      <c r="A81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="3">
+        <v>200.7</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>48</v>
@@ -2963,13 +2949,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C82" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -2980,13 +2966,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C83" s="3">
-        <v>200.8</v>
+        <v>200.9</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>48</v>
@@ -2997,81 +2983,81 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>345</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D84" t="s">
-        <v>345</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>241</v>
-      </c>
-      <c r="B85" t="s">
-        <v>285</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="3">
+        <v>614</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>221</v>
-      </c>
-      <c r="B87" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="3">
-        <v>200.7</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>48</v>
@@ -3082,13 +3068,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>48</v>
@@ -3099,16 +3085,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" t="s">
-        <v>345</v>
+        <v>6</v>
+      </c>
+      <c r="C90" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>142</v>
@@ -3116,13 +3102,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
         <v>345</v>
@@ -3132,14 +3118,14 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="3">
-        <v>300</v>
+      <c r="A92" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>48</v>
@@ -3149,14 +3135,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>9</v>
+      <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s">
+        <v>258</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>48</v>
@@ -3167,10 +3153,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>191</v>
@@ -3183,14 +3169,14 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="3">
-        <v>200.7</v>
+      <c r="A95" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>48</v>
@@ -3200,14 +3186,14 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" s="3">
-        <v>200.8</v>
+      <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>48</v>
@@ -3217,14 +3203,14 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" s="3">
-        <v>200.9</v>
+      <c r="A97" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>48</v>
@@ -3234,17 +3220,17 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>71</v>
+      <c r="A98" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" t="s">
+        <v>263</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>142</v>
@@ -3252,50 +3238,50 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D99" t="s">
-        <v>345</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>48</v>
+      <c r="D101" t="s">
+        <v>345</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>142</v>
@@ -3303,30 +3289,28 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B102"/>
       <c r="C102" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>48</v>
+        <v>355</v>
+      </c>
+      <c r="D102" t="s">
+        <v>345</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>11</v>
+      <c r="A103" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" t="s">
+        <v>285</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>48</v>
@@ -3336,34 +3320,34 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>11</v>
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>264</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D104" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>11</v>
+      <c r="A105" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" t="s">
+        <v>265</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>142</v>
@@ -3371,10 +3355,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C106" s="3">
         <v>200.7</v>
@@ -3388,10 +3372,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C107" s="3">
         <v>200.8</v>
@@ -3405,16 +3389,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C108" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" t="s">
+        <v>345</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>142</v>
@@ -3422,16 +3406,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" s="3">
-        <v>218.2</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" t="s">
+        <v>345</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>142</v>
@@ -3439,16 +3423,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D110" t="s">
-        <v>345</v>
+        <v>9</v>
+      </c>
+      <c r="C110" s="3">
+        <v>300</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>142</v>
@@ -3456,13 +3440,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B111" t="s">
-        <v>195</v>
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>48</v>
@@ -3473,10 +3457,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>191</v>
@@ -3490,10 +3474,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C113" s="3">
         <v>200.7</v>
@@ -3507,10 +3491,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C114" s="3">
         <v>200.8</v>
@@ -3524,16 +3508,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D115" t="s">
-        <v>345</v>
+        <v>71</v>
+      </c>
+      <c r="C115" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>142</v>
@@ -3541,13 +3525,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D116" t="s">
         <v>345</v>
@@ -3558,30 +3542,30 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D117" t="s">
+        <v>345</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" s="3">
-        <v>200.7</v>
+        <v>72</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>48</v>
@@ -3590,15 +3574,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="3">
-        <v>200.8</v>
+        <v>72</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>48</v>
@@ -3609,16 +3593,14 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>48</v>
+        <v>356</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D120" t="s">
+        <v>345</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>142</v>
@@ -3626,13 +3608,11 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B121"/>
       <c r="C121" s="3" t="s">
-        <v>53</v>
+        <v>358</v>
       </c>
       <c r="D121" t="s">
         <v>345</v>
@@ -3642,17 +3622,15 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D122" t="s">
-        <v>345</v>
+      <c r="A122" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>142</v>
@@ -3660,16 +3638,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D123" t="s">
-        <v>345</v>
+        <v>145</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>142</v>
@@ -3677,13 +3655,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C124" s="3">
-        <v>335.4</v>
+        <v>11</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>48</v>
@@ -3694,13 +3672,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D125" t="s">
         <v>345</v>
@@ -3711,13 +3689,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D126" t="s">
         <v>345</v>
@@ -3728,30 +3706,30 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>344</v>
+        <v>79</v>
+      </c>
+      <c r="C127" s="3">
+        <v>200.7</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" t="s">
-        <v>266</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>191</v>
+      <c r="A128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="3">
+        <v>200.8</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>48</v>
@@ -3761,14 +3739,14 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>225</v>
-      </c>
-      <c r="B129" t="s">
-        <v>269</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>191</v>
+      <c r="A129" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="3">
+        <v>200.9</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>48</v>
@@ -3778,14 +3756,14 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>191</v>
+      <c r="A130" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="3">
+        <v>218.2</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>48</v>
@@ -3795,31 +3773,31 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>226</v>
-      </c>
-      <c r="B131" t="s">
-        <v>270</v>
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D131" t="s">
+        <v>345</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>227</v>
+      <c r="A132" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>48</v>
@@ -3830,10 +3808,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>191</v>
@@ -3847,13 +3825,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
+      </c>
+      <c r="C134" s="3">
+        <v>200.7</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>48</v>
@@ -3863,14 +3841,14 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>230</v>
-      </c>
-      <c r="B135" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>191</v>
+      <c r="A135" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="3">
+        <v>200.8</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>48</v>
@@ -3880,17 +3858,17 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>231</v>
-      </c>
-      <c r="B136" t="s">
-        <v>275</v>
+      <c r="A136" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D136" t="s">
+        <v>345</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>142</v>
@@ -3898,16 +3876,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
+      </c>
+      <c r="D137" t="s">
+        <v>345</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>142</v>
@@ -3915,16 +3893,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D138" t="s">
-        <v>345</v>
+        <v>152</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>142</v>
@@ -3932,16 +3910,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D139" t="s">
-        <v>345</v>
+        <v>84</v>
+      </c>
+      <c r="C139" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>142</v>
@@ -3949,16 +3927,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D140" t="s">
-        <v>345</v>
+        <v>84</v>
+      </c>
+      <c r="C140" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>142</v>
@@ -3966,16 +3944,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D141" t="s">
-        <v>345</v>
+        <v>84</v>
+      </c>
+      <c r="C141" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>142</v>
@@ -3983,10 +3961,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>203</v>
+        <v>83</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="D142" t="s">
         <v>345</v>
@@ -3997,11 +3978,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B143"/>
+        <v>83</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C143" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D143" t="s">
         <v>345</v>
@@ -4012,10 +3995,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>202</v>
+        <v>83</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="D144" t="s">
         <v>345</v>
@@ -4026,13 +4012,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>150</v>
+        <v>87</v>
+      </c>
+      <c r="C145" s="3">
+        <v>335.4</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>48</v>
@@ -4042,51 +4028,51 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>316</v>
-      </c>
-      <c r="B146" t="s">
-        <v>341</v>
-      </c>
-      <c r="C146" t="s">
-        <v>342</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>48</v>
+      <c r="A146" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" t="s">
+        <v>345</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>312</v>
-      </c>
-      <c r="B147" t="s">
-        <v>337</v>
-      </c>
-      <c r="C147" t="s">
-        <v>342</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>48</v>
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D147" t="s">
+        <v>345</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>232</v>
-      </c>
-      <c r="B148" t="s">
-        <v>276</v>
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>142</v>
@@ -4094,15 +4080,15 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>233</v>
-      </c>
-      <c r="B149" t="s">
-        <v>277</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" t="s">
+        <v>386</v>
+      </c>
+      <c r="D149" t="s">
         <v>48</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -4110,16 +4096,14 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>234</v>
-      </c>
-      <c r="B150" t="s">
-        <v>278</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="A150" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D150" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -4128,13 +4112,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="B151" t="s">
-        <v>340</v>
-      </c>
-      <c r="C151" t="s">
-        <v>342</v>
+        <v>266</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>48</v>
@@ -4145,13 +4129,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="B152" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" t="s">
-        <v>342</v>
+        <v>269</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>48</v>
@@ -4162,10 +4146,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B153" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>191</v>
@@ -4178,32 +4162,30 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>236</v>
-      </c>
-      <c r="B154" t="s">
-        <v>280</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="A154" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" t="s">
+        <v>270</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D155" s="1" t="s">
         <v>48</v>
       </c>
@@ -4212,14 +4194,14 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C156" s="3">
-        <v>353.2</v>
+      <c r="A156" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" t="s">
+        <v>271</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>48</v>
@@ -4229,14 +4211,14 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>49</v>
+      <c r="A157" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" t="s">
+        <v>273</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>48</v>
@@ -4247,32 +4229,28 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C158" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>48</v>
+        <v>352</v>
+      </c>
+      <c r="B158"/>
+      <c r="C158" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D158" t="s">
+        <v>345</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C159" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="A159" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -4281,65 +4259,63 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D160" t="s">
-        <v>345</v>
+        <v>150</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>98</v>
+      <c r="A161" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D161" t="s">
-        <v>345</v>
+        <v>90</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>237</v>
-      </c>
-      <c r="B162" t="s">
-        <v>281</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="A162" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>230</v>
+      </c>
+      <c r="B163" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C163" s="3">
-        <v>200.7</v>
-      </c>
       <c r="D163" s="1" t="s">
         <v>48</v>
       </c>
@@ -4348,14 +4324,14 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C164" s="3">
-        <v>200.8</v>
+      <c r="A164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B164" t="s">
+        <v>275</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>48</v>
@@ -4366,13 +4342,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C165" s="3">
-        <v>200.9</v>
+        <v>16</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>48</v>
@@ -4383,13 +4359,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D166" t="s">
         <v>345</v>
@@ -4400,13 +4376,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D167" t="s">
         <v>345</v>
@@ -4417,13 +4393,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D168" t="s">
         <v>345</v>
@@ -4434,16 +4410,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D169" t="s">
+        <v>345</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>142</v>
@@ -4451,16 +4427,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>48</v>
+        <v>203</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D170" t="s">
+        <v>345</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>142</v>
@@ -4468,13 +4441,11 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B171"/>
       <c r="C171" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D171" t="s">
         <v>345</v>
@@ -4485,13 +4456,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D172" t="s">
         <v>345</v>
@@ -4502,13 +4470,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C173" s="3">
-        <v>614</v>
+        <v>96</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>48</v>
@@ -4518,16 +4486,16 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>104</v>
+      <c r="A174" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C174" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D174" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -4535,16 +4503,14 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C175" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="A175" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -4552,14 +4518,14 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1638</v>
+      <c r="A176" t="s">
+        <v>316</v>
+      </c>
+      <c r="B176" t="s">
+        <v>341</v>
+      </c>
+      <c r="C176" t="s">
+        <v>342</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>48</v>
@@ -4569,48 +4535,48 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D177" t="s">
-        <v>345</v>
+      <c r="A177" t="s">
+        <v>312</v>
+      </c>
+      <c r="B177" t="s">
+        <v>337</v>
+      </c>
+      <c r="C177" t="s">
+        <v>342</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>21</v>
+      <c r="A178" t="s">
+        <v>232</v>
+      </c>
+      <c r="B178" t="s">
+        <v>276</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D178" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C179" s="3">
-        <v>245.1</v>
+      <c r="A179" t="s">
+        <v>233</v>
+      </c>
+      <c r="B179" t="s">
+        <v>277</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>48</v>
@@ -4620,14 +4586,14 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C180" s="3">
-        <v>245.2</v>
+      <c r="A180" t="s">
+        <v>234</v>
+      </c>
+      <c r="B180" t="s">
+        <v>278</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>48</v>
@@ -4637,14 +4603,14 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C181" s="3">
-        <v>245.7</v>
+      <c r="A181" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" t="s">
+        <v>340</v>
+      </c>
+      <c r="C181" t="s">
+        <v>342</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>48</v>
@@ -4654,14 +4620,14 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>107</v>
+      <c r="A182" t="s">
+        <v>311</v>
+      </c>
+      <c r="B182" t="s">
+        <v>336</v>
+      </c>
+      <c r="C182" t="s">
+        <v>342</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>48</v>
@@ -4671,14 +4637,14 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>106</v>
+      <c r="A183" t="s">
+        <v>235</v>
+      </c>
+      <c r="B183" t="s">
+        <v>279</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>48</v>
@@ -4688,17 +4654,17 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>106</v>
+      <c r="A184" t="s">
+        <v>236</v>
+      </c>
+      <c r="B184" t="s">
+        <v>280</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D184" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>142</v>
@@ -4706,13 +4672,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>48</v>
@@ -4723,13 +4689,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C186" s="3">
-        <v>200.7</v>
+        <v>353.2</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>48</v>
@@ -4740,13 +4706,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C187" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>48</v>
@@ -4757,30 +4723,30 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D188" t="s">
-        <v>345</v>
+        <v>99</v>
+      </c>
+      <c r="C188" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>238</v>
-      </c>
-      <c r="B189" t="s">
-        <v>282</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>191</v>
+      <c r="A189" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" s="3">
+        <v>200.8</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>48</v>
@@ -4791,16 +4757,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C190" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D190" t="s">
+        <v>345</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>142</v>
@@ -4808,33 +4774,33 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C191" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D191" t="s">
+        <v>345</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>112</v>
+      <c r="A192" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" t="s">
+        <v>281</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D192" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>142</v>
@@ -4842,13 +4808,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>145</v>
+        <v>101</v>
+      </c>
+      <c r="C193" s="3">
+        <v>200.7</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>48</v>
@@ -4859,16 +4825,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C194" s="3">
-        <v>10206</v>
+        <v>200.8</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>142</v>
@@ -4876,16 +4842,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D195" t="s">
-        <v>345</v>
+        <v>101</v>
+      </c>
+      <c r="C195" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>142</v>
@@ -4893,13 +4859,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D196" t="s">
         <v>345</v>
@@ -4910,16 +4876,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="D197" t="s">
+        <v>345</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>142</v>
@@ -4927,47 +4893,45 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C198" s="3">
-        <v>353.2</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" t="s">
+        <v>345</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D199" t="s">
-        <v>345</v>
+      <c r="A199" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>239</v>
-      </c>
-      <c r="B200" t="s">
-        <v>283</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>191</v>
+      <c r="A200" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="3">
+        <v>200.7</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>48</v>
@@ -4977,14 +4941,14 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>240</v>
-      </c>
-      <c r="B201" t="s">
-        <v>284</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>191</v>
+      <c r="A201" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="3">
+        <v>200.8</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>48</v>
@@ -4994,48 +4958,48 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>242</v>
-      </c>
-      <c r="B202" t="s">
-        <v>286</v>
+      <c r="A202" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="D202" t="s">
+        <v>345</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>243</v>
-      </c>
-      <c r="B203" t="s">
-        <v>287</v>
+      <c r="A203" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D203" t="s">
+        <v>345</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>205</v>
-      </c>
-      <c r="B204" t="s">
-        <v>249</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>191</v>
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C204" s="3">
+        <v>614</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>48</v>
@@ -5045,14 +5009,14 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>206</v>
-      </c>
-      <c r="B205" t="s">
-        <v>250</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>191</v>
+      <c r="A205" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="3">
+        <v>200.7</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>48</v>
@@ -5063,16 +5027,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D206" t="s">
-        <v>345</v>
+        <v>21</v>
+      </c>
+      <c r="C206" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>142</v>
@@ -5080,16 +5044,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D207" t="s">
-        <v>345</v>
+        <v>21</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1638</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>142</v>
@@ -5097,47 +5061,47 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C208" s="3">
-        <v>614</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D208" t="s">
+        <v>345</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>252</v>
+      <c r="A209" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D209" t="s">
+        <v>345</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>253</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>191</v>
+      <c r="A210" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C210" s="3">
+        <v>245.1</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>48</v>
@@ -5147,14 +5111,14 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>314</v>
-      </c>
-      <c r="B211" t="s">
-        <v>339</v>
-      </c>
-      <c r="C211" t="s">
-        <v>342</v>
+      <c r="A211" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C211" s="3">
+        <v>245.2</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>48</v>
@@ -5164,14 +5128,14 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>310</v>
-      </c>
-      <c r="B212" t="s">
-        <v>335</v>
-      </c>
-      <c r="C212" t="s">
-        <v>342</v>
+      <c r="A212" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C212" s="3">
+        <v>245.7</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>48</v>
@@ -5181,14 +5145,14 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>244</v>
-      </c>
-      <c r="B213" t="s">
-        <v>288</v>
+      <c r="A213" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>48</v>
@@ -5199,13 +5163,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>201</v>
+        <v>105</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>48</v>
@@ -5216,16 +5180,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
+      </c>
+      <c r="D215" t="s">
+        <v>345</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>142</v>
@@ -5233,47 +5197,45 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D216" t="s">
-        <v>345</v>
+        <v>150</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>56</v>
+      <c r="A217" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>245</v>
-      </c>
-      <c r="B218" t="s">
-        <v>289</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>191</v>
+      <c r="A218" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="3">
+        <v>200.7</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>48</v>
@@ -5283,14 +5245,14 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>246</v>
-      </c>
-      <c r="B219" t="s">
-        <v>290</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>191</v>
+      <c r="A219" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="3">
+        <v>200.8</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>48</v>
@@ -5301,30 +5263,30 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C220" s="3">
-        <v>420.1</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D220" t="s">
+        <v>345</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C221" s="3">
-        <v>365.3</v>
+      <c r="A221" t="s">
+        <v>238</v>
+      </c>
+      <c r="B221" t="s">
+        <v>282</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>48</v>
@@ -5335,16 +5297,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D222" t="s">
-        <v>345</v>
+        <v>112</v>
+      </c>
+      <c r="C222" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>142</v>
@@ -5352,16 +5314,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D223" t="s">
-        <v>345</v>
+        <v>111</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C223" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>142</v>
@@ -5369,16 +5331,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C224" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D224" t="s">
+        <v>345</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>142</v>
@@ -5386,13 +5348,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C225" s="3">
-        <v>365.3</v>
+        <v>24</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>48</v>
@@ -5403,16 +5365,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C226" s="3">
-        <v>365.4</v>
+        <v>10206</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>142</v>
@@ -5420,13 +5382,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D227" t="s">
         <v>345</v>
@@ -5437,13 +5399,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D228" t="s">
         <v>345</v>
@@ -5454,30 +5416,30 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D229" t="s">
-        <v>345</v>
+        <v>145</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>210</v>
-      </c>
-      <c r="B230" t="s">
-        <v>254</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>191</v>
+      <c r="A230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C230" s="3">
+        <v>353.2</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>48</v>
@@ -5488,33 +5450,33 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>347</v>
+        <v>25</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
+      </c>
+      <c r="D231" t="s">
+        <v>345</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>347</v>
+      <c r="A232" t="s">
+        <v>239</v>
+      </c>
+      <c r="B232" t="s">
+        <v>283</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D232" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>142</v>
@@ -5522,10 +5484,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B233" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>191</v>
@@ -5538,14 +5500,14 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C234" s="3">
-        <v>200.7</v>
+      <c r="A234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" t="s">
+        <v>286</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>48</v>
@@ -5555,14 +5517,14 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C235" s="3">
-        <v>200.8</v>
+      <c r="A235" t="s">
+        <v>243</v>
+      </c>
+      <c r="B235" t="s">
+        <v>287</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>48</v>
@@ -5572,14 +5534,14 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C236" s="3">
-        <v>200.9</v>
+      <c r="A236" t="s">
+        <v>205</v>
+      </c>
+      <c r="B236" t="s">
+        <v>249</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>48</v>
@@ -5589,17 +5551,17 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>128</v>
+      <c r="A237" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" t="s">
+        <v>250</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D237" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>142</v>
@@ -5607,13 +5569,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D238" t="s">
         <v>345</v>
@@ -5624,32 +5586,30 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C239" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D239" t="s">
+        <v>345</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C240" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D240" s="1" t="s">
+      <c r="A240" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B240" s="9"/>
+      <c r="C240" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D240" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -5657,16 +5617,14 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C241" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D241" s="1" t="s">
+      <c r="A241" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B241" s="9"/>
+      <c r="C241" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D241" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -5674,17 +5632,15 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D242" t="s">
-        <v>345</v>
+      <c r="A242" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>142</v>
@@ -5692,13 +5648,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="C243" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>48</v>
@@ -5708,31 +5664,31 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>31</v>
+      <c r="A244" t="s">
+        <v>208</v>
+      </c>
+      <c r="B244" t="s">
+        <v>252</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D244" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>131</v>
+      <c r="A245" t="s">
+        <v>209</v>
+      </c>
+      <c r="B245" t="s">
+        <v>253</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>48</v>
@@ -5742,14 +5698,14 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>145</v>
+      <c r="A246" t="s">
+        <v>314</v>
+      </c>
+      <c r="B246" t="s">
+        <v>339</v>
+      </c>
+      <c r="C246" t="s">
+        <v>342</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>48</v>
@@ -5759,14 +5715,14 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>149</v>
+      <c r="A247" t="s">
+        <v>310</v>
+      </c>
+      <c r="B247" t="s">
+        <v>335</v>
+      </c>
+      <c r="C247" t="s">
+        <v>342</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>48</v>
@@ -5776,17 +5732,17 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>33</v>
+      <c r="A248" t="s">
+        <v>244</v>
+      </c>
+      <c r="B248" t="s">
+        <v>288</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D248" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>142</v>
@@ -5794,30 +5750,30 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B249" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C249" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D249" t="s">
-        <v>345</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>309</v>
-      </c>
-      <c r="B250" t="s">
-        <v>334</v>
-      </c>
-      <c r="C250" t="s">
-        <v>342</v>
+      <c r="C250" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>48</v>
@@ -5828,16 +5784,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C251" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D251" t="s">
+        <v>345</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>142</v>
@@ -5845,30 +5801,30 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C252" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C253" s="3">
-        <v>200.7</v>
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+      <c r="B253" t="s">
+        <v>289</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>48</v>
@@ -5878,14 +5834,14 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C254" s="3">
-        <v>200.7</v>
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+      <c r="B254" t="s">
+        <v>290</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>48</v>
@@ -5896,16 +5852,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D255" t="s">
-        <v>345</v>
+      <c r="C255" s="3">
+        <v>420.1</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>142</v>
@@ -5913,16 +5869,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C256" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D256" t="s">
-        <v>345</v>
+      <c r="C256" s="3">
+        <v>365.3</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>142</v>
@@ -5930,16 +5886,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="D257" t="s">
+        <v>345</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>142</v>
@@ -5947,16 +5903,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="D258" t="s">
+        <v>345</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>142</v>
@@ -5964,13 +5920,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>147</v>
+        <v>28</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C259" s="3">
+        <v>200.7</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>48</v>
@@ -5981,13 +5937,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C260" s="3">
-        <v>200.7</v>
+        <v>365.3</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>48</v>
@@ -5998,13 +5954,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C261" s="3">
-        <v>200.8</v>
+        <v>365.4</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>48</v>
@@ -6015,13 +5971,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D262" t="s">
         <v>345</v>
@@ -6032,13 +5988,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="D263" t="s">
         <v>345</v>
@@ -6049,11 +6005,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B264"/>
+        <v>28</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C264" s="3" t="s">
-        <v>349</v>
+        <v>121</v>
       </c>
       <c r="D264" t="s">
         <v>345</v>
@@ -6063,15 +6021,17 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B265"/>
+      <c r="A265" t="s">
+        <v>210</v>
+      </c>
+      <c r="B265" t="s">
+        <v>254</v>
+      </c>
       <c r="C265" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D265" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>142</v>
@@ -6079,14 +6039,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B266"/>
+        <v>126</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="C266" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D266" t="s">
-        <v>345</v>
+        <v>144</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>142</v>
@@ -6094,11 +6056,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B267"/>
+        <v>126</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="C267" s="3" t="s">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="D267" t="s">
         <v>345</v>
@@ -6108,15 +6072,17 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B268"/>
+      <c r="A268" t="s">
+        <v>247</v>
+      </c>
+      <c r="B268" t="s">
+        <v>291</v>
+      </c>
       <c r="C268" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D268" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>142</v>
@@ -6124,14 +6090,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B269"/>
-      <c r="C269" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D269" t="s">
-        <v>345</v>
+        <v>127</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C269" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>142</v>
@@ -6139,14 +6107,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B270"/>
-      <c r="C270" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D270" t="s">
-        <v>345</v>
+        <v>127</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C270" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>142</v>
@@ -6154,14 +6124,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B271"/>
-      <c r="C271" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D271" t="s">
-        <v>345</v>
+        <v>127</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C271" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>142</v>
@@ -6169,11 +6141,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B272"/>
+        <v>127</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C272" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D272" t="s">
         <v>345</v>
@@ -6183,15 +6157,17 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D273" s="9" t="s">
-        <v>48</v>
+      <c r="A273" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D273" t="s">
+        <v>345</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>142</v>
@@ -6199,14 +6175,16 @@
       <c r="F273"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D274" s="9" t="s">
+      <c r="A274" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C274" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E274" s="1" t="s">
@@ -6215,14 +6193,16 @@
       <c r="F274"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D275" s="9" t="s">
+      <c r="A275" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C275" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -6231,14 +6211,16 @@
       <c r="F275"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D276" s="9" t="s">
+      <c r="A276" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C276" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -6247,15 +6229,17 @@
       <c r="F276"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D277" s="9" t="s">
-        <v>48</v>
+      <c r="A277" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D277" t="s">
+        <v>345</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>142</v>
@@ -6263,14 +6247,16 @@
       <c r="F277"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D278" s="9" t="s">
+      <c r="A278" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C278" s="3">
+        <v>615</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E278" s="1" t="s">
@@ -6279,15 +6265,17 @@
       <c r="F278"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D279" s="9" t="s">
-        <v>48</v>
+      <c r="A279" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D279" t="s">
+        <v>345</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>142</v>
@@ -6295,14 +6283,16 @@
       <c r="F279"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D280" s="9" t="s">
+      <c r="A280" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E280" s="1" t="s">
@@ -6311,14 +6301,16 @@
       <c r="F280"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D281" s="9" t="s">
+      <c r="A281" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -6327,14 +6319,16 @@
       <c r="F281"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B282" s="9"/>
-      <c r="C282" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D282" s="9" t="s">
+      <c r="A282" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E282" s="1" t="s">
@@ -6343,15 +6337,17 @@
       <c r="F282"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D283" s="9" t="s">
-        <v>48</v>
+      <c r="A283" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D283" t="s">
+        <v>345</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>142</v>
@@ -6359,15 +6355,17 @@
       <c r="F283"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D284" s="9" t="s">
-        <v>48</v>
+      <c r="A284" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D284" t="s">
+        <v>345</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>142</v>
@@ -6375,14 +6373,16 @@
       <c r="F284"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D285" s="9" t="s">
+      <c r="A285" t="s">
+        <v>309</v>
+      </c>
+      <c r="B285" t="s">
+        <v>334</v>
+      </c>
+      <c r="C285" t="s">
+        <v>342</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -6392,7 +6392,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B286" s="9"/>
       <c r="C286" s="9" t="s">
@@ -6407,174 +6407,192 @@
       <c r="F286"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9" t="s">
+      <c r="A287" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C287" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C288" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C289" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C290" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B291"/>
+      <c r="C291" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D291" t="s">
+        <v>345</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D292" t="s">
+        <v>345</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D293" t="s">
+        <v>345</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B295"/>
+      <c r="C295" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D295" t="s">
+        <v>345</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D287" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F287"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D288" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D289" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F289"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D290" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D291" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F291"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D292" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F292"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D293" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F293"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D294" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F294"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D295" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F295"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D296" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F296"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -6583,14 +6601,16 @@
       <c r="F297"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D298" s="9" t="s">
+      <c r="A298" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C298" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E298" s="1" t="s">
@@ -6599,14 +6619,16 @@
       <c r="F298"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D299" s="9" t="s">
+      <c r="A299" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C299" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E299" s="1" t="s">
@@ -6615,46 +6637,82 @@
       <c r="F299"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>13</v>
-      </c>
-      <c r="C300" t="s">
-        <v>386</v>
+      <c r="A300" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D300" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301"/>
-      <c r="B301"/>
-      <c r="C301"/>
-      <c r="D301"/>
-      <c r="E301"/>
+      <c r="A301" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D301" t="s">
+        <v>345</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302"/>
+      <c r="A302" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B302"/>
-      <c r="C302"/>
-      <c r="D302"/>
-      <c r="E302"/>
+      <c r="C302" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D302" t="s">
+        <v>345</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303"/>
+      <c r="A303" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B303"/>
-      <c r="C303"/>
-      <c r="D303"/>
-      <c r="E303"/>
+      <c r="C303" s="11">
+        <v>420.4</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304"/>
-      <c r="B304"/>
-      <c r="C304"/>
-      <c r="D304"/>
-      <c r="E304"/>
+      <c r="A304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="11">
+        <v>310.2</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305"/>
@@ -6952,7 +7010,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E296">
-    <sortState ref="A2:E296">
+    <sortState ref="A2:E301">
       <sortCondition ref="A1:A296"/>
     </sortState>
   </autoFilter>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$295</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="417">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1194,6 +1194,90 @@
   </si>
   <si>
     <t>3500-CR(B)</t>
+  </si>
+  <si>
+    <t>o-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>m-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>p-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>Bis(2-chloroisopropyl) ether</t>
+  </si>
+  <si>
+    <t>1,1,1,2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t>Acrolein</t>
+  </si>
+  <si>
+    <t>Acrylonitrile</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Tribromomethane</t>
+  </si>
+  <si>
+    <t>Methyl bromide</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride</t>
+  </si>
+  <si>
+    <t>Chlorobenzene</t>
+  </si>
+  <si>
+    <t>Chloroethane</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>Chloromethane</t>
+  </si>
+  <si>
+    <t>cis-1,3-Dichloropropene</t>
+  </si>
+  <si>
+    <t>Chlorodibromomethane</t>
+  </si>
+  <si>
+    <t>Ethylbenzene</t>
+  </si>
+  <si>
+    <t>m,p-Xylene</t>
+  </si>
+  <si>
+    <t>Methylene chloride</t>
+  </si>
+  <si>
+    <t>o-Xylene</t>
+  </si>
+  <si>
+    <t>Tetrachloroethylene</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>trans-1,2-Dichloroethylene</t>
+  </si>
+  <si>
+    <t>trans-1,3-Dichloropropene</t>
+  </si>
+  <si>
+    <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>CFC-11</t>
+  </si>
+  <si>
+    <t>Vinyl chloride</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1286,9 +1370,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1297,6 +1378,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1578,11 +1661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D303" sqref="D303:E303"/>
+      <selection pane="bottomLeft" activeCell="G327" sqref="G327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,14 +1695,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1627,14 +1710,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1642,14 +1725,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1657,14 +1740,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1672,14 +1755,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1688,15 +1771,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1705,10 +1785,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>190</v>
@@ -1722,10 +1802,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>190</v>
@@ -1739,10 +1819,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>190</v>
@@ -1756,10 +1836,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>190</v>
@@ -1773,13 +1853,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" t="s">
-        <v>342</v>
+        <v>176</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
@@ -1790,10 +1870,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
         <v>342</v>
@@ -1807,10 +1887,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
         <v>342</v>
@@ -1824,10 +1904,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
         <v>342</v>
@@ -1841,10 +1921,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
         <v>342</v>
@@ -1858,10 +1938,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
         <v>342</v>
@@ -1875,10 +1955,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C18" t="s">
         <v>342</v>
@@ -1892,10 +1972,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
         <v>342</v>
@@ -1909,10 +1989,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
         <v>342</v>
@@ -1926,10 +2006,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
         <v>342</v>
@@ -1943,10 +2023,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
         <v>342</v>
@@ -1960,10 +2040,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
         <v>342</v>
@@ -1977,10 +2057,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
         <v>342</v>
@@ -1994,13 +2074,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>191</v>
+        <v>318</v>
+      </c>
+      <c r="C25" t="s">
+        <v>342</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>48</v>
@@ -2017,7 +2097,7 @@
         <v>177</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
@@ -2028,13 +2108,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" t="s">
-        <v>342</v>
+        <v>177</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>48</v>
@@ -2045,13 +2125,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>190</v>
+        <v>338</v>
+      </c>
+      <c r="C28" t="s">
+        <v>342</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>48</v>
@@ -2062,10 +2142,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>190</v>
@@ -2079,13 +2159,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
-      </c>
-      <c r="C30" t="s">
-        <v>342</v>
+        <v>179</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>48</v>
@@ -2096,10 +2176,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
         <v>342</v>
@@ -2113,10 +2193,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
         <v>342</v>
@@ -2130,10 +2210,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C33" t="s">
         <v>342</v>
@@ -2147,30 +2227,30 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>163</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3">
-        <v>615</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>48</v>
@@ -2186,28 +2266,28 @@
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="3">
+        <v>615</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
-        <v>345</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>48</v>
+      <c r="D37" t="s">
+        <v>345</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>142</v>
@@ -2215,10 +2295,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>191</v>
@@ -2232,10 +2312,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>191</v>
@@ -2249,10 +2329,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>191</v>
@@ -2266,10 +2346,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>191</v>
@@ -2283,13 +2363,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>48</v>
@@ -2300,13 +2380,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>48</v>
@@ -2317,13 +2397,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>48</v>
@@ -2340,7 +2420,7 @@
         <v>188</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>48</v>
@@ -2351,10 +2431,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>191</v>
@@ -2368,10 +2448,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>191</v>
@@ -2385,10 +2465,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>191</v>
@@ -2401,81 +2481,75 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>394</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>395</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" t="s">
-        <v>345</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" t="s">
-        <v>345</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" t="s">
-        <v>345</v>
+      <c r="C52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>361</v>
+      <c r="A53" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D53" t="s">
@@ -2487,16 +2561,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>345</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>142</v>
@@ -2504,7 +2578,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>49</v>
@@ -2521,16 +2595,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>345</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>142</v>
@@ -2538,13 +2612,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>48</v>
@@ -2555,13 +2629,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
         <v>345</v>
@@ -2572,13 +2646,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>200.9</v>
+        <v>3</v>
+      </c>
+      <c r="C59" s="10">
+        <v>310.2</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>48</v>
@@ -2589,13 +2660,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3">
-        <v>350.1</v>
+        <v>200.7</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>48</v>
@@ -2606,16 +2677,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" t="s">
-        <v>345</v>
+        <v>4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>142</v>
@@ -2623,13 +2694,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
         <v>345</v>
@@ -2640,16 +2711,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>345</v>
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>200.9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>142</v>
@@ -2662,11 +2733,11 @@
       <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" t="s">
-        <v>345</v>
+      <c r="C64" s="3">
+        <v>350.1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>142</v>
@@ -2680,10 +2751,10 @@
         <v>54</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>345</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
@@ -2693,14 +2764,14 @@
       <c r="A66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>345</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>142</v>
@@ -2714,7 +2785,7 @@
         <v>54</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
         <v>345</v>
@@ -2730,8 +2801,8 @@
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>146</v>
+      <c r="C68" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D68" t="s">
         <v>345</v>
@@ -2741,17 +2812,17 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" t="s">
-        <v>257</v>
+      <c r="A69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>142</v>
@@ -2759,16 +2830,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="3">
-        <v>200.7</v>
+        <v>54</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>142</v>
@@ -2776,16 +2847,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
+        <v>345</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>142</v>
@@ -2793,206 +2864,206 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C74" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="3">
         <v>200.9</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D73" t="s">
-        <v>345</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="D77" t="s">
+        <v>345</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9" t="s">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="D78" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9" t="s">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="D79" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9" t="s">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="D80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9" t="s">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="D81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="D82" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9" t="s">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="D83" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" t="s">
-        <v>345</v>
+      <c r="D84" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>142</v>
@@ -3005,11 +3076,11 @@
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" t="s">
-        <v>345</v>
+      <c r="C85" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>142</v>
@@ -3022,11 +3093,11 @@
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" t="s">
-        <v>345</v>
+      <c r="C86" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>142</v>
@@ -3034,13 +3105,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C87" s="3">
-        <v>614</v>
+        <v>200.9</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>48</v>
@@ -3050,17 +3121,17 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" t="s">
-        <v>248</v>
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>345</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>142</v>
@@ -3068,16 +3139,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>345</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>142</v>
@@ -3085,16 +3156,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" t="s">
+        <v>345</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>142</v>
@@ -3102,16 +3173,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" t="s">
-        <v>345</v>
+        <v>64</v>
+      </c>
+      <c r="C91" s="3">
+        <v>614</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>142</v>
@@ -3119,10 +3190,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>191</v>
@@ -3135,14 +3206,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>214</v>
-      </c>
-      <c r="B93" t="s">
-        <v>258</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>191</v>
+      <c r="A93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3">
+        <v>200.7</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>48</v>
@@ -3152,14 +3223,14 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>191</v>
+      <c r="A94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3">
+        <v>200.8</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>48</v>
@@ -3169,17 +3240,17 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>217</v>
-      </c>
-      <c r="B95" t="s">
-        <v>261</v>
+      <c r="A95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D95" t="s">
+        <v>345</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>142</v>
@@ -3187,10 +3258,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>191</v>
@@ -3204,10 +3275,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>191</v>
@@ -3221,31 +3292,28 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>219</v>
-      </c>
-      <c r="B98" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C98" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="3">
-        <v>200.7</v>
-      </c>
       <c r="D99" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,14 +3322,14 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="3">
-        <v>200.8</v>
+      <c r="A100" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>48</v>
@@ -3271,32 +3339,34 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>67</v>
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>260</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B102"/>
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>262</v>
+      </c>
       <c r="C102" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D102" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>142</v>
@@ -3304,10 +3374,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>191</v>
@@ -3320,14 +3390,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>220</v>
-      </c>
-      <c r="B104" t="s">
-        <v>264</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>191</v>
+      <c r="A104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="3">
+        <v>200.7</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>48</v>
@@ -3337,14 +3407,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>221</v>
-      </c>
-      <c r="B105" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>191</v>
+      <c r="A105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="3">
+        <v>200.8</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>48</v>
@@ -3355,16 +3425,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" t="s">
+        <v>345</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>142</v>
@@ -3372,98 +3442,93 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>392</v>
+      </c>
+      <c r="C111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D108" t="s">
-        <v>345</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D109" t="s">
-        <v>345</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="3">
-        <v>300</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>223</v>
-      </c>
-      <c r="B112" t="s">
-        <v>267</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>191</v>
+      <c r="C112" s="3">
+        <v>200.7</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>48</v>
@@ -3474,13 +3539,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>48</v>
@@ -3491,16 +3556,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" t="s">
+        <v>345</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>142</v>
@@ -3508,16 +3573,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D115" t="s">
+        <v>345</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>142</v>
@@ -3525,16 +3590,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" t="s">
-        <v>345</v>
+        <v>9</v>
+      </c>
+      <c r="C116" s="3">
+        <v>300</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>142</v>
@@ -3542,47 +3607,47 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D117" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>343</v>
+      <c r="C119" s="3">
+        <v>200.7</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>48</v>
@@ -3593,14 +3658,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B120"/>
-      <c r="C120" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D120" t="s">
-        <v>345</v>
+        <v>70</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>142</v>
@@ -3608,29 +3675,33 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B121"/>
-      <c r="C121" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D121" t="s">
-        <v>345</v>
+        <v>70</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>48</v>
+      <c r="A122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" t="s">
+        <v>345</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>142</v>
@@ -3638,30 +3709,30 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D123" t="s">
+        <v>345</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>48</v>
@@ -3670,51 +3741,45 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>77</v>
+      <c r="A126" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" t="s">
+        <v>190</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C127" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="A127" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" t="s">
         <v>48</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -3723,16 +3788,14 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>48</v>
+        <v>356</v>
+      </c>
+      <c r="B128"/>
+      <c r="C128" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D128" t="s">
+        <v>345</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>142</v>
@@ -3740,32 +3803,28 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C129" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>48</v>
+        <v>356</v>
+      </c>
+      <c r="B129"/>
+      <c r="C129" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D129" t="s">
+        <v>345</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C130" s="3">
-        <v>218.2</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="A130" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -3774,16 +3833,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D131" t="s">
-        <v>345</v>
+        <v>145</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>142</v>
@@ -3791,13 +3850,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B132" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>48</v>
@@ -3807,17 +3866,17 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>224</v>
-      </c>
-      <c r="B133" t="s">
-        <v>268</v>
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="D133" t="s">
+        <v>345</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>142</v>
@@ -3825,32 +3884,29 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D134" t="s">
+        <v>345</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="A135" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" t="s">
         <v>48</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -3858,50 +3914,41 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" t="s">
-        <v>345</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="A136" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E136" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>82</v>
+      <c r="A137" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" t="s">
+        <v>190</v>
       </c>
       <c r="D137" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="A138" t="s">
+        <v>402</v>
+      </c>
+      <c r="C138" t="s">
+        <v>190</v>
+      </c>
+      <c r="D138" t="s">
         <v>48</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -3909,16 +3956,13 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="A139" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" t="s">
         <v>48</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -3927,13 +3971,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C140" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>48</v>
@@ -3944,13 +3988,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C141" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>48</v>
@@ -3961,16 +4005,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D142" t="s">
-        <v>345</v>
+        <v>79</v>
+      </c>
+      <c r="C142" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>142</v>
@@ -3978,16 +4022,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D143" t="s">
-        <v>345</v>
+        <v>79</v>
+      </c>
+      <c r="C143" s="3">
+        <v>218.2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>142</v>
@@ -3995,13 +4039,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D144" t="s">
         <v>345</v>
@@ -4012,13 +4056,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C145" s="3">
-        <v>335.4</v>
+        <v>193</v>
+      </c>
+      <c r="B145" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>48</v>
@@ -4029,13 +4073,11 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>88</v>
+        <v>193</v>
+      </c>
+      <c r="B146"/>
+      <c r="C146" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="D146" t="s">
         <v>345</v>
@@ -4045,114 +4087,113 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="A147" t="s">
+        <v>224</v>
+      </c>
+      <c r="B147" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>404</v>
+      </c>
+      <c r="C148" t="s">
+        <v>190</v>
+      </c>
+      <c r="D148" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" t="s">
+        <v>345</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D147" t="s">
-        <v>345</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="C152" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D152" t="s">
+        <v>345</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" t="s">
-        <v>386</v>
-      </c>
-      <c r="D149" t="s">
-        <v>48</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>222</v>
-      </c>
-      <c r="B151" t="s">
-        <v>266</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>225</v>
-      </c>
-      <c r="B152" t="s">
-        <v>269</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>228</v>
-      </c>
-      <c r="B153" t="s">
-        <v>272</v>
-      </c>
       <c r="C153" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>48</v>
@@ -4162,14 +4203,16 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D154" s="9" t="s">
+      <c r="A154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -4177,14 +4220,14 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>226</v>
-      </c>
-      <c r="B155" t="s">
-        <v>270</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>191</v>
+      <c r="A155" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" s="3">
+        <v>200.8</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>48</v>
@@ -4194,14 +4237,14 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>227</v>
-      </c>
-      <c r="B156" t="s">
-        <v>271</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>191</v>
+      <c r="A156" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="3">
+        <v>200.9</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>48</v>
@@ -4211,17 +4254,17 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>229</v>
-      </c>
-      <c r="B157" t="s">
-        <v>273</v>
+      <c r="A157" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D157" t="s">
+        <v>345</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>142</v>
@@ -4229,11 +4272,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B158"/>
+        <v>83</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C158" s="3" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="D158" t="s">
         <v>345</v>
@@ -4243,15 +4288,17 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>48</v>
+      <c r="A159" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D159" t="s">
+        <v>345</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>142</v>
@@ -4259,13 +4306,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>150</v>
+        <v>87</v>
+      </c>
+      <c r="C160" s="3">
+        <v>335.4</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>48</v>
@@ -4275,49 +4322,51 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>14</v>
+      <c r="A161" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>48</v>
+        <v>87</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D161" t="s">
+        <v>345</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>48</v>
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D162" t="s">
+        <v>345</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>230</v>
-      </c>
-      <c r="B163" t="s">
-        <v>274</v>
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>142</v>
@@ -4325,144 +4374,148 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B164" t="s">
-        <v>275</v>
-      </c>
-      <c r="C164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" t="s">
+        <v>386</v>
+      </c>
+      <c r="D164" t="s">
+        <v>48</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" t="s">
+        <v>266</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D166" t="s">
-        <v>345</v>
+      <c r="D166" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>16</v>
+      <c r="A167" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" t="s">
+        <v>269</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D167" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>16</v>
+      <c r="A168" t="s">
+        <v>228</v>
+      </c>
+      <c r="B168" t="s">
+        <v>272</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D168" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D169" t="s">
-        <v>345</v>
+      <c r="A169" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>203</v>
+      <c r="A170" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" t="s">
+        <v>270</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D170" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B171"/>
+      <c r="A171" t="s">
+        <v>227</v>
+      </c>
+      <c r="B171" t="s">
+        <v>271</v>
+      </c>
       <c r="C171" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D171" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>202</v>
+      <c r="A172" t="s">
+        <v>229</v>
+      </c>
+      <c r="B172" t="s">
+        <v>273</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D172" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>142</v>
@@ -4470,81 +4523,77 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B173"/>
       <c r="C173" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D173" t="s">
+        <v>345</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C174" s="9" t="s">
+      <c r="D175" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C176" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9" t="s">
+      <c r="D176" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D175" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>316</v>
-      </c>
-      <c r="B176" t="s">
-        <v>341</v>
-      </c>
-      <c r="C176" t="s">
-        <v>342</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>312</v>
-      </c>
-      <c r="B177" t="s">
-        <v>337</v>
-      </c>
-      <c r="C177" t="s">
-        <v>342</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -4553,15 +4602,12 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>232</v>
-      </c>
-      <c r="B178" t="s">
-        <v>276</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D178" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C178" t="s">
+        <v>190</v>
+      </c>
+      <c r="D178" t="s">
         <v>48</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -4570,10 +4616,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B179" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>191</v>
@@ -4587,10 +4633,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>191</v>
@@ -4603,14 +4649,14 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>315</v>
-      </c>
-      <c r="B181" t="s">
-        <v>340</v>
-      </c>
-      <c r="C181" t="s">
-        <v>342</v>
+      <c r="A181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>48</v>
@@ -4620,51 +4666,51 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>311</v>
-      </c>
-      <c r="B182" t="s">
-        <v>336</v>
-      </c>
-      <c r="C182" t="s">
-        <v>342</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>48</v>
+      <c r="A182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D182" t="s">
+        <v>345</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>235</v>
-      </c>
-      <c r="B183" t="s">
-        <v>279</v>
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="D183" t="s">
+        <v>345</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>236</v>
-      </c>
-      <c r="B184" t="s">
-        <v>280</v>
+      <c r="A184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="D184" t="s">
+        <v>345</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>142</v>
@@ -4672,16 +4718,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+      <c r="D185" t="s">
+        <v>345</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>142</v>
@@ -4689,16 +4735,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C186" s="3">
-        <v>353.2</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>48</v>
+        <v>203</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D186" t="s">
+        <v>345</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>142</v>
@@ -4706,16 +4749,14 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B187" s="11"/>
       <c r="C187" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="D187" t="s">
+        <v>345</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>142</v>
@@ -4723,16 +4764,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C188" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>48</v>
+        <v>202</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D188" t="s">
+        <v>345</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>142</v>
@@ -4740,13 +4778,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C189" s="3">
-        <v>200.8</v>
+        <v>96</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>48</v>
@@ -4756,34 +4794,32 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>98</v>
+      <c r="A190" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D190" t="s">
-        <v>345</v>
+        <v>96</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D191" t="s">
-        <v>345</v>
+      <c r="A191" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>142</v>
@@ -4791,48 +4827,48 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="B192" t="s">
-        <v>281</v>
-      </c>
-      <c r="C192" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C192" t="s">
+        <v>342</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>312</v>
+      </c>
+      <c r="B193" t="s">
+        <v>337</v>
+      </c>
+      <c r="C193" t="s">
+        <v>342</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>232</v>
+      </c>
+      <c r="B194" t="s">
+        <v>276</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C193" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C194" s="3">
-        <v>200.8</v>
-      </c>
       <c r="D194" s="1" t="s">
         <v>48</v>
       </c>
@@ -4841,14 +4877,14 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C195" s="3">
-        <v>200.9</v>
+      <c r="A195" t="s">
+        <v>233</v>
+      </c>
+      <c r="B195" t="s">
+        <v>277</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>48</v>
@@ -4858,65 +4894,67 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>101</v>
+      <c r="A196" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" t="s">
+        <v>278</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D196" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D197" t="s">
-        <v>345</v>
+      <c r="A197" t="s">
+        <v>315</v>
+      </c>
+      <c r="B197" t="s">
+        <v>340</v>
+      </c>
+      <c r="C197" t="s">
+        <v>342</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D198" t="s">
-        <v>345</v>
+      <c r="A198" t="s">
+        <v>311</v>
+      </c>
+      <c r="B198" t="s">
+        <v>336</v>
+      </c>
+      <c r="C198" t="s">
+        <v>342</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D199" s="9" t="s">
+      <c r="A199" t="s">
+        <v>235</v>
+      </c>
+      <c r="B199" t="s">
+        <v>279</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -4924,14 +4962,14 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="3">
-        <v>200.7</v>
+      <c r="A200" t="s">
+        <v>236</v>
+      </c>
+      <c r="B200" t="s">
+        <v>280</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>48</v>
@@ -4942,13 +4980,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>48</v>
@@ -4959,16 +4997,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D202" t="s">
-        <v>345</v>
+        <v>49</v>
+      </c>
+      <c r="C202" s="3">
+        <v>353.2</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>142</v>
@@ -4976,16 +5014,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D203" t="s">
-        <v>345</v>
+        <v>97</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>142</v>
@@ -4993,13 +5031,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C204" s="3">
-        <v>614</v>
+        <v>200.7</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>48</v>
@@ -5010,13 +5048,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C205" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>48</v>
@@ -5027,16 +5065,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C206" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D206" t="s">
+        <v>345</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>142</v>
@@ -5044,33 +5082,33 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C207" s="3">
-        <v>1638</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D207" t="s">
+        <v>345</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>21</v>
+      <c r="A208" t="s">
+        <v>237</v>
+      </c>
+      <c r="B208" t="s">
+        <v>281</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D208" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>142</v>
@@ -5078,16 +5116,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D209" t="s">
-        <v>345</v>
+        <v>101</v>
+      </c>
+      <c r="C209" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>142</v>
@@ -5095,13 +5133,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C210" s="3">
-        <v>245.1</v>
+        <v>200.8</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>48</v>
@@ -5112,13 +5150,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C211" s="3">
-        <v>245.2</v>
+        <v>200.9</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>48</v>
@@ -5129,16 +5167,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C212" s="3">
-        <v>245.7</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D212" t="s">
+        <v>345</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>142</v>
@@ -5146,16 +5184,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="D213" t="s">
+        <v>345</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>142</v>
@@ -5163,49 +5201,44 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D214" t="s">
+        <v>345</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D215" t="s">
-        <v>345</v>
+      <c r="A215" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D216" s="1" t="s">
+      <c r="A216" t="s">
+        <v>407</v>
+      </c>
+      <c r="C216" t="s">
+        <v>190</v>
+      </c>
+      <c r="D216" t="s">
         <v>48</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -5213,14 +5246,16 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D217" s="9" t="s">
+      <c r="A217" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -5229,13 +5264,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C218" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>48</v>
@@ -5246,16 +5281,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C219" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D219" t="s">
+        <v>345</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>142</v>
@@ -5263,10 +5298,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>23</v>
+        <v>102</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>53</v>
@@ -5279,14 +5314,14 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>238</v>
-      </c>
-      <c r="B221" t="s">
-        <v>282</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>191</v>
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C221" s="3">
+        <v>614</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>48</v>
@@ -5297,10 +5332,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C222" s="3">
         <v>200.7</v>
@@ -5314,10 +5349,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C223" s="3">
         <v>200.8</v>
@@ -5331,16 +5366,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D224" t="s">
-        <v>345</v>
+        <v>21</v>
+      </c>
+      <c r="C224" s="3">
+        <v>1638</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>142</v>
@@ -5348,16 +5383,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="D225" t="s">
+        <v>345</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>142</v>
@@ -5365,33 +5400,30 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C226" s="3">
-        <v>10206</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D226" t="s">
+        <v>345</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>114</v>
+      <c r="A227" t="s">
+        <v>390</v>
+      </c>
+      <c r="C227" t="s">
+        <v>190</v>
       </c>
       <c r="D227" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>142</v>
@@ -5399,16 +5431,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D228" t="s">
-        <v>345</v>
+        <v>106</v>
+      </c>
+      <c r="C228" s="3">
+        <v>245.1</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>142</v>
@@ -5416,13 +5448,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>145</v>
+        <v>106</v>
+      </c>
+      <c r="C229" s="3">
+        <v>245.2</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>48</v>
@@ -5433,13 +5465,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C230" s="3">
-        <v>353.2</v>
+        <v>245.7</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>48</v>
@@ -5450,30 +5482,30 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D231" t="s">
-        <v>345</v>
+        <v>107</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>239</v>
-      </c>
-      <c r="B232" t="s">
-        <v>283</v>
+      <c r="A232" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>48</v>
@@ -5483,31 +5515,31 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>240</v>
-      </c>
-      <c r="B233" t="s">
-        <v>284</v>
+      <c r="A233" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
+      </c>
+      <c r="D233" t="s">
+        <v>345</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>242</v>
-      </c>
-      <c r="B234" t="s">
-        <v>286</v>
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>48</v>
@@ -5517,16 +5549,14 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>243</v>
-      </c>
-      <c r="B235" t="s">
-        <v>287</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D235" s="1" t="s">
+      <c r="A235" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D235" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -5535,15 +5565,12 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>205</v>
-      </c>
-      <c r="B236" t="s">
-        <v>249</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D236" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C236" t="s">
+        <v>190</v>
+      </c>
+      <c r="D236" t="s">
         <v>48</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -5552,15 +5579,12 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>206</v>
-      </c>
-      <c r="B237" t="s">
-        <v>250</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D237" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C237" t="s">
+        <v>190</v>
+      </c>
+      <c r="D237" t="s">
         <v>48</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -5569,16 +5593,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D238" t="s">
-        <v>345</v>
+        <v>23</v>
+      </c>
+      <c r="C238" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>142</v>
@@ -5586,45 +5610,49 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D239" t="s">
-        <v>345</v>
+        <v>23</v>
+      </c>
+      <c r="C239" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>48</v>
+      <c r="A240" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D240" t="s">
+        <v>345</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D241" s="9" t="s">
+      <c r="A241" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241" t="s">
+        <v>282</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -5632,14 +5660,16 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D242" s="9" t="s">
+      <c r="A242" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C242" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -5648,13 +5678,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C243" s="3">
-        <v>614</v>
+        <v>200.8</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>48</v>
@@ -5664,31 +5694,31 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>208</v>
-      </c>
-      <c r="B244" t="s">
-        <v>252</v>
+      <c r="A244" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D244" t="s">
+        <v>345</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>209</v>
-      </c>
-      <c r="B245" t="s">
-        <v>253</v>
+      <c r="A245" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>48</v>
@@ -5698,51 +5728,51 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>314</v>
-      </c>
-      <c r="B246" t="s">
-        <v>339</v>
-      </c>
-      <c r="C246" t="s">
-        <v>342</v>
+      <c r="A246" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C246" s="3">
+        <v>10206</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>310</v>
-      </c>
-      <c r="B247" t="s">
-        <v>335</v>
-      </c>
-      <c r="C247" t="s">
-        <v>342</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>48</v>
+      <c r="A247" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D247" t="s">
+        <v>345</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>244</v>
-      </c>
-      <c r="B248" t="s">
-        <v>288</v>
+      <c r="A248" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>48</v>
+        <v>115</v>
+      </c>
+      <c r="D248" t="s">
+        <v>345</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>142</v>
@@ -5750,13 +5780,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>201</v>
+        <v>25</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>48</v>
@@ -5767,13 +5797,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C250" s="3" t="s">
-        <v>151</v>
+      <c r="C250" s="3">
+        <v>353.2</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>48</v>
@@ -5784,13 +5814,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D251" t="s">
         <v>345</v>
@@ -5800,17 +5830,17 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>49</v>
+      <c r="A252" t="s">
+        <v>239</v>
+      </c>
+      <c r="B252" t="s">
+        <v>283</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>142</v>
@@ -5818,10 +5848,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B253" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>191</v>
@@ -5835,10 +5865,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>191</v>
@@ -5851,202 +5881,190 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B255" s="1" t="s">
+      <c r="A255" t="s">
+        <v>243</v>
+      </c>
+      <c r="B255" t="s">
+        <v>287</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>205</v>
+      </c>
+      <c r="B256" t="s">
+        <v>249</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>389</v>
+      </c>
+      <c r="C257" t="s">
+        <v>190</v>
+      </c>
+      <c r="D257" t="s">
+        <v>48</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>206</v>
+      </c>
+      <c r="B258" t="s">
+        <v>250</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C255" s="3">
-        <v>420.1</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B256" s="1" t="s">
+      <c r="C259" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D259" t="s">
+        <v>345</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C256" s="3">
-        <v>365.3</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D257" t="s">
-        <v>345</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D258" t="s">
-        <v>345</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C259" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C260" s="3">
-        <v>365.3</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>48</v>
+      <c r="C260" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D260" t="s">
+        <v>345</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C261" s="3">
-        <v>365.4</v>
-      </c>
-      <c r="D261" s="1" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>409</v>
+      </c>
+      <c r="C261" t="s">
+        <v>190</v>
+      </c>
+      <c r="D261" t="s">
         <v>48</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D262" t="s">
-        <v>345</v>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D263" t="s">
-        <v>345</v>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D264" t="s">
-        <v>345</v>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>210</v>
-      </c>
-      <c r="B265" t="s">
-        <v>254</v>
-      </c>
-      <c r="C265" s="3" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C265" s="3">
+        <v>614</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>208</v>
+      </c>
+      <c r="B266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="D266" s="1" t="s">
         <v>48</v>
       </c>
@@ -6054,84 +6072,81 @@
         <v>142</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>347</v>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>209</v>
+      </c>
+      <c r="B267" t="s">
+        <v>253</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D267" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>247</v>
-      </c>
-      <c r="B268" t="s">
-        <v>291</v>
-      </c>
-      <c r="C268" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C268" t="s">
+        <v>190</v>
+      </c>
+      <c r="D268" t="s">
+        <v>48</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>314</v>
+      </c>
+      <c r="B269" t="s">
+        <v>339</v>
+      </c>
+      <c r="C269" t="s">
+        <v>342</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>310</v>
+      </c>
+      <c r="B270" t="s">
+        <v>335</v>
+      </c>
+      <c r="C270" t="s">
+        <v>342</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>244</v>
+      </c>
+      <c r="B271" t="s">
+        <v>288</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C269" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C270" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C271" s="3">
-        <v>200.9</v>
-      </c>
       <c r="D271" s="1" t="s">
         <v>48</v>
       </c>
@@ -6139,35 +6154,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>128</v>
+        <v>199</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D272" t="s">
-        <v>345</v>
+        <v>200</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="F272"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D273" t="s">
-        <v>345</v>
+        <v>151</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>142</v>
@@ -6176,16 +6192,16 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C274" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D274" t="s">
+        <v>345</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>142</v>
@@ -6194,16 +6210,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C275" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>142</v>
@@ -6211,14 +6227,14 @@
       <c r="F275"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C276" s="3">
-        <v>200.9</v>
+      <c r="A276" t="s">
+        <v>245</v>
+      </c>
+      <c r="B276" t="s">
+        <v>289</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>48</v>
@@ -6229,17 +6245,17 @@
       <c r="F276"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>130</v>
+      <c r="A277" t="s">
+        <v>246</v>
+      </c>
+      <c r="B277" t="s">
+        <v>290</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D277" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>142</v>
@@ -6248,13 +6264,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C278" s="3">
-        <v>615</v>
+        <v>420.1</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>48</v>
@@ -6266,16 +6282,14 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D279" t="s">
-        <v>345</v>
+        <v>27</v>
+      </c>
+      <c r="B279"/>
+      <c r="C279" s="10">
+        <v>420.4</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>142</v>
@@ -6284,13 +6298,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>144</v>
+        <v>49</v>
+      </c>
+      <c r="C280" s="3">
+        <v>365.3</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>48</v>
@@ -6302,16 +6316,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="D281" t="s">
+        <v>345</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>142</v>
@@ -6320,16 +6334,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="D282" t="s">
+        <v>345</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>142</v>
@@ -6338,16 +6352,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D283" t="s">
-        <v>345</v>
+        <v>28</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C283" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>142</v>
@@ -6356,16 +6370,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D284" t="s">
-        <v>345</v>
+        <v>28</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" s="3">
+        <v>365.3</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>142</v>
@@ -6373,14 +6387,14 @@
       <c r="F284"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>309</v>
-      </c>
-      <c r="B285" t="s">
-        <v>334</v>
-      </c>
-      <c r="C285" t="s">
-        <v>342</v>
+      <c r="A285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C285" s="3">
+        <v>365.4</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>48</v>
@@ -6391,15 +6405,17 @@
       <c r="F285"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D286" s="9" t="s">
-        <v>48</v>
+      <c r="A286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D286" t="s">
+        <v>345</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>142</v>
@@ -6408,16 +6424,16 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C287" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D287" t="s">
+        <v>345</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>142</v>
@@ -6426,16 +6442,16 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C288" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D288" t="s">
+        <v>345</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>142</v>
@@ -6443,14 +6459,14 @@
       <c r="F288"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C289" s="3">
-        <v>200.7</v>
+      <c r="A289" t="s">
+        <v>210</v>
+      </c>
+      <c r="B289" t="s">
+        <v>254</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>48</v>
@@ -6462,13 +6478,13 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C290" s="3">
-        <v>200.7</v>
+        <v>126</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>48</v>
@@ -6480,11 +6496,13 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B291"/>
+        <v>126</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="C291" s="3" t="s">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="D291" t="s">
         <v>345</v>
@@ -6495,17 +6513,17 @@
       <c r="F291"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>49</v>
+      <c r="A292" t="s">
+        <v>247</v>
+      </c>
+      <c r="B292" t="s">
+        <v>291</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D292" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>142</v>
@@ -6514,16 +6532,16 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D293" t="s">
-        <v>345</v>
+        <v>128</v>
+      </c>
+      <c r="C293" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>142</v>
@@ -6532,13 +6550,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>197</v>
+        <v>128</v>
+      </c>
+      <c r="C294" s="3">
+        <v>200.8</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>48</v>
@@ -6550,14 +6568,16 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B295"/>
-      <c r="C295" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D295" t="s">
-        <v>345</v>
+        <v>127</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C295" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>142</v>
@@ -6566,16 +6586,16 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="D296" t="s">
+        <v>345</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>142</v>
@@ -6584,16 +6604,16 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D297" t="s">
+        <v>345</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>142</v>
@@ -6602,10 +6622,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C298" s="3">
         <v>200.7</v>
@@ -6620,10 +6640,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C299" s="3">
         <v>200.8</v>
@@ -6634,20 +6654,19 @@
       <c r="E299" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F299"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D300" t="s">
-        <v>345</v>
+        <v>130</v>
+      </c>
+      <c r="C300" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>142</v>
@@ -6655,10 +6674,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>53</v>
@@ -6672,14 +6691,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B302"/>
-      <c r="C302" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D302" t="s">
-        <v>345</v>
+        <v>30</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C302" s="3">
+        <v>615</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>142</v>
@@ -6687,14 +6708,16 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B303"/>
-      <c r="C303" s="11">
-        <v>420.4</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D303" t="s">
+        <v>345</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>142</v>
@@ -6702,10 +6725,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C304" s="11">
-        <v>310.2</v>
+        <v>44</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>48</v>
@@ -6715,200 +6741,453 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305"/>
-      <c r="B305"/>
-      <c r="C305"/>
-      <c r="D305"/>
-      <c r="E305"/>
+      <c r="A305" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306"/>
-      <c r="B306"/>
-      <c r="C306"/>
-      <c r="D306"/>
-      <c r="E306"/>
+      <c r="A306" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307"/>
-      <c r="B307"/>
-      <c r="C307"/>
-      <c r="D307"/>
-      <c r="E307"/>
+      <c r="A307" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D307" t="s">
+        <v>345</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308"/>
-      <c r="B308"/>
-      <c r="C308"/>
-      <c r="D308"/>
-      <c r="E308"/>
+      <c r="A308" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D308" t="s">
+        <v>345</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309"/>
-      <c r="B309"/>
-      <c r="C309"/>
-      <c r="D309"/>
-      <c r="E309"/>
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="s">
+        <v>334</v>
+      </c>
+      <c r="C309" t="s">
+        <v>342</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310"/>
-      <c r="B310"/>
-      <c r="C310"/>
-      <c r="D310"/>
-      <c r="E310"/>
+      <c r="A310" t="s">
+        <v>410</v>
+      </c>
+      <c r="C310" t="s">
+        <v>190</v>
+      </c>
+      <c r="D310" t="s">
+        <v>48</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311"/>
-      <c r="B311"/>
-      <c r="C311"/>
-      <c r="D311"/>
-      <c r="E311"/>
+      <c r="A311" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B311" s="8"/>
+      <c r="C311" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312"/>
-      <c r="B312"/>
-      <c r="C312"/>
-      <c r="D312"/>
-      <c r="E312"/>
+      <c r="A312" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C312" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313"/>
-      <c r="B313"/>
-      <c r="C313"/>
-      <c r="D313"/>
-      <c r="E313"/>
+      <c r="A313" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C313" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314"/>
-      <c r="B314"/>
-      <c r="C314"/>
-      <c r="D314"/>
-      <c r="E314"/>
+      <c r="A314" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C314" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315"/>
-      <c r="B315"/>
-      <c r="C315"/>
-      <c r="D315"/>
-      <c r="E315"/>
+      <c r="A315" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C315" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316"/>
-      <c r="B316"/>
-      <c r="C316"/>
-      <c r="D316"/>
-      <c r="E316"/>
+      <c r="A316" t="s">
+        <v>411</v>
+      </c>
+      <c r="C316" t="s">
+        <v>190</v>
+      </c>
+      <c r="D316" t="s">
+        <v>48</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317"/>
+      <c r="A317" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="B317"/>
-      <c r="C317"/>
-      <c r="D317"/>
-      <c r="E317"/>
+      <c r="C317" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D317" t="s">
+        <v>345</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318"/>
-      <c r="B318"/>
-      <c r="C318"/>
-      <c r="D318"/>
-      <c r="E318"/>
+      <c r="A318" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D318" t="s">
+        <v>345</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319"/>
-      <c r="B319"/>
-      <c r="C319"/>
-      <c r="D319"/>
-      <c r="E319"/>
+      <c r="A319" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D319" t="s">
+        <v>345</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320"/>
-      <c r="B320"/>
-      <c r="C320"/>
-      <c r="D320"/>
-      <c r="E320"/>
+      <c r="A320" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321"/>
+      <c r="A321" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="B321"/>
-      <c r="C321"/>
-      <c r="D321"/>
-      <c r="E321"/>
+      <c r="C321" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D321" t="s">
+        <v>345</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322"/>
-      <c r="B322"/>
-      <c r="C322"/>
-      <c r="D322"/>
-      <c r="E322"/>
+      <c r="A322" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323"/>
-      <c r="B323"/>
-      <c r="C323"/>
-      <c r="D323"/>
-      <c r="E323"/>
+      <c r="A323" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324"/>
-      <c r="B324"/>
-      <c r="C324"/>
-      <c r="D324"/>
-      <c r="E324"/>
+      <c r="A324" t="s">
+        <v>412</v>
+      </c>
+      <c r="C324" t="s">
+        <v>190</v>
+      </c>
+      <c r="D324" t="s">
+        <v>48</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325"/>
-      <c r="B325"/>
-      <c r="C325"/>
-      <c r="D325"/>
-      <c r="E325"/>
+      <c r="A325" t="s">
+        <v>413</v>
+      </c>
+      <c r="C325" t="s">
+        <v>190</v>
+      </c>
+      <c r="D325" t="s">
+        <v>48</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
-      <c r="D326"/>
-      <c r="E326"/>
+      <c r="A326" t="s">
+        <v>397</v>
+      </c>
+      <c r="C326" t="s">
+        <v>190</v>
+      </c>
+      <c r="D326" t="s">
+        <v>48</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327"/>
-      <c r="E327"/>
+      <c r="A327" t="s">
+        <v>414</v>
+      </c>
+      <c r="C327" t="s">
+        <v>190</v>
+      </c>
+      <c r="D327" t="s">
+        <v>48</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328"/>
-      <c r="B328"/>
-      <c r="C328"/>
-      <c r="D328"/>
-      <c r="E328"/>
+      <c r="A328" t="s">
+        <v>416</v>
+      </c>
+      <c r="C328" t="s">
+        <v>190</v>
+      </c>
+      <c r="D328" t="s">
+        <v>48</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329"/>
-      <c r="B329"/>
-      <c r="C329"/>
-      <c r="D329"/>
-      <c r="E329"/>
+      <c r="A329" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C329" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330"/>
-      <c r="B330"/>
-      <c r="C330"/>
-      <c r="D330"/>
-      <c r="E330"/>
+      <c r="A330" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C330" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331"/>
-      <c r="B331"/>
-      <c r="C331"/>
-      <c r="D331"/>
-      <c r="E331"/>
+      <c r="A331" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D331" t="s">
+        <v>345</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332"/>
-      <c r="B332"/>
-      <c r="C332"/>
-      <c r="D332"/>
-      <c r="E332"/>
+      <c r="A332" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D332" t="s">
+        <v>345</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333"/>
@@ -6980,37 +7259,9 @@
       <c r="D342"/>
       <c r="E342"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343"/>
-      <c r="B343"/>
-      <c r="C343"/>
-      <c r="D343"/>
-      <c r="E343"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344"/>
-      <c r="B344"/>
-      <c r="C344"/>
-      <c r="D344"/>
-      <c r="E344"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345"/>
-      <c r="B345"/>
-      <c r="C345"/>
-      <c r="D345"/>
-      <c r="E345"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346"/>
-      <c r="B346"/>
-      <c r="C346"/>
-      <c r="D346"/>
-      <c r="E346"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E296">
-    <sortState ref="A2:E301">
+  <autoFilter ref="A1:E295">
+    <sortState ref="A2:E333">
       <sortCondition ref="A1:A296"/>
     </sortState>
   </autoFilter>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$295</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="418">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1278,13 +1278,16 @@
   </si>
   <si>
     <t>Vinyl chloride</t>
+  </si>
+  <si>
+    <t>D4282</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,6 +1316,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1354,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1380,6 +1390,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,8 +1675,8 @@
   <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G327" sqref="G327"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7190,11 +7201,19 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333"/>
+      <c r="A333" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="B333"/>
-      <c r="C333"/>
-      <c r="D333"/>
-      <c r="E333"/>
+      <c r="C333" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D333" t="s">
+        <v>56</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334"/>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="423">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1281,6 +1281,21 @@
   </si>
   <si>
     <t>D4282</t>
+  </si>
+  <si>
+    <t>Mirex</t>
+  </si>
+  <si>
+    <t>Chlordane</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>Dichlorobromomethane</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1690,8 @@
   <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7216,39 +7231,79 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334"/>
+      <c r="A334" t="s">
+        <v>418</v>
+      </c>
       <c r="B334"/>
-      <c r="C334"/>
-      <c r="D334"/>
-      <c r="E334"/>
+      <c r="C334" t="s">
+        <v>147</v>
+      </c>
+      <c r="D334" t="s">
+        <v>48</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335"/>
+      <c r="A335" t="s">
+        <v>419</v>
+      </c>
       <c r="B335"/>
-      <c r="C335"/>
-      <c r="D335"/>
-      <c r="E335"/>
+      <c r="C335" t="s">
+        <v>147</v>
+      </c>
+      <c r="D335" t="s">
+        <v>48</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336"/>
+      <c r="A336" t="s">
+        <v>420</v>
+      </c>
       <c r="B336"/>
-      <c r="C336"/>
-      <c r="D336"/>
-      <c r="E336"/>
+      <c r="C336" t="s">
+        <v>421</v>
+      </c>
+      <c r="D336" t="s">
+        <v>48</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337"/>
+      <c r="A337" t="s">
+        <v>5</v>
+      </c>
       <c r="B337"/>
-      <c r="C337"/>
-      <c r="D337"/>
-      <c r="E337"/>
+      <c r="C337" t="s">
+        <v>421</v>
+      </c>
+      <c r="D337" t="s">
+        <v>48</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338"/>
+      <c r="A338" t="s">
+        <v>422</v>
+      </c>
       <c r="B338"/>
-      <c r="C338"/>
-      <c r="D338"/>
-      <c r="E338"/>
+      <c r="C338">
+        <v>624.1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>48</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339"/>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$296</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="424">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1296,6 +1296,9 @@
   </si>
   <si>
     <t>Dichlorobromomethane</t>
+  </si>
+  <si>
+    <t>Specific conductance</t>
   </si>
 </sst>
 </file>
@@ -1687,11 +1690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F342"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C340" sqref="C340"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,32 +6542,32 @@
       <c r="F291"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>247</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F292"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C293" s="3">
-        <v>200.7</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>48</v>
@@ -6582,7 +6585,7 @@
         <v>128</v>
       </c>
       <c r="C294" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>48</v>
@@ -6600,7 +6603,7 @@
         <v>128</v>
       </c>
       <c r="C295" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>48</v>
@@ -6617,11 +6620,11 @@
       <c r="B296" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C296" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D296" t="s">
-        <v>345</v>
+      <c r="C296" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>142</v>
@@ -6636,7 +6639,7 @@
         <v>128</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D297" t="s">
         <v>345</v>
@@ -6648,16 +6651,16 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C298" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D298" t="s">
+        <v>345</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>142</v>
@@ -6672,7 +6675,7 @@
         <v>130</v>
       </c>
       <c r="C299" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>48</v>
@@ -6680,6 +6683,7 @@
       <c r="E299" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="F299"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
@@ -6689,7 +6693,7 @@
         <v>130</v>
       </c>
       <c r="C300" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>48</v>
@@ -6705,11 +6709,11 @@
       <c r="B301" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D301" t="s">
-        <v>345</v>
+      <c r="C301" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>142</v>
@@ -6717,16 +6721,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C302" s="3">
-        <v>615</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D302" t="s">
+        <v>345</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>142</v>
@@ -6739,11 +6743,11 @@
       <c r="B303" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D303" t="s">
-        <v>345</v>
+      <c r="C303" s="3">
+        <v>615</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>142</v>
@@ -6751,16 +6755,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D304" t="s">
+        <v>345</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>142</v>
@@ -6768,13 +6772,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>48</v>
@@ -6785,13 +6789,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>48</v>
@@ -6808,10 +6812,10 @@
         <v>33</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D307" t="s">
-        <v>345</v>
+        <v>145</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>142</v>
@@ -6819,95 +6823,95 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D309" t="s">
+        <v>345</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D308" t="s">
-        <v>345</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="D310" t="s">
+        <v>345</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>309</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B311" t="s">
         <v>334</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C311" t="s">
         <v>342</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="D311" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>410</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C312" t="s">
         <v>190</v>
       </c>
-      <c r="D310" t="s">
-        <v>48</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="8" t="s">
+      <c r="D312" t="s">
+        <v>48</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8" t="s">
+      <c r="B313" s="8"/>
+      <c r="C313" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D311" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C312" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C313" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D313" s="1" t="s">
+      <c r="D313" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E313" s="1" t="s">
@@ -6916,10 +6920,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C314" s="3">
         <v>200.7</v>
@@ -6933,29 +6937,32 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C315" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C316" s="3">
         <v>200.7</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>411</v>
-      </c>
-      <c r="C316" t="s">
-        <v>190</v>
-      </c>
-      <c r="D316" t="s">
+      <c r="D316" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E316" s="1" t="s">
@@ -6964,31 +6971,30 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B317"/>
-      <c r="C317" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D317" t="s">
-        <v>345</v>
+        <v>137</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C317" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>95</v>
+      <c r="A318" t="s">
+        <v>411</v>
+      </c>
+      <c r="C318" t="s">
+        <v>190</v>
       </c>
       <c r="D318" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>142</v>
@@ -6996,13 +7002,11 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B319"/>
       <c r="C319" s="3" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="D319" t="s">
         <v>345</v>
@@ -7013,16 +7017,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="D320" t="s">
+        <v>345</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>142</v>
@@ -7030,11 +7034,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B321"/>
+        <v>138</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C321" s="3" t="s">
-        <v>349</v>
+        <v>153</v>
       </c>
       <c r="D321" t="s">
         <v>345</v>
@@ -7045,13 +7051,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>48</v>
@@ -7062,43 +7068,47 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B323"/>
+      <c r="C323" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D323" t="s">
+        <v>345</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C324" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>412</v>
-      </c>
-      <c r="C324" t="s">
-        <v>190</v>
-      </c>
-      <c r="D324" t="s">
-        <v>48</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>413</v>
-      </c>
-      <c r="C325" t="s">
-        <v>190</v>
-      </c>
-      <c r="D325" t="s">
+      <c r="D325" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E325" s="1" t="s">
@@ -7107,7 +7117,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C326" t="s">
         <v>190</v>
@@ -7121,7 +7131,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C327" t="s">
         <v>190</v>
@@ -7135,7 +7145,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C328" t="s">
         <v>190</v>
@@ -7148,16 +7158,13 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C329" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D329" s="1" t="s">
+      <c r="A329" t="s">
+        <v>414</v>
+      </c>
+      <c r="C329" t="s">
+        <v>190</v>
+      </c>
+      <c r="D329" t="s">
         <v>48</v>
       </c>
       <c r="E329" s="1" t="s">
@@ -7165,16 +7172,13 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C330" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D330" s="1" t="s">
+      <c r="A330" t="s">
+        <v>416</v>
+      </c>
+      <c r="C330" t="s">
+        <v>190</v>
+      </c>
+      <c r="D330" t="s">
         <v>48</v>
       </c>
       <c r="E330" s="1" t="s">
@@ -7188,11 +7192,11 @@
       <c r="B331" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D331" t="s">
-        <v>345</v>
+      <c r="C331" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>142</v>
@@ -7202,59 +7206,63 @@
       <c r="A332" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D333" t="s">
+        <v>345</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D332" t="s">
-        <v>345</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="13" t="s">
+      <c r="D334" t="s">
+        <v>345</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B333"/>
-      <c r="C333" s="3" t="s">
+      <c r="B335"/>
+      <c r="C335" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D335" t="s">
         <v>56</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>418</v>
-      </c>
-      <c r="B334"/>
-      <c r="C334" t="s">
-        <v>147</v>
-      </c>
-      <c r="D334" t="s">
-        <v>48</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>419</v>
-      </c>
-      <c r="B335"/>
-      <c r="C335" t="s">
-        <v>147</v>
-      </c>
-      <c r="D335" t="s">
-        <v>48</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>142</v>
@@ -7262,11 +7270,11 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B336"/>
       <c r="C336" t="s">
-        <v>421</v>
+        <v>147</v>
       </c>
       <c r="D336" t="s">
         <v>48</v>
@@ -7277,11 +7285,11 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="B337"/>
       <c r="C337" t="s">
-        <v>421</v>
+        <v>147</v>
       </c>
       <c r="D337" t="s">
         <v>48</v>
@@ -7292,39 +7300,63 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>420</v>
+      </c>
+      <c r="B338"/>
+      <c r="C338" t="s">
+        <v>421</v>
+      </c>
+      <c r="D338" t="s">
+        <v>48</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339"/>
+      <c r="C339" t="s">
+        <v>421</v>
+      </c>
+      <c r="D339" t="s">
+        <v>48</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>422</v>
       </c>
-      <c r="B338"/>
-      <c r="C338">
+      <c r="B340"/>
+      <c r="C340">
         <v>624.1</v>
       </c>
-      <c r="D338" t="s">
-        <v>48</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339"/>
-      <c r="B339"/>
-      <c r="C339"/>
-      <c r="D339"/>
-      <c r="E339"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340"/>
-      <c r="B340"/>
-      <c r="C340"/>
-      <c r="D340"/>
-      <c r="E340"/>
+      <c r="D340" t="s">
+        <v>48</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341"/>
+      <c r="A341" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="B341"/>
-      <c r="C341"/>
-      <c r="D341"/>
-      <c r="E341"/>
+      <c r="C341" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342"/>
@@ -7333,8 +7365,22 @@
       <c r="D342"/>
       <c r="E342"/>
     </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+      <c r="B343"/>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+      <c r="B344"/>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E295">
+  <autoFilter ref="A1:E296">
     <sortState ref="A2:E333">
       <sortCondition ref="A1:A296"/>
     </sortState>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R_Scripts\EDD_Data_QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\EDD_Data_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19728" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="419">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1194,13 +1194,103 @@
   </si>
   <si>
     <t>3500-CR(B)</t>
+  </si>
+  <si>
+    <t>1,3-Dichloropropene</t>
+  </si>
+  <si>
+    <t>Acrolein</t>
+  </si>
+  <si>
+    <t>Acrylonitrile</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Dichlorobromomethane</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride</t>
+  </si>
+  <si>
+    <t>Chlorobenzene</t>
+  </si>
+  <si>
+    <t>Chlorodibromomethane</t>
+  </si>
+  <si>
+    <t>Chloroethane</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>Chloromethane</t>
+  </si>
+  <si>
+    <t>Ethylbenzene</t>
+  </si>
+  <si>
+    <t>m-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>Methyl bromide</t>
+  </si>
+  <si>
+    <t>Methylene chloride</t>
+  </si>
+  <si>
+    <t>o-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>p-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>Tetrachloroethylene</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>trans-1,2-Dichloroethylene</t>
+  </si>
+  <si>
+    <t>Tribromomethane</t>
+  </si>
+  <si>
+    <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>Vinyl chloride</t>
+  </si>
+  <si>
+    <t>Atrazine</t>
+  </si>
+  <si>
+    <t>Chlordane</t>
+  </si>
+  <si>
+    <t>Mirex</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos</t>
+  </si>
+  <si>
+    <t>cis-1,3-Dichloropropene</t>
+  </si>
+  <si>
+    <t>trans-1,3-Dichloropropene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1297,6 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,20 +1672,20 @@
   <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D303" sqref="D303:E303"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E335" sqref="E335:E336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1702,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>370</v>
       </c>
@@ -1626,7 +1717,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>366</v>
       </c>
@@ -1641,7 +1732,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>371</v>
       </c>
@@ -1656,7 +1747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>367</v>
       </c>
@@ -1671,7 +1762,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>368</v>
       </c>
@@ -1686,7 +1777,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -1703,7 +1794,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -1720,7 +1811,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -1737,7 +1828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -1754,7 +1845,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -1771,7 +1862,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>308</v>
       </c>
@@ -1788,7 +1879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -1805,7 +1896,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -1822,7 +1913,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>297</v>
       </c>
@@ -1839,7 +1930,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>307</v>
       </c>
@@ -1856,7 +1947,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -1873,7 +1964,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -1890,7 +1981,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>303</v>
       </c>
@@ -1907,7 +1998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -1924,7 +2015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>304</v>
       </c>
@@ -1941,7 +2032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>296</v>
       </c>
@@ -1958,7 +2049,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -1975,7 +2066,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>293</v>
       </c>
@@ -1992,7 +2083,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -2009,7 +2100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -2026,7 +2117,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -2043,7 +2134,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>159</v>
       </c>
@@ -2060,7 +2151,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -2077,29 +2168,26 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>305</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>330</v>
-      </c>
-      <c r="C30" t="s">
-        <v>342</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" t="s">
-        <v>326</v>
       </c>
       <c r="C31" t="s">
         <v>342</v>
@@ -2111,12 +2199,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
         <v>342</v>
@@ -2128,12 +2216,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C33" t="s">
         <v>342</v>
@@ -2145,33 +2233,33 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>163</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3">
-        <v>615</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>48</v>
       </c>
@@ -2179,46 +2267,46 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="3">
+        <v>615</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
-        <v>345</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D37" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>164</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>182</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" t="s">
-        <v>183</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>191</v>
@@ -2230,12 +2318,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>191</v>
@@ -2247,12 +2335,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>191</v>
@@ -2264,12 +2352,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>191</v>
@@ -2281,50 +2369,50 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>161</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>169</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
@@ -2332,7 +2420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -2340,7 +2428,7 @@
         <v>188</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>48</v>
@@ -2349,12 +2437,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>191</v>
@@ -2366,12 +2454,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>191</v>
@@ -2383,12 +2471,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>191</v>
@@ -2400,82 +2488,76 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" t="s">
-        <v>345</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" t="s">
-        <v>345</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" t="s">
-        <v>345</v>
+      <c r="C52" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>361</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D53" t="s">
@@ -2485,26 +2567,26 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>345</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>49</v>
@@ -2519,160 +2601,157 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="11">
+        <v>310.2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C60" s="3">
         <v>200.7</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C61" s="3">
         <v>200.8</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D58" t="s">
-        <v>345</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="D62" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C63">
         <v>200.9</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="3">
-        <v>350.1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" t="s">
-        <v>345</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" t="s">
-        <v>345</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>345</v>
+      <c r="D63" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" t="s">
-        <v>345</v>
+      <c r="C64" s="3">
+        <v>350.1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>37</v>
       </c>
@@ -2680,33 +2759,33 @@
         <v>54</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>345</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>345</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
@@ -2714,7 +2793,7 @@
         <v>54</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
         <v>345</v>
@@ -2723,171 +2802,179 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>345</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
+        <v>345</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D68" t="s">
-        <v>345</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D72" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
         <v>213</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C74" s="3">
         <v>200.7</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C75" s="3">
         <v>200.8</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C76" s="3">
         <v>200.9</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D73" t="s">
-        <v>345</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="D77" t="s">
+        <v>345</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
@@ -2900,9 +2987,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9" t="s">
@@ -2915,9 +3002,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
@@ -2930,233 +3017,220 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D81" s="1" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D82" s="1" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D83" s="1" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" t="s">
-        <v>345</v>
+    <row r="84" spans="1:5">
+      <c r="A84" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" t="s">
-        <v>345</v>
+      <c r="C85" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D86" t="s">
-        <v>345</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="D90" t="s">
+        <v>345</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C92" s="3">
         <v>614</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="D92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>204</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B94" t="s">
         <v>248</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" t="s">
-        <v>345</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>207</v>
-      </c>
-      <c r="B92" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>214</v>
-      </c>
-      <c r="B93" t="s">
-        <v>258</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" t="s">
-        <v>259</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>191</v>
@@ -3168,15 +3242,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>217</v>
-      </c>
-      <c r="B95" t="s">
-        <v>261</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>191</v>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="3">
+        <v>200.7</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>48</v>
@@ -3185,15 +3259,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>216</v>
-      </c>
-      <c r="B96" t="s">
-        <v>260</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>191</v>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3">
+        <v>200.8</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>48</v>
@@ -3202,29 +3276,29 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>218</v>
-      </c>
-      <c r="B97" t="s">
-        <v>262</v>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D97" t="s">
+        <v>345</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>191</v>
@@ -3236,15 +3310,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="3">
-        <v>200.7</v>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>48</v>
@@ -3253,15 +3327,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="3">
-        <v>200.8</v>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>392</v>
+      </c>
+      <c r="C100" t="s">
+        <v>190</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>48</v>
@@ -3270,44 +3341,46 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>67</v>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>259</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B102"/>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" t="s">
+        <v>261</v>
+      </c>
       <c r="C102" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D102" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>191</v>
@@ -3319,12 +3392,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>191</v>
@@ -3336,12 +3409,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>191</v>
@@ -3353,12 +3426,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C106" s="3">
         <v>200.7</v>
@@ -3370,12 +3443,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C107" s="3">
         <v>200.8</v>
@@ -3387,12 +3460,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>53</v>
@@ -3404,15 +3477,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B109"/>
       <c r="C109" s="3" t="s">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="D109" t="s">
         <v>345</v>
@@ -3421,15 +3492,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="3">
-        <v>300</v>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>241</v>
+      </c>
+      <c r="B110" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>48</v>
@@ -3438,15 +3509,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>9</v>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>264</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>48</v>
@@ -3455,12 +3526,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>191</v>
@@ -3472,12 +3543,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3">
         <v>200.7</v>
@@ -3489,12 +3560,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C114" s="3">
         <v>200.8</v>
@@ -3506,1142 +3577,1118 @@
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" t="s">
+        <v>345</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" t="s">
+        <v>345</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="3">
+        <v>300</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C120" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="3">
         <v>200.9</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="D122" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D116" t="s">
-        <v>345</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="D123" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D117" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="D124" t="s">
+        <v>345</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="D126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>394</v>
+      </c>
+      <c r="C127" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B120"/>
-      <c r="C120" s="3" t="s">
+      <c r="B128"/>
+      <c r="C128" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D120" t="s">
-        <v>345</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="D128" t="s">
+        <v>345</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B121"/>
-      <c r="C121" s="3" t="s">
+      <c r="B129"/>
+      <c r="C129" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D121" t="s">
-        <v>345</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="D129" t="s">
+        <v>345</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9" t="s">
+      <c r="B131" s="12"/>
+      <c r="C131" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="D131" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="D132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D125" t="s">
-        <v>345</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="D134" t="s">
+        <v>345</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D126" t="s">
-        <v>345</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="D135" t="s">
+        <v>345</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>395</v>
+      </c>
+      <c r="C136" t="s">
+        <v>190</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>396</v>
+      </c>
+      <c r="C137" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>397</v>
+      </c>
+      <c r="C138" t="s">
+        <v>190</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>398</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>399</v>
+      </c>
+      <c r="C140" t="s">
+        <v>190</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141"/>
+      <c r="C141" t="s">
+        <v>415</v>
+      </c>
+      <c r="D141" t="s">
+        <v>48</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C142" s="3">
         <v>200.7</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C143" s="3">
         <v>200.8</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="D143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C144" s="3">
         <v>200.9</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C145" s="3">
         <v>218.2</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="D145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D131" t="s">
-        <v>345</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="D146" t="s">
+        <v>345</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B147" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="D147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B148"/>
+      <c r="C148" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D148" t="s">
+        <v>345</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
         <v>224</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B149" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="D149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>417</v>
+      </c>
+      <c r="C150" t="s">
+        <v>190</v>
+      </c>
+      <c r="D150" t="s">
+        <v>48</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C151" s="3">
         <v>200.7</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C152" s="3">
         <v>200.8</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="D152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D136" t="s">
-        <v>345</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="D153" t="s">
+        <v>345</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D137" t="s">
-        <v>345</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="D154" t="s">
+        <v>345</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C156" s="3">
         <v>200.7</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="D156" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C157" s="3">
         <v>200.8</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="D157" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C158" s="3">
         <v>200.9</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D142" t="s">
-        <v>345</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="D159" t="s">
+        <v>345</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D143" t="s">
-        <v>345</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="D160" t="s">
+        <v>345</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D144" t="s">
-        <v>345</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="D161" t="s">
+        <v>345</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C162" s="3">
         <v>335.4</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D146" t="s">
-        <v>345</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="D163" t="s">
+        <v>345</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D147" t="s">
-        <v>345</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="D164" t="s">
+        <v>345</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="E165" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
         <v>13</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C166" t="s">
         <v>386</v>
       </c>
-      <c r="D149" t="s">
-        <v>48</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+      <c r="D166" t="s">
+        <v>48</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9" t="s">
+      <c r="B167" s="12"/>
+      <c r="C167" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="D167" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
         <v>222</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B168" t="s">
         <v>266</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="D168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
         <v>225</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B169" t="s">
         <v>269</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="D169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
         <v>228</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B170" t="s">
         <v>272</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="D170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>393</v>
+      </c>
+      <c r="C171" t="s">
+        <v>190</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9" t="s">
+      <c r="B172" s="12"/>
+      <c r="C172" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="D172" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
         <v>226</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B173" t="s">
         <v>270</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="D173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
         <v>227</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B174" t="s">
         <v>271</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="D174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
         <v>229</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B175" t="s">
         <v>273</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="D175" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B158"/>
-      <c r="C158" s="3" t="s">
+      <c r="B176"/>
+      <c r="C176" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D158" t="s">
-        <v>345</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
+      <c r="D176" t="s">
+        <v>345</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9" t="s">
+      <c r="B177" s="12"/>
+      <c r="C177" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="D177" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+      <c r="D178" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C179" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+      <c r="D179" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9" t="s">
+      <c r="B180" s="12"/>
+      <c r="C180" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="D180" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>400</v>
+      </c>
+      <c r="C181" t="s">
+        <v>190</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
         <v>230</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B182" t="s">
         <v>274</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="D182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
         <v>231</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B183" t="s">
         <v>275</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D166" t="s">
-        <v>345</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D167" t="s">
-        <v>345</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D168" t="s">
-        <v>345</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D169" t="s">
-        <v>345</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D170" t="s">
-        <v>345</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B171"/>
-      <c r="C171" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D171" t="s">
-        <v>345</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D172" t="s">
-        <v>345</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>316</v>
-      </c>
-      <c r="B176" t="s">
-        <v>341</v>
-      </c>
-      <c r="C176" t="s">
-        <v>342</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>312</v>
-      </c>
-      <c r="B177" t="s">
-        <v>337</v>
-      </c>
-      <c r="C177" t="s">
-        <v>342</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>232</v>
-      </c>
-      <c r="B178" t="s">
-        <v>276</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>233</v>
-      </c>
-      <c r="B179" t="s">
-        <v>277</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>234</v>
-      </c>
-      <c r="B180" t="s">
-        <v>278</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>315</v>
-      </c>
-      <c r="B181" t="s">
-        <v>340</v>
-      </c>
-      <c r="C181" t="s">
-        <v>342</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>311</v>
-      </c>
-      <c r="B182" t="s">
-        <v>336</v>
-      </c>
-      <c r="C182" t="s">
-        <v>342</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>235</v>
-      </c>
-      <c r="B183" t="s">
-        <v>279</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>191</v>
@@ -4653,1022 +4700,1009 @@
         <v>142</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D185" t="s">
+        <v>345</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D186" t="s">
+        <v>345</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D187" t="s">
+        <v>345</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D188" t="s">
+        <v>345</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B189" s="8"/>
+      <c r="C189" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D189" t="s">
+        <v>345</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B190"/>
+      <c r="C190" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D190" t="s">
+        <v>345</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D191" t="s">
+        <v>345</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>316</v>
+      </c>
+      <c r="B195" t="s">
+        <v>341</v>
+      </c>
+      <c r="C195" t="s">
+        <v>342</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>312</v>
+      </c>
+      <c r="B196" t="s">
+        <v>337</v>
+      </c>
+      <c r="C196" t="s">
+        <v>342</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>232</v>
+      </c>
+      <c r="B197" t="s">
+        <v>276</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>233</v>
+      </c>
+      <c r="B198" t="s">
+        <v>277</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>234</v>
+      </c>
+      <c r="B199" t="s">
+        <v>278</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>315</v>
+      </c>
+      <c r="B200" t="s">
+        <v>340</v>
+      </c>
+      <c r="C200" t="s">
+        <v>342</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>311</v>
+      </c>
+      <c r="B201" t="s">
+        <v>336</v>
+      </c>
+      <c r="C201" t="s">
+        <v>342</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>235</v>
+      </c>
+      <c r="B202" t="s">
+        <v>279</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
         <v>236</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B203" t="s">
         <v>280</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="D203" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C204" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="D204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C205" s="3">
         <v>353.2</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="D205" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C206" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="D206" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B207" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C207" s="3">
         <v>200.7</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="D207" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C208" s="3">
         <v>200.8</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="D208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C209" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D190" t="s">
-        <v>345</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="D209" t="s">
+        <v>345</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C210" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D191" t="s">
-        <v>345</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="D210" t="s">
+        <v>345</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
         <v>237</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B211" t="s">
         <v>281</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="D211" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C212" s="3">
         <v>200.7</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="D212" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C213" s="3">
         <v>200.8</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="D213" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C214" s="3">
         <v>200.9</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="D214" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C215" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D196" t="s">
-        <v>345</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="D215" t="s">
+        <v>345</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C216" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D197" t="s">
-        <v>345</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="D216" t="s">
+        <v>345</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D198" t="s">
-        <v>345</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
+      <c r="D217" t="s">
+        <v>345</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9" t="s">
+      <c r="B218" s="12"/>
+      <c r="C218" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D199" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="D218" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C219" s="3">
         <v>200.7</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="D219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C220" s="3">
         <v>200.8</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="D220" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D202" t="s">
-        <v>345</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="D221" t="s">
+        <v>345</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C222" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D203" t="s">
-        <v>345</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="D222" t="s">
+        <v>345</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C223" s="3">
         <v>614</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="D223" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C224" s="3">
         <v>200.7</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="D224" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C225" s="3">
         <v>200.8</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="D225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C226" s="3">
         <v>1638</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="D226" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C227" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D208" t="s">
-        <v>345</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="D227" t="s">
+        <v>345</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C228" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D209" t="s">
-        <v>345</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="D228" t="s">
+        <v>345</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>401</v>
+      </c>
+      <c r="C229" t="s">
+        <v>190</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C230" s="3">
         <v>245.1</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="D230" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C231" s="3">
         <v>245.2</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="D231" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C232" s="3">
         <v>245.7</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="D232" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C233" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="D233" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C234" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="D234" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C235" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D215" t="s">
-        <v>345</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="D235" t="s">
+        <v>345</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C236" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
+      <c r="D236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9" t="s">
+      <c r="B237" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C237" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="D237" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>402</v>
+      </c>
+      <c r="C238" t="s">
+        <v>190</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>403</v>
+      </c>
+      <c r="C239" t="s">
+        <v>190</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>414</v>
+      </c>
+      <c r="C240" t="s">
+        <v>147</v>
+      </c>
+      <c r="D240" t="s">
+        <v>48</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C241" s="3">
         <v>200.7</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="D241" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C242" s="3">
         <v>200.8</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="D242" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B243" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C243" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D220" t="s">
-        <v>345</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="D243" t="s">
+        <v>345</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
         <v>238</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B244" t="s">
         <v>282</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C222" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C223" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D224" t="s">
-        <v>345</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C226" s="3">
-        <v>10206</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D227" t="s">
-        <v>345</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D228" t="s">
-        <v>345</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C230" s="3">
-        <v>353.2</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D231" t="s">
-        <v>345</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>239</v>
-      </c>
-      <c r="B232" t="s">
-        <v>283</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>240</v>
-      </c>
-      <c r="B233" t="s">
-        <v>284</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>242</v>
-      </c>
-      <c r="B234" t="s">
-        <v>286</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>243</v>
-      </c>
-      <c r="B235" t="s">
-        <v>287</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>205</v>
-      </c>
-      <c r="B236" t="s">
-        <v>249</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>206</v>
-      </c>
-      <c r="B237" t="s">
-        <v>250</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D238" t="s">
-        <v>345</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D239" t="s">
-        <v>345</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C243" s="3">
-        <v>614</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>208</v>
-      </c>
-      <c r="B244" t="s">
-        <v>252</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>191</v>
@@ -5680,15 +5714,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>209</v>
-      </c>
-      <c r="B245" t="s">
-        <v>253</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>191</v>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C245" s="3">
+        <v>200.7</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>48</v>
@@ -5697,15 +5731,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>314</v>
-      </c>
-      <c r="B246" t="s">
-        <v>339</v>
-      </c>
-      <c r="C246" t="s">
-        <v>342</v>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C246" s="3">
+        <v>200.8</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>48</v>
@@ -5714,32 +5748,32 @@
         <v>142</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>310</v>
-      </c>
-      <c r="B247" t="s">
-        <v>335</v>
-      </c>
-      <c r="C247" t="s">
-        <v>342</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>48</v>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D247" t="s">
+        <v>345</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>244</v>
-      </c>
-      <c r="B248" t="s">
-        <v>288</v>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>48</v>
@@ -5748,49 +5782,49 @@
         <v>142</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>200</v>
+        <v>24</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C249" s="3">
+        <v>10206</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
+      </c>
+      <c r="D250" t="s">
+        <v>345</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D251" t="s">
         <v>345</v>
@@ -5799,202 +5833,199 @@
         <v>142</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>245</v>
-      </c>
-      <c r="B253" t="s">
-        <v>289</v>
-      </c>
-      <c r="C253" s="3" t="s">
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C253" s="3">
+        <v>353.2</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D254" t="s">
+        <v>345</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>239</v>
+      </c>
+      <c r="B255" t="s">
+        <v>283</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>246</v>
-      </c>
-      <c r="B254" t="s">
-        <v>290</v>
-      </c>
-      <c r="C254" s="3" t="s">
+      <c r="D255" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>240</v>
+      </c>
+      <c r="B256" t="s">
+        <v>284</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B255" s="1" t="s">
+      <c r="D256" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>242</v>
+      </c>
+      <c r="B257" t="s">
+        <v>286</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>243</v>
+      </c>
+      <c r="B258" t="s">
+        <v>287</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>205</v>
+      </c>
+      <c r="B259" t="s">
+        <v>249</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>404</v>
+      </c>
+      <c r="C260" t="s">
+        <v>190</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>206</v>
+      </c>
+      <c r="B261" t="s">
+        <v>250</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C255" s="3">
-        <v>420.1</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B256" s="1" t="s">
+      <c r="C262" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D262" t="s">
+        <v>345</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C256" s="3">
-        <v>365.3</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D257" t="s">
-        <v>345</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D258" t="s">
-        <v>345</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C259" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C260" s="3">
-        <v>365.3</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C261" s="3">
-        <v>365.4</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D262" t="s">
-        <v>345</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C263" s="3" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="D263" t="s">
         <v>345</v>
@@ -6003,80 +6034,74 @@
         <v>142</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D264" t="s">
-        <v>345</v>
+    <row r="264" spans="1:5">
+      <c r="A264" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B264" s="12"/>
+      <c r="C264" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>210</v>
-      </c>
-      <c r="B265" t="s">
-        <v>254</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D265" s="1" t="s">
+    <row r="265" spans="1:5">
+      <c r="A265" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B265" s="12"/>
+      <c r="C265" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D265" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D266" s="1" t="s">
+    <row r="266" spans="1:5">
+      <c r="A266" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B266" s="12"/>
+      <c r="C266" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D266" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D267" t="s">
-        <v>345</v>
+        <v>26</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C267" s="3">
+        <v>614</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="B268" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>191</v>
@@ -6088,15 +6113,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C269" s="3">
-        <v>200.7</v>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>209</v>
+      </c>
+      <c r="B269" t="s">
+        <v>253</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>48</v>
@@ -6105,15 +6130,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C270" s="3">
-        <v>200.8</v>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>405</v>
+      </c>
+      <c r="C270" t="s">
+        <v>190</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>48</v>
@@ -6122,15 +6144,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C271" s="3">
-        <v>200.9</v>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>314</v>
+      </c>
+      <c r="B271" t="s">
+        <v>339</v>
+      </c>
+      <c r="C271" t="s">
+        <v>342</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>48</v>
@@ -6139,50 +6161,50 @@
         <v>142</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D272" t="s">
-        <v>345</v>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>310</v>
+      </c>
+      <c r="B272" t="s">
+        <v>335</v>
+      </c>
+      <c r="C272" t="s">
+        <v>342</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>128</v>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>244</v>
+      </c>
+      <c r="B273" t="s">
+        <v>288</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D273" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F273"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C274" s="3">
-        <v>200.7</v>
+        <v>199</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>48</v>
@@ -6192,15 +6214,15 @@
       </c>
       <c r="F274"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C275" s="3">
-        <v>200.8</v>
+        <v>49</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>48</v>
@@ -6210,51 +6232,51 @@
       </c>
       <c r="F275"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C276" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D276" t="s">
+        <v>345</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F276"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D277" t="s">
-        <v>345</v>
+        <v>124</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F277"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C278" s="3">
-        <v>615</v>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>245</v>
+      </c>
+      <c r="B278" t="s">
+        <v>289</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>48</v>
@@ -6264,33 +6286,33 @@
       </c>
       <c r="F278"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>31</v>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>246</v>
+      </c>
+      <c r="B279" t="s">
+        <v>290</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D279" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F279"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>144</v>
+        <v>49</v>
+      </c>
+      <c r="C280" s="3">
+        <v>420.1</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>48</v>
@@ -6300,15 +6322,13 @@
       </c>
       <c r="F280"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>145</v>
+        <v>27</v>
+      </c>
+      <c r="B281"/>
+      <c r="C281" s="11">
+        <v>420.4</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>48</v>
@@ -6318,15 +6338,15 @@
       </c>
       <c r="F281"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>149</v>
+        <v>49</v>
+      </c>
+      <c r="C282" s="3">
+        <v>365.3</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>48</v>
@@ -6336,15 +6356,15 @@
       </c>
       <c r="F282"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D283" t="s">
         <v>345</v>
@@ -6354,654 +6374,960 @@
       </c>
       <c r="F283"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C284" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D284" t="s">
+        <v>345</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C285" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C286" s="3">
+        <v>365.3</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C287" s="3">
+        <v>365.4</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D288" t="s">
+        <v>345</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D289" t="s">
+        <v>345</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D290" t="s">
+        <v>345</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>210</v>
+      </c>
+      <c r="B291" t="s">
+        <v>254</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D293" t="s">
+        <v>345</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>247</v>
+      </c>
+      <c r="B295" t="s">
+        <v>291</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C296" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C297" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C298" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>345</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F299"/>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D300" t="s">
+        <v>345</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C301" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C302" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C303" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D304" t="s">
+        <v>345</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305" s="3">
+        <v>615</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D306" t="s">
+        <v>345</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D311" t="s">
+        <v>345</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D284" t="s">
-        <v>345</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F284"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="D312" t="s">
+        <v>345</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
         <v>309</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B313" t="s">
         <v>334</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C313" t="s">
         <v>342</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F285"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
+      <c r="D313" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>406</v>
+      </c>
+      <c r="C314" t="s">
+        <v>190</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9" t="s">
+      <c r="B315" s="12"/>
+      <c r="C315" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D286" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F286"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="D315" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C316" s="3">
         <v>200.7</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F287"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="D316" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C317" s="3">
         <v>200.8</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="D317" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C318" s="3">
         <v>200.7</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F289"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="D318" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C319" s="3">
         <v>200.7</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="D319" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>407</v>
+      </c>
+      <c r="C320" t="s">
+        <v>190</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B291"/>
-      <c r="C291" s="3" t="s">
+      <c r="B321"/>
+      <c r="C321" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D291" t="s">
-        <v>345</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F291"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="D321" t="s">
+        <v>345</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C322" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D292" t="s">
-        <v>345</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F292"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="D322" t="s">
+        <v>345</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D293" t="s">
-        <v>345</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F293"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="D323" t="s">
+        <v>345</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C324" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F294"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="D324" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B295"/>
-      <c r="C295" s="3" t="s">
+      <c r="B325"/>
+      <c r="C325" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D295" t="s">
-        <v>345</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F295"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="D325" t="s">
+        <v>345</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F296"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="D326" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B327" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F297"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="D327" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>408</v>
+      </c>
+      <c r="C328" t="s">
+        <v>190</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>418</v>
+      </c>
+      <c r="C329" t="s">
+        <v>190</v>
+      </c>
+      <c r="D329" t="s">
+        <v>48</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>409</v>
+      </c>
+      <c r="C330" t="s">
+        <v>190</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>410</v>
+      </c>
+      <c r="C331" t="s">
+        <v>190</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>411</v>
+      </c>
+      <c r="C332" t="s">
+        <v>190</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C333" s="3">
         <v>200.7</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F298"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="D333" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C334" s="3">
         <v>200.8</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F299"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="D334" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B335" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C335" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D300" t="s">
-        <v>345</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="D335" t="s">
+        <v>345</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B301" s="8" t="s">
+      <c r="B336" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C336" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D301" t="s">
-        <v>345</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B302"/>
-      <c r="C302" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D302" t="s">
-        <v>345</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B303"/>
-      <c r="C303" s="11">
-        <v>420.4</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C304" s="11">
-        <v>310.2</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305"/>
-      <c r="B305"/>
-      <c r="C305"/>
-      <c r="D305"/>
-      <c r="E305"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306"/>
-      <c r="B306"/>
-      <c r="C306"/>
-      <c r="D306"/>
-      <c r="E306"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307"/>
-      <c r="B307"/>
-      <c r="C307"/>
-      <c r="D307"/>
-      <c r="E307"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308"/>
-      <c r="B308"/>
-      <c r="C308"/>
-      <c r="D308"/>
-      <c r="E308"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309"/>
-      <c r="B309"/>
-      <c r="C309"/>
-      <c r="D309"/>
-      <c r="E309"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310"/>
-      <c r="B310"/>
-      <c r="C310"/>
-      <c r="D310"/>
-      <c r="E310"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311"/>
-      <c r="B311"/>
-      <c r="C311"/>
-      <c r="D311"/>
-      <c r="E311"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312"/>
-      <c r="B312"/>
-      <c r="C312"/>
-      <c r="D312"/>
-      <c r="E312"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313"/>
-      <c r="B313"/>
-      <c r="C313"/>
-      <c r="D313"/>
-      <c r="E313"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314"/>
-      <c r="B314"/>
-      <c r="C314"/>
-      <c r="D314"/>
-      <c r="E314"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315"/>
-      <c r="B315"/>
-      <c r="C315"/>
-      <c r="D315"/>
-      <c r="E315"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316"/>
-      <c r="B316"/>
-      <c r="C316"/>
-      <c r="D316"/>
-      <c r="E316"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317"/>
-      <c r="B317"/>
-      <c r="C317"/>
-      <c r="D317"/>
-      <c r="E317"/>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318"/>
-      <c r="B318"/>
-      <c r="C318"/>
-      <c r="D318"/>
-      <c r="E318"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319"/>
-      <c r="B319"/>
-      <c r="C319"/>
-      <c r="D319"/>
-      <c r="E319"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320"/>
-      <c r="B320"/>
-      <c r="C320"/>
-      <c r="D320"/>
-      <c r="E320"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321"/>
-      <c r="B321"/>
-      <c r="C321"/>
-      <c r="D321"/>
-      <c r="E321"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322"/>
-      <c r="B322"/>
-      <c r="C322"/>
-      <c r="D322"/>
-      <c r="E322"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323"/>
-      <c r="B323"/>
-      <c r="C323"/>
-      <c r="D323"/>
-      <c r="E323"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324"/>
-      <c r="B324"/>
-      <c r="C324"/>
-      <c r="D324"/>
-      <c r="E324"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325"/>
-      <c r="B325"/>
-      <c r="C325"/>
-      <c r="D325"/>
-      <c r="E325"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
-      <c r="D326"/>
-      <c r="E326"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327"/>
-      <c r="E327"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328"/>
-      <c r="B328"/>
-      <c r="C328"/>
-      <c r="D328"/>
-      <c r="E328"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329"/>
-      <c r="B329"/>
-      <c r="C329"/>
-      <c r="D329"/>
-      <c r="E329"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330"/>
-      <c r="B330"/>
-      <c r="C330"/>
-      <c r="D330"/>
-      <c r="E330"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331"/>
-      <c r="B331"/>
-      <c r="C331"/>
-      <c r="D331"/>
-      <c r="E331"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332"/>
-      <c r="B332"/>
-      <c r="C332"/>
-      <c r="D332"/>
-      <c r="E332"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333"/>
-      <c r="B333"/>
-      <c r="C333"/>
-      <c r="D333"/>
-      <c r="E333"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334"/>
-      <c r="B334"/>
-      <c r="C334"/>
-      <c r="D334"/>
-      <c r="E334"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335"/>
-      <c r="B335"/>
-      <c r="C335"/>
-      <c r="D335"/>
-      <c r="E335"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336"/>
-      <c r="B336"/>
-      <c r="C336"/>
-      <c r="D336"/>
-      <c r="E336"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>345</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="E337"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="E338"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="E339"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
@@ -7010,7 +7336,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E296">
-    <sortState ref="A2:E301">
+    <sortState ref="A2:E336">
       <sortCondition ref="A1:A296"/>
     </sortState>
   </autoFilter>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R_Scripts\EDD_Data_QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\EDD_Data_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19728" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="427">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1299,13 +1299,22 @@
   </si>
   <si>
     <t>Specific conductance</t>
+  </si>
+  <si>
+    <t>o-Xylene, mixt. with m-xylene and p-xylene</t>
+  </si>
+  <si>
+    <t>Total PCBs</t>
+  </si>
+  <si>
+    <t>1,3-Dichloropropene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1354,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1382,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1406,9 +1421,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1690,23 +1719,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E341" sqref="E341"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D346" sqref="D346:E346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>370</v>
       </c>
@@ -1738,7 +1767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>366</v>
       </c>
@@ -1753,7 +1782,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>371</v>
       </c>
@@ -1768,7 +1797,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>367</v>
       </c>
@@ -1783,7 +1812,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>368</v>
       </c>
@@ -1798,7 +1827,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -1812,7 +1841,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1829,7 +1858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -1846,7 +1875,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1863,7 +1892,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -1880,7 +1909,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -1897,7 +1926,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -1914,7 +1943,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -1931,7 +1960,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>306</v>
       </c>
@@ -1948,7 +1977,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>297</v>
       </c>
@@ -1965,7 +1994,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -1982,7 +2011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>302</v>
       </c>
@@ -1999,7 +2028,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -2016,7 +2045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>303</v>
       </c>
@@ -2033,7 +2062,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>295</v>
       </c>
@@ -2050,7 +2079,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>304</v>
       </c>
@@ -2067,7 +2096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>296</v>
       </c>
@@ -2084,7 +2113,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>300</v>
       </c>
@@ -2101,7 +2130,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -2118,7 +2147,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -2135,7 +2164,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2152,7 +2181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -2169,7 +2198,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -2186,7 +2215,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -2203,7 +2232,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -2220,7 +2249,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>301</v>
       </c>
@@ -2237,7 +2266,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>299</v>
       </c>
@@ -2254,7 +2283,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>292</v>
       </c>
@@ -2271,7 +2300,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -2288,7 +2317,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2305,7 +2334,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +2351,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>164</v>
       </c>
@@ -2339,7 +2368,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -2356,7 +2385,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -2373,7 +2402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -2390,7 +2419,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -2407,7 +2436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -2424,7 +2453,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>169</v>
       </c>
@@ -2441,7 +2470,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -2458,7 +2487,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -2475,7 +2504,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -2492,7 +2521,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>211</v>
       </c>
@@ -2509,7 +2538,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -2526,7 +2555,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>394</v>
       </c>
@@ -2540,7 +2569,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>395</v>
       </c>
@@ -2554,7 +2583,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
         <v>365</v>
       </c>
@@ -2571,7 +2600,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="9" t="s">
         <v>387</v>
       </c>
@@ -2588,7 +2617,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>359</v>
       </c>
@@ -2605,7 +2634,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>360</v>
       </c>
@@ -2622,7 +2651,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -2639,7 +2668,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +2685,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -2673,7 +2702,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2704,7 +2733,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
@@ -2721,7 +2750,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
@@ -2738,7 +2767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>52</v>
       </c>
@@ -2755,7 +2784,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>37</v>
       </c>
@@ -2772,7 +2801,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>37</v>
       </c>
@@ -2789,7 +2818,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>37</v>
       </c>
@@ -2806,7 +2835,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
@@ -2823,7 +2852,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -2840,7 +2869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +2886,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
@@ -2874,7 +2903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -2891,7 +2920,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>37</v>
       </c>
@@ -2908,7 +2937,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -2925,7 +2954,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>59</v>
       </c>
@@ -2942,7 +2971,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>59</v>
       </c>
@@ -2959,7 +2988,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>59</v>
       </c>
@@ -2976,7 +3005,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>59</v>
       </c>
@@ -2993,7 +3022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
         <v>379</v>
       </c>
@@ -3008,7 +3037,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
         <v>380</v>
       </c>
@@ -3023,7 +3052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
         <v>381</v>
       </c>
@@ -3038,7 +3067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
         <v>382</v>
       </c>
@@ -3053,7 +3082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
         <v>383</v>
       </c>
@@ -3068,7 +3097,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
         <v>384</v>
       </c>
@@ -3083,7 +3112,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
         <v>385</v>
       </c>
@@ -3098,7 +3127,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
@@ -3115,7 +3144,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>42</v>
       </c>
@@ -3132,7 +3161,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -3149,7 +3178,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>42</v>
       </c>
@@ -3166,7 +3195,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>42</v>
       </c>
@@ -3183,7 +3212,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>42</v>
       </c>
@@ -3200,7 +3229,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -3217,33 +3246,31 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92" t="s">
+        <v>421</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>204</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>248</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="3">
-        <v>200.7</v>
-      </c>
       <c r="D93" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,7 +3278,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>65</v>
       </c>
@@ -3259,7 +3286,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>48</v>
@@ -3268,46 +3295,46 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D95" t="s">
-        <v>345</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="D96" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
         <v>207</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>251</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" t="s">
-        <v>258</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>191</v>
@@ -3319,43 +3346,43 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
         <v>396</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>190</v>
       </c>
-      <c r="D98" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="D99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
         <v>215</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>259</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>217</v>
-      </c>
-      <c r="B100" t="s">
-        <v>261</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>191</v>
@@ -3367,12 +3394,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>191</v>
@@ -3384,12 +3411,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>191</v>
@@ -3401,12 +3428,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>191</v>
@@ -3418,15 +3445,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="3">
-        <v>200.7</v>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>48</v>
@@ -3435,7 +3462,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>66</v>
       </c>
@@ -3443,7 +3470,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>48</v>
@@ -3452,61 +3479,61 @@
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D106" t="s">
-        <v>345</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="D107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B107"/>
-      <c r="C107" s="3" t="s">
+      <c r="B108"/>
+      <c r="C108" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D107" t="s">
-        <v>345</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D108" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
         <v>241</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>285</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109" t="s">
-        <v>264</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>191</v>
@@ -3518,12 +3545,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>191</v>
@@ -3535,38 +3562,38 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
         <v>392</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>191</v>
       </c>
-      <c r="D111" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" t="s">
         <v>48</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>68</v>
       </c>
@@ -3574,7 +3601,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>48</v>
@@ -3583,24 +3610,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" t="s">
-        <v>345</v>
+      <c r="C114" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>68</v>
       </c>
@@ -3608,76 +3635,76 @@
         <v>7</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" t="s">
+        <v>345</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D115" t="s">
-        <v>345</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="3">
-        <v>300</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>48</v>
+      <c r="D116" t="s">
+        <v>345</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="3">
+        <v>300</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="D118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
         <v>223</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>267</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" s="3">
-        <v>200.7</v>
-      </c>
       <c r="D119" s="1" t="s">
         <v>48</v>
       </c>
@@ -3685,7 +3712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>70</v>
       </c>
@@ -3693,7 +3720,7 @@
         <v>71</v>
       </c>
       <c r="C120" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>48</v>
@@ -3702,7 +3729,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>70</v>
       </c>
@@ -3710,7 +3737,7 @@
         <v>71</v>
       </c>
       <c r="C121" s="3">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>48</v>
@@ -3719,24 +3746,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122" t="s">
-        <v>345</v>
+      <c r="C122" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>70</v>
       </c>
@@ -3744,33 +3771,33 @@
         <v>71</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D123" t="s">
-        <v>345</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>48</v>
+      <c r="D124" t="s">
+        <v>345</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>72</v>
       </c>
@@ -3778,140 +3805,136 @@
         <v>73</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="D126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127"/>
+      <c r="C127" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
         <v>399</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" t="s">
         <v>190</v>
       </c>
-      <c r="D126" t="s">
-        <v>48</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
         <v>415</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" t="s">
         <v>190</v>
       </c>
-      <c r="D127" t="s">
-        <v>48</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="D129" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B128"/>
-      <c r="C128" s="3" t="s">
+      <c r="B130"/>
+      <c r="C130" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D128" t="s">
-        <v>345</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="D130" t="s">
+        <v>345</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B129"/>
-      <c r="C129" s="3" t="s">
+      <c r="B131"/>
+      <c r="C131" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D129" t="s">
-        <v>345</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+      <c r="D131" t="s">
+        <v>345</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>419</v>
+      </c>
+      <c r="B132"/>
+      <c r="C132" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8" t="s">
+      <c r="B133" s="8"/>
+      <c r="C133" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D133" t="s">
-        <v>345</v>
+      <c r="D133" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -3919,60 +3942,69 @@
         <v>11</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" t="s">
+        <v>345</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D134" t="s">
-        <v>345</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="D137" t="s">
+        <v>345</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
         <v>400</v>
-      </c>
-      <c r="C135" t="s">
-        <v>190</v>
-      </c>
-      <c r="D135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>401</v>
-      </c>
-      <c r="C137" t="s">
-        <v>190</v>
-      </c>
-      <c r="D137" t="s">
-        <v>48</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>402</v>
       </c>
       <c r="C138" t="s">
         <v>190</v>
@@ -3984,544 +4016,533 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>401</v>
+      </c>
+      <c r="C140" t="s">
+        <v>190</v>
+      </c>
+      <c r="D140" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" t="s">
+        <v>190</v>
+      </c>
+      <c r="D141" t="s">
+        <v>48</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
         <v>403</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C142" t="s">
         <v>190</v>
       </c>
-      <c r="D139" t="s">
-        <v>48</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C140" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C141" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C142" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" t="s">
         <v>48</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C143" s="3">
-        <v>218.2</v>
-      </c>
-      <c r="D143" s="1" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>420</v>
+      </c>
+      <c r="B143"/>
+      <c r="C143" t="s">
+        <v>421</v>
+      </c>
+      <c r="D143" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" s="3">
+        <v>218.2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D144" t="s">
-        <v>345</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="D148" t="s">
+        <v>345</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B149" t="s">
         <v>195</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="D149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B146"/>
-      <c r="C146" s="5" t="s">
+      <c r="B150"/>
+      <c r="C150" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D146" t="s">
-        <v>345</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="D150" t="s">
+        <v>345</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
         <v>224</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B151" t="s">
         <v>268</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="D151" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
         <v>404</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C152" t="s">
         <v>190</v>
       </c>
-      <c r="D148" t="s">
-        <v>48</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="D152" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C153" s="3">
         <v>200.7</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C154" s="3">
         <v>200.8</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D151" t="s">
-        <v>345</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="D155" t="s">
+        <v>345</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D152" t="s">
-        <v>345</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="D156" t="s">
+        <v>345</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C154" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C155" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D157" t="s">
-        <v>345</v>
+      <c r="D157" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D158" t="s">
-        <v>345</v>
+      <c r="C158" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" t="s">
+        <v>345</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D162" t="s">
+        <v>345</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D159" t="s">
-        <v>345</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="D163" t="s">
+        <v>345</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C164" s="3">
         <v>335.4</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D161" t="s">
-        <v>345</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="D165" t="s">
+        <v>345</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D162" t="s">
-        <v>345</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="D166" t="s">
+        <v>345</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="E167" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
         <v>13</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C168" t="s">
         <v>386</v>
       </c>
-      <c r="D164" t="s">
-        <v>48</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="D168" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169"/>
+      <c r="C169" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D169" t="s">
+        <v>56</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8" t="s">
+      <c r="B170" s="8"/>
+      <c r="C170" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D165" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="D170" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
         <v>222</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B171" t="s">
         <v>266</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>225</v>
-      </c>
-      <c r="B167" t="s">
-        <v>269</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>228</v>
-      </c>
-      <c r="B168" t="s">
-        <v>272</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>226</v>
-      </c>
-      <c r="B170" t="s">
-        <v>270</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>227</v>
-      </c>
-      <c r="B171" t="s">
-        <v>271</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>191</v>
@@ -4533,12 +4554,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>191</v>
@@ -4550,418 +4571,414 @@
         <v>142</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173" t="s">
+        <v>272</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>422</v>
+      </c>
+      <c r="B174"/>
+      <c r="C174">
+        <v>624.1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>226</v>
+      </c>
+      <c r="B176" t="s">
+        <v>270</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>227</v>
+      </c>
+      <c r="B177" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>229</v>
+      </c>
+      <c r="B178" t="s">
+        <v>273</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B173"/>
-      <c r="C173" s="3" t="s">
+      <c r="B179"/>
+      <c r="C179" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D173" t="s">
-        <v>345</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
+      <c r="D179" t="s">
+        <v>345</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8" t="s">
+      <c r="B180" s="8"/>
+      <c r="C180" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D174" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="D180" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
+      <c r="D181" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C182" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D176" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
+      <c r="D182" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8" t="s">
+      <c r="B183" s="8"/>
+      <c r="C183" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D177" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="D183" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
         <v>406</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C184" t="s">
         <v>190</v>
       </c>
-      <c r="D178" t="s">
-        <v>48</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="D184" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
         <v>230</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B185" t="s">
         <v>274</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="D185" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
         <v>231</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B186" t="s">
         <v>275</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="D186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B187" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="D187" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D182" t="s">
-        <v>345</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="D188" t="s">
+        <v>345</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D183" t="s">
-        <v>345</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="D189" t="s">
+        <v>345</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D184" t="s">
-        <v>345</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="D190" t="s">
+        <v>345</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D185" t="s">
-        <v>345</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="D191" t="s">
+        <v>345</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D186" t="s">
-        <v>345</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="D192" t="s">
+        <v>345</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B187" s="11"/>
-      <c r="C187" s="3" t="s">
+      <c r="B193" s="16"/>
+      <c r="C193" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D187" t="s">
-        <v>345</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="D193" t="s">
+        <v>345</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C194" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D188" t="s">
-        <v>345</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="D194" t="s">
+        <v>345</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
+      <c r="D195" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C196" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D190" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
+      <c r="D196" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8" t="s">
+      <c r="B197" s="8"/>
+      <c r="C197" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D191" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="D197" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
         <v>316</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B198" t="s">
         <v>341</v>
-      </c>
-      <c r="C192" t="s">
-        <v>342</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>312</v>
-      </c>
-      <c r="B193" t="s">
-        <v>337</v>
-      </c>
-      <c r="C193" t="s">
-        <v>342</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>232</v>
-      </c>
-      <c r="B194" t="s">
-        <v>276</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>233</v>
-      </c>
-      <c r="B195" t="s">
-        <v>277</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>234</v>
-      </c>
-      <c r="B196" t="s">
-        <v>278</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>315</v>
-      </c>
-      <c r="B197" t="s">
-        <v>340</v>
-      </c>
-      <c r="C197" t="s">
-        <v>342</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>311</v>
-      </c>
-      <c r="B198" t="s">
-        <v>336</v>
       </c>
       <c r="C198" t="s">
         <v>342</v>
@@ -4973,15 +4990,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="B199" t="s">
-        <v>279</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>191</v>
+        <v>337</v>
+      </c>
+      <c r="C199" t="s">
+        <v>342</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>48</v>
@@ -4990,12 +5007,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B200" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>191</v>
@@ -5007,199 +5024,199 @@
         <v>142</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>233</v>
+      </c>
+      <c r="B201" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>234</v>
+      </c>
+      <c r="B202" t="s">
+        <v>278</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>315</v>
+      </c>
+      <c r="B203" t="s">
+        <v>340</v>
+      </c>
+      <c r="C203" t="s">
+        <v>342</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>311</v>
+      </c>
+      <c r="B204" t="s">
+        <v>336</v>
+      </c>
+      <c r="C204" t="s">
+        <v>342</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>235</v>
+      </c>
+      <c r="B205" t="s">
+        <v>279</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>236</v>
+      </c>
+      <c r="B206" t="s">
+        <v>280</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="D207" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C208" s="3">
         <v>353.2</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="D208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C209" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="D209" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C210" s="3">
         <v>200.7</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="D210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C211" s="3">
         <v>200.8</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="D211" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D206" t="s">
-        <v>345</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D207" t="s">
-        <v>345</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>237</v>
-      </c>
-      <c r="B208" t="s">
-        <v>281</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C209" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C210" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C211" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>74</v>
@@ -5211,126 +5228,131 @@
         <v>142</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D213" t="s">
+        <v>345</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>237</v>
+      </c>
+      <c r="B214" t="s">
+        <v>281</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C215" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C216" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C217" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D218" t="s">
+        <v>345</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D213" t="s">
-        <v>345</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="D219" t="s">
+        <v>345</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D214" t="s">
-        <v>345</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>407</v>
-      </c>
-      <c r="C216" t="s">
-        <v>190</v>
-      </c>
-      <c r="D216" t="s">
-        <v>48</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C217" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C218" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D219" t="s">
-        <v>345</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>53</v>
@@ -5342,67 +5364,62 @@
         <v>142</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C221" s="3">
-        <v>614</v>
-      </c>
-      <c r="D221" s="1" t="s">
+    <row r="221" spans="1:5">
+      <c r="A221" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D221" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C222" s="3">
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>407</v>
+      </c>
+      <c r="C222" t="s">
+        <v>190</v>
+      </c>
+      <c r="D222" t="s">
+        <v>48</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="3">
         <v>200.7</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C223" s="3">
+      <c r="D223" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="3">
         <v>200.8</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C224" s="3">
-        <v>1638</v>
-      </c>
       <c r="D224" s="1" t="s">
         <v>48</v>
       </c>
@@ -5410,12 +5427,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>74</v>
@@ -5427,12 +5444,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>53</v>
@@ -5444,683 +5461,690 @@
         <v>142</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C227" s="3">
+        <v>614</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230" s="3">
+        <v>1638</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D231" t="s">
+        <v>345</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D232" t="s">
+        <v>345</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
         <v>390</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C233" t="s">
         <v>190</v>
       </c>
-      <c r="D227" t="s">
-        <v>48</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="D233" t="s">
+        <v>48</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C234" s="3">
         <v>245.1</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="D234" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C235" s="3">
         <v>245.2</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="D235" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C236" s="3">
         <v>245.7</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="D236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C237" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="D237" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C238" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="D238" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C239" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D233" t="s">
-        <v>345</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="D239" t="s">
+        <v>345</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C240" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="s">
+      <c r="D240" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8" t="s">
+      <c r="B241" s="8"/>
+      <c r="C241" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D235" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="D241" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
         <v>398</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C242" t="s">
         <v>190</v>
       </c>
-      <c r="D236" t="s">
-        <v>48</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="D242" t="s">
+        <v>48</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
         <v>408</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C243" t="s">
         <v>190</v>
       </c>
-      <c r="D237" t="s">
-        <v>48</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="D243" t="s">
+        <v>48</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>418</v>
+      </c>
+      <c r="B244"/>
+      <c r="C244" t="s">
+        <v>147</v>
+      </c>
+      <c r="D244" t="s">
+        <v>48</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C245" s="3">
         <v>200.7</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="D245" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C246" s="3">
         <v>200.8</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="D246" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B247" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D240" t="s">
-        <v>345</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="D247" t="s">
+        <v>345</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
         <v>238</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B248" t="s">
         <v>282</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="D248" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C249" s="3">
         <v>200.7</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="D249" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B250" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C250" s="3">
         <v>200.8</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="D250" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C251" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D244" t="s">
-        <v>345</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="D251" t="s">
+        <v>345</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C252" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="D252" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C253" s="3">
         <v>10206</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="E253" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D247" t="s">
-        <v>345</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="D254" t="s">
+        <v>345</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B255" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D248" t="s">
-        <v>345</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="D255" t="s">
+        <v>345</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="D256" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C257" s="3">
         <v>353.2</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="D257" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D251" t="s">
-        <v>345</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="D258" t="s">
+        <v>345</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
         <v>239</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B259" t="s">
         <v>283</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="D259" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
         <v>240</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B260" t="s">
         <v>284</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="D260" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
         <v>242</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B261" t="s">
         <v>286</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="D261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
         <v>243</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B262" t="s">
         <v>287</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="D262" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
         <v>205</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B263" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="D263" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
         <v>389</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C264" t="s">
         <v>190</v>
       </c>
-      <c r="D257" t="s">
-        <v>48</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="D264" t="s">
+        <v>48</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
         <v>206</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B265" t="s">
         <v>250</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="D265" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D259" t="s">
-        <v>345</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="D266" t="s">
+        <v>345</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C267" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D260" t="s">
-        <v>345</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="D267" t="s">
+        <v>345</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
         <v>409</v>
-      </c>
-      <c r="C261" t="s">
-        <v>190</v>
-      </c>
-      <c r="D261" t="s">
-        <v>48</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C265" s="3">
-        <v>614</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>208</v>
-      </c>
-      <c r="B266" t="s">
-        <v>252</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>209</v>
-      </c>
-      <c r="B267" t="s">
-        <v>253</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>391</v>
       </c>
       <c r="C268" t="s">
         <v>190</v>
@@ -6132,898 +6156,893 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="269" spans="1:6" ht="27.6">
+      <c r="A269" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B269" s="15"/>
+      <c r="C269" s="18">
+        <v>624.1</v>
+      </c>
+      <c r="D269" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E269" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F272"/>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C273" s="3">
+        <v>614</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>208</v>
+      </c>
+      <c r="B274" t="s">
+        <v>252</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F274"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>209</v>
+      </c>
+      <c r="B275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F275"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>391</v>
+      </c>
+      <c r="C276" t="s">
+        <v>190</v>
+      </c>
+      <c r="D276" t="s">
+        <v>48</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F276"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
         <v>314</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B277" t="s">
         <v>339</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C277" t="s">
         <v>342</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="D277" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
         <v>310</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B278" t="s">
         <v>335</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C278" t="s">
         <v>342</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="D278" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F278"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
         <v>244</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B279" t="s">
         <v>288</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="D279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F279"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B280" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C280" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F272"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="D280" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F273"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D274" t="s">
-        <v>345</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F274"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F275"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>245</v>
-      </c>
-      <c r="B276" t="s">
-        <v>289</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F276"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>246</v>
-      </c>
-      <c r="B277" t="s">
-        <v>290</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F277"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C278" s="3">
-        <v>420.1</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F278"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B279"/>
-      <c r="C279" s="10">
-        <v>420.4</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F279"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C280" s="3">
-        <v>365.3</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F280"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D281" t="s">
-        <v>345</v>
+        <v>151</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F281"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C282" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D282" t="s">
+        <v>345</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>245</v>
+      </c>
+      <c r="B284" t="s">
+        <v>289</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>246</v>
+      </c>
+      <c r="B285" t="s">
+        <v>290</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C286" s="3">
+        <v>420.1</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B287"/>
+      <c r="C287" s="10">
+        <v>420.4</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C288" s="3">
+        <v>365.3</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D289" t="s">
+        <v>345</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D282" t="s">
-        <v>345</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F282"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="D290" t="s">
+        <v>345</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B291" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C291" s="3">
         <v>200.7</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F283"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="D291" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C292" s="3">
         <v>365.3</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F284"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="D292" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C293" s="3">
         <v>365.4</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F285"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="D293" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B294" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C294" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D286" t="s">
-        <v>345</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F286"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="D294" t="s">
+        <v>345</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B295" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C295" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D287" t="s">
-        <v>345</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F287"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="D295" t="s">
+        <v>345</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B296" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C296" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D288" t="s">
-        <v>345</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="D296" t="s">
+        <v>345</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
         <v>210</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B297" t="s">
         <v>254</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F289"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="D297" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="D298" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D291" t="s">
-        <v>345</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F291"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="D299" t="s">
+        <v>345</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F299"/>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B300" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C300" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F292"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="D300" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
         <v>247</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B301" t="s">
         <v>291</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C301" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F293"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="D301" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C302" s="3">
         <v>200.7</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F294"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="D302" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C303" s="3">
         <v>200.8</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F295"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="D303" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C304" s="3">
         <v>200.9</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F296"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="D304" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B305" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C305" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D297" t="s">
-        <v>345</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F297"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="D305" t="s">
+        <v>345</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C306" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D298" t="s">
-        <v>345</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F298"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="D306" t="s">
+        <v>345</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C307" s="3">
         <v>200.7</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F299"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="D307" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C308" s="3">
         <v>200.8</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="D308" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C309" s="3">
         <v>200.9</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="D309" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D302" t="s">
-        <v>345</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="D310" t="s">
+        <v>345</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C303" s="3">
+      <c r="C311" s="3">
         <v>615</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="D311" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C312" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D304" t="s">
-        <v>345</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="D312" t="s">
+        <v>345</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B313" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C313" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="D313" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="D314" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>44</v>
+      </c>
+      <c r="B315"/>
+      <c r="C315" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B316"/>
+      <c r="C316" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C317" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="D317" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="D318" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C319" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D309" t="s">
-        <v>345</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="D319" t="s">
+        <v>345</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D310" t="s">
-        <v>345</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>334</v>
-      </c>
-      <c r="C311" t="s">
-        <v>342</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>410</v>
-      </c>
-      <c r="C312" t="s">
-        <v>190</v>
-      </c>
-      <c r="D312" t="s">
-        <v>48</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B313" s="8"/>
-      <c r="C313" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C314" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C315" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C316" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C317" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>411</v>
-      </c>
-      <c r="C318" t="s">
-        <v>190</v>
-      </c>
-      <c r="D318" t="s">
-        <v>48</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B319"/>
-      <c r="C319" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D319" t="s">
-        <v>345</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D320" t="s">
         <v>345</v>
@@ -7032,64 +7051,61 @@
         <v>142</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D321" t="s">
-        <v>345</v>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>309</v>
+      </c>
+      <c r="B321" t="s">
+        <v>334</v>
+      </c>
+      <c r="C321" t="s">
+        <v>342</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D322" s="1" t="s">
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>410</v>
+      </c>
+      <c r="C322" t="s">
+        <v>190</v>
+      </c>
+      <c r="D322" t="s">
         <v>48</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B323"/>
-      <c r="C323" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D323" t="s">
-        <v>345</v>
+    <row r="323" spans="1:5">
+      <c r="A323" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B323" s="8"/>
+      <c r="C323" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="C324" s="3">
+        <v>200.7</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>48</v>
@@ -7098,15 +7114,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
+      </c>
+      <c r="C325" s="3">
+        <v>200.8</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>48</v>
@@ -7115,37 +7131,43 @@
         <v>142</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>412</v>
-      </c>
-      <c r="C326" t="s">
-        <v>190</v>
-      </c>
-      <c r="D326" t="s">
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C326" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>413</v>
-      </c>
-      <c r="C327" t="s">
-        <v>190</v>
-      </c>
-      <c r="D327" t="s">
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C327" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="C328" t="s">
         <v>190</v>
@@ -7157,231 +7179,290 @@
         <v>142</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B329"/>
+      <c r="C329" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D329" t="s">
+        <v>345</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D330" t="s">
+        <v>345</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D331" t="s">
+        <v>345</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D333" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B334"/>
+      <c r="C334" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D334" t="s">
+        <v>345</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>412</v>
+      </c>
+      <c r="C337" t="s">
+        <v>190</v>
+      </c>
+      <c r="D337" t="s">
+        <v>48</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>413</v>
+      </c>
+      <c r="C338" t="s">
+        <v>190</v>
+      </c>
+      <c r="D338" t="s">
+        <v>48</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>397</v>
+      </c>
+      <c r="C339" t="s">
+        <v>190</v>
+      </c>
+      <c r="D339" t="s">
+        <v>48</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
         <v>414</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C340" t="s">
         <v>190</v>
       </c>
-      <c r="D329" t="s">
-        <v>48</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="D340" t="s">
+        <v>48</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
         <v>416</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C341" t="s">
         <v>190</v>
       </c>
-      <c r="D330" t="s">
-        <v>48</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="D341" t="s">
+        <v>48</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C331" s="3">
+      <c r="C342" s="3">
         <v>200.7</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="D342" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C332" s="3">
+      <c r="C343" s="3">
         <v>200.8</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="D343" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C344" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D333" t="s">
-        <v>345</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="D344" t="s">
+        <v>345</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B345" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C345" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D334" t="s">
-        <v>345</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B335"/>
-      <c r="C335" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D335" t="s">
-        <v>56</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>418</v>
-      </c>
-      <c r="B336"/>
-      <c r="C336" t="s">
-        <v>147</v>
-      </c>
-      <c r="D336" t="s">
-        <v>48</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>419</v>
-      </c>
-      <c r="B337"/>
-      <c r="C337" t="s">
-        <v>147</v>
-      </c>
-      <c r="D337" t="s">
-        <v>48</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>420</v>
-      </c>
-      <c r="B338"/>
-      <c r="C338" t="s">
-        <v>421</v>
-      </c>
-      <c r="D338" t="s">
-        <v>48</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>5</v>
-      </c>
-      <c r="B339"/>
-      <c r="C339" t="s">
-        <v>421</v>
-      </c>
-      <c r="D339" t="s">
-        <v>48</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>422</v>
-      </c>
-      <c r="B340"/>
-      <c r="C340">
-        <v>624.1</v>
-      </c>
-      <c r="D340" t="s">
-        <v>48</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B341"/>
-      <c r="C341" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D341" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342"/>
-      <c r="B342"/>
-      <c r="C342"/>
-      <c r="D342"/>
-      <c r="E342"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343"/>
-      <c r="B343"/>
-      <c r="C343"/>
-      <c r="D343"/>
-      <c r="E343"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344"/>
-      <c r="B344"/>
-      <c r="C344"/>
-      <c r="D344"/>
-      <c r="E344"/>
+      <c r="D345" t="s">
+        <v>345</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E296">
-    <sortState ref="A2:E333">
+    <sortState ref="A2:E345">
       <sortCondition ref="A1:A296"/>
     </sortState>
   </autoFilter>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19728" windowHeight="9492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="428">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1308,6 +1308,9 @@
   </si>
   <si>
     <t>1,3-Dichloropropene</t>
+  </si>
+  <si>
+    <t>D7511-12</t>
   </si>
 </sst>
 </file>
@@ -1719,20 +1722,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D346" sqref="D346:E346"/>
+      <selection pane="bottomLeft" activeCell="E348" sqref="E348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6156,7 +6159,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="27.6">
+    <row r="269" spans="1:6" ht="28.5">
       <c r="A269" s="14" t="s">
         <v>424</v>
       </c>
@@ -7457,6 +7460,20 @@
         <v>48</v>
       </c>
       <c r="E346" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E347" s="1" t="s">
         <v>142</v>
       </c>
     </row>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="432">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1311,6 +1311,18 @@
   </si>
   <si>
     <t>D7511-12</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>353.2</t>
+  </si>
+  <si>
+    <t>Oil and Grease</t>
+  </si>
+  <si>
+    <t>1664</t>
   </si>
 </sst>
 </file>
@@ -1722,11 +1734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F347"/>
+  <dimension ref="A1:F349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E348" sqref="E348"/>
+      <selection pane="bottomLeft" activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7477,6 +7489,34 @@
         <v>142</v>
       </c>
     </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>428</v>
+      </c>
+      <c r="C348" t="s">
+        <v>429</v>
+      </c>
+      <c r="D348" t="s">
+        <v>48</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>430</v>
+      </c>
+      <c r="C349" t="s">
+        <v>431</v>
+      </c>
+      <c r="D349" t="s">
+        <v>48</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E296">
     <sortState ref="A2:E345">

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="447">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1323,6 +1323,51 @@
   </si>
   <si>
     <t>1664</t>
+  </si>
+  <si>
+    <t>Chlorine, Total Residual</t>
+  </si>
+  <si>
+    <t>4500-CL(G)</t>
+  </si>
+  <si>
+    <t>Sulfide</t>
+  </si>
+  <si>
+    <t>4500-S2(D)</t>
+  </si>
+  <si>
+    <t>Sulfite</t>
+  </si>
+  <si>
+    <t>4500-SO3(B)</t>
+  </si>
+  <si>
+    <t>Alpha particle</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>Beta particle</t>
+  </si>
+  <si>
+    <t>Radium isotopes, alpha emitting</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>Radium-226</t>
+  </si>
+  <si>
+    <t>903.1</t>
+  </si>
+  <si>
+    <t>130.1</t>
+  </si>
+  <si>
+    <t>410.4</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1452,6 +1497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1734,11 +1780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F349"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E352" sqref="E352"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H364" sqref="H364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7517,6 +7563,188 @@
         <v>142</v>
       </c>
     </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D350" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>432</v>
+      </c>
+      <c r="C351" t="s">
+        <v>433</v>
+      </c>
+      <c r="D351" t="s">
+        <v>345</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>434</v>
+      </c>
+      <c r="C352" t="s">
+        <v>435</v>
+      </c>
+      <c r="D352" t="s">
+        <v>345</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>436</v>
+      </c>
+      <c r="C353" t="s">
+        <v>437</v>
+      </c>
+      <c r="D353" t="s">
+        <v>345</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" t="s">
+        <v>145</v>
+      </c>
+      <c r="D354" t="s">
+        <v>48</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>136</v>
+      </c>
+      <c r="C355" t="s">
+        <v>343</v>
+      </c>
+      <c r="D355" t="s">
+        <v>48</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>137</v>
+      </c>
+      <c r="C356" t="s">
+        <v>343</v>
+      </c>
+      <c r="D356" t="s">
+        <v>48</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>438</v>
+      </c>
+      <c r="C357" t="s">
+        <v>439</v>
+      </c>
+      <c r="D357" t="s">
+        <v>48</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>440</v>
+      </c>
+      <c r="C358" t="s">
+        <v>439</v>
+      </c>
+      <c r="D358" t="s">
+        <v>48</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>441</v>
+      </c>
+      <c r="C359" t="s">
+        <v>442</v>
+      </c>
+      <c r="D359" t="s">
+        <v>48</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>443</v>
+      </c>
+      <c r="C360" t="s">
+        <v>444</v>
+      </c>
+      <c r="D360" t="s">
+        <v>48</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>203</v>
+      </c>
+      <c r="C361" t="s">
+        <v>445</v>
+      </c>
+      <c r="D361" t="s">
+        <v>48</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>356</v>
+      </c>
+      <c r="C362" t="s">
+        <v>446</v>
+      </c>
+      <c r="D362" t="s">
+        <v>48</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E296">
     <sortState ref="A2:E345">

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="447">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1780,11 +1780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H364" sqref="H364"/>
+      <selection pane="bottomLeft" activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7745,6 +7745,20 @@
         <v>142</v>
       </c>
     </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>203</v>
+      </c>
+      <c r="C363">
+        <v>200.7</v>
+      </c>
+      <c r="D363" t="s">
+        <v>48</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E296">
     <sortState ref="A2:E345">

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="448">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>410.4</t>
+  </si>
+  <si>
+    <t>D7284</t>
   </si>
 </sst>
 </file>
@@ -1780,11 +1783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C366" sqref="C366"/>
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D368" sqref="D368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7759,6 +7762,20 @@
         <v>142</v>
       </c>
     </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>86</v>
+      </c>
+      <c r="C364" t="s">
+        <v>447</v>
+      </c>
+      <c r="D364" t="s">
+        <v>56</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E296">
     <sortState ref="A2:E345">

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="448">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1783,11 +1783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D368" sqref="D368"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C369" sqref="C369:E369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7776,6 +7776,76 @@
         <v>142</v>
       </c>
     </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D365" t="s">
+        <v>48</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D366" t="s">
+        <v>48</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D367" t="s">
+        <v>48</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D368" t="s">
+        <v>48</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D369" t="s">
+        <v>48</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E296">
     <sortState ref="A2:E345">

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$297</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="448">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1460,7 +1460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1494,14 +1494,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1783,11 +1780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C369" sqref="C369:E369"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2297,14 +2294,11 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" t="s">
-        <v>342</v>
+      <c r="A31" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>48</v>
@@ -2315,10 +2309,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C32" t="s">
         <v>342</v>
@@ -2332,10 +2326,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
         <v>342</v>
@@ -2349,10 +2343,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -2366,30 +2360,30 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>163</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>615</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>48</v>
@@ -2405,28 +2399,28 @@
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="3">
+        <v>615</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D37" t="s">
-        <v>345</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>48</v>
+      <c r="D38" t="s">
+        <v>345</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>142</v>
@@ -2434,10 +2428,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>191</v>
@@ -2451,10 +2445,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>191</v>
@@ -2468,10 +2462,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>191</v>
@@ -2485,10 +2479,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>191</v>
@@ -2502,13 +2496,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>48</v>
@@ -2519,13 +2513,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>48</v>
@@ -2536,13 +2530,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>48</v>
@@ -2559,7 +2553,7 @@
         <v>188</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>48</v>
@@ -2570,10 +2564,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>191</v>
@@ -2587,10 +2581,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>191</v>
@@ -2604,10 +2598,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>191</v>
@@ -2621,12 +2615,15 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>394</v>
-      </c>
-      <c r="C50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2635,7 +2632,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
         <v>190</v>
@@ -2648,47 +2645,44 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="8" t="s">
+      <c r="A52" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="18" t="s">
         <v>365</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" t="s">
-        <v>345</v>
+      <c r="C53" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>359</v>
+      <c r="A54" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D54" t="s">
@@ -2700,7 +2694,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>49</v>
@@ -2717,7 +2711,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>49</v>
@@ -2734,16 +2728,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>345</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>142</v>
@@ -2757,10 +2751,10 @@
         <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" t="s">
-        <v>345</v>
+        <v>148</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>142</v>
@@ -2770,11 +2764,14 @@
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="10">
-        <v>310.2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>48</v>
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
+        <v>345</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>142</v>
@@ -2782,13 +2779,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="3">
-        <v>200.7</v>
+        <v>3</v>
+      </c>
+      <c r="C60" s="10">
+        <v>310.2</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>48</v>
@@ -2798,16 +2792,13 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="A61" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2821,11 +2812,11 @@
       <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" t="s">
-        <v>345</v>
+      <c r="C62" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>142</v>
@@ -2838,8 +2829,8 @@
       <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C63">
-        <v>200.9</v>
+      <c r="C63" s="3">
+        <v>200.8</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>48</v>
@@ -2850,16 +2841,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="3">
-        <v>350.1</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>345</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>142</v>
@@ -2867,32 +2858,29 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s">
-        <v>345</v>
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>200.9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="A66" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>345</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2906,11 +2894,11 @@
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" t="s">
-        <v>345</v>
+      <c r="C67" s="3">
+        <v>350.1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>142</v>
@@ -2924,7 +2912,7 @@
         <v>54</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
         <v>345</v>
@@ -2937,14 +2925,14 @@
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>345</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>142</v>
@@ -2958,10 +2946,10 @@
         <v>54</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>142</v>
@@ -2975,7 +2963,7 @@
         <v>54</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
         <v>345</v>
@@ -2991,28 +2979,28 @@
       <c r="B72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" t="s">
-        <v>345</v>
+      <c r="C72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>213</v>
-      </c>
-      <c r="B73" t="s">
-        <v>257</v>
+      <c r="A73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>142</v>
@@ -3020,16 +3008,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>345</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>142</v>
@@ -3037,30 +3025,30 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>345</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="3">
-        <v>200.9</v>
+      <c r="A76" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>48</v>
@@ -3076,56 +3064,62 @@
       <c r="B77" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D77" t="s">
-        <v>345</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>48</v>
+      <c r="D80" t="s">
+        <v>345</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>142</v>
@@ -3133,7 +3127,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
@@ -3148,7 +3142,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
@@ -3163,7 +3157,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
@@ -3178,7 +3172,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
@@ -3192,16 +3186,14 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="A85" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3209,16 +3201,14 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="A86" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3226,16 +3216,14 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="A87" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -3249,11 +3237,11 @@
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" t="s">
-        <v>345</v>
+      <c r="C88" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>142</v>
@@ -3266,11 +3254,11 @@
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D89" t="s">
-        <v>345</v>
+      <c r="C89" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>142</v>
@@ -3283,11 +3271,11 @@
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" t="s">
-        <v>345</v>
+      <c r="C90" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>142</v>
@@ -3295,48 +3283,50 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" s="3">
-        <v>614</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>345</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92" t="s">
-        <v>421</v>
+      <c r="A92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>204</v>
-      </c>
-      <c r="B93" t="s">
-        <v>248</v>
+      <c r="A93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>142</v>
@@ -3344,13 +3334,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C94" s="3">
-        <v>200.7</v>
+        <v>614</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>48</v>
@@ -3360,16 +3350,14 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95" t="s">
+        <v>421</v>
+      </c>
+      <c r="D95" t="s">
         <v>48</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -3377,17 +3365,14 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>6</v>
+      <c r="A96" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>142</v>
@@ -3395,10 +3380,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>191</v>
@@ -3411,14 +3396,14 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>214</v>
-      </c>
-      <c r="B98" t="s">
-        <v>258</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>191</v>
+      <c r="A98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3">
+        <v>200.7</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>48</v>
@@ -3428,13 +3413,16 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>396</v>
-      </c>
-      <c r="C99" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="A99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -3442,17 +3430,17 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>215</v>
-      </c>
-      <c r="B100" t="s">
-        <v>259</v>
+      <c r="A100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D100" t="s">
+        <v>345</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>142</v>
@@ -3460,10 +3448,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>191</v>
@@ -3477,10 +3465,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>191</v>
@@ -3494,15 +3482,12 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>218</v>
-      </c>
-      <c r="B103" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D103" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" t="s">
         <v>48</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -3511,10 +3496,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>191</v>
@@ -3527,117 +3512,119 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C109" s="3">
         <v>200.7</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C110" s="3">
         <v>200.8</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D107" t="s">
-        <v>345</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B108"/>
-      <c r="C108" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D108" t="s">
-        <v>345</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" t="s">
-        <v>285</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>221</v>
-      </c>
-      <c r="B111" t="s">
-        <v>265</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>48</v>
+      <c r="D111" t="s">
+        <v>345</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>142</v>
@@ -3645,10 +3632,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="C112" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s">
         <v>48</v>
@@ -3659,30 +3646,28 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>48</v>
+        <v>354</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D113" t="s">
+        <v>345</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="3">
-        <v>200.8</v>
+      <c r="A114" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" t="s">
+        <v>285</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>48</v>
@@ -3692,50 +3677,47 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>7</v>
+      <c r="A115" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" t="s">
+        <v>264</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D115" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>7</v>
+      <c r="A116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" t="s">
+        <v>265</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D116" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="3">
-        <v>300</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="A117" t="s">
+        <v>392</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -3744,13 +3726,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>149</v>
+        <v>7</v>
+      </c>
+      <c r="C118" s="3">
+        <v>200.7</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>48</v>
@@ -3760,14 +3742,14 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>223</v>
-      </c>
-      <c r="B119" t="s">
-        <v>267</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>191</v>
+      <c r="A119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3">
+        <v>200.8</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>48</v>
@@ -3778,16 +3760,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" t="s">
+        <v>345</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>142</v>
@@ -3795,16 +3777,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" t="s">
+        <v>345</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>142</v>
@@ -3812,13 +3794,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C122" s="3">
-        <v>200.9</v>
+        <v>300</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>48</v>
@@ -3829,47 +3811,44 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D123" t="s">
-        <v>345</v>
+        <v>149</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>53</v>
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>145</v>
       </c>
       <c r="D124" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>73</v>
+      <c r="A125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" t="s">
+        <v>267</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>48</v>
@@ -3880,13 +3859,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>343</v>
+        <v>70</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="3">
+        <v>200.7</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>48</v>
@@ -3896,28 +3875,33 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127"/>
-      <c r="C127" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>345</v>
+      <c r="A127" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>399</v>
-      </c>
-      <c r="C128" t="s">
-        <v>190</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="A128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -3925,14 +3909,17 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>415</v>
-      </c>
-      <c r="C129" t="s">
-        <v>190</v>
+      <c r="A129" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D129" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>142</v>
@@ -3940,11 +3927,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B130"/>
+        <v>70</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C130" s="3" t="s">
-        <v>357</v>
+        <v>53</v>
       </c>
       <c r="D130" t="s">
         <v>345</v>
@@ -3955,28 +3944,32 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B131"/>
+        <v>72</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C131" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D131" t="s">
-        <v>345</v>
+        <v>144</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>419</v>
-      </c>
-      <c r="B132"/>
-      <c r="C132" t="s">
-        <v>147</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="A132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -3984,31 +3977,28 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>48</v>
+      <c r="A133" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133"/>
+      <c r="C133" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="A134" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134" t="s">
         <v>48</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -4016,16 +4006,13 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="A135" t="s">
+        <v>415</v>
+      </c>
+      <c r="C135" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" t="s">
         <v>48</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -4034,13 +4021,11 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B136"/>
       <c r="C136" s="3" t="s">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
         <v>345</v>
@@ -4051,13 +4036,11 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B137"/>
       <c r="C137" s="3" t="s">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="D137" t="s">
         <v>345</v>
@@ -4068,10 +4051,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="C138" t="s">
-        <v>190</v>
+        <v>446</v>
       </c>
       <c r="D138" t="s">
         <v>48</v>
@@ -4081,27 +4064,29 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E139" s="11" t="s">
+      <c r="A139" t="s">
+        <v>419</v>
+      </c>
+      <c r="B139"/>
+      <c r="C139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>401</v>
-      </c>
-      <c r="C140" t="s">
-        <v>190</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="A140" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D140" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -4109,13 +4094,16 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>402</v>
-      </c>
-      <c r="C141" t="s">
-        <v>190</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -4123,13 +4111,16 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>403</v>
-      </c>
-      <c r="C142" t="s">
-        <v>190</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -4137,15 +4128,17 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>420</v>
-      </c>
-      <c r="B143"/>
-      <c r="C143" t="s">
-        <v>421</v>
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D143" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>142</v>
@@ -4153,49 +4146,43 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C144" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D144" t="s">
+        <v>345</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C145" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>48</v>
+      <c r="A145" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" t="s">
+        <v>433</v>
+      </c>
+      <c r="D145" t="s">
+        <v>345</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C146" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="A146" t="s">
+        <v>400</v>
+      </c>
+      <c r="C146" t="s">
+        <v>190</v>
+      </c>
+      <c r="D146" t="s">
         <v>48</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -4203,50 +4190,41 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C147" s="3">
-        <v>218.2</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="A147" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>53</v>
+      <c r="A148" t="s">
+        <v>401</v>
+      </c>
+      <c r="C148" t="s">
+        <v>190</v>
       </c>
       <c r="D148" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B149" t="s">
-        <v>195</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="A149" t="s">
+        <v>402</v>
+      </c>
+      <c r="C149" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" t="s">
         <v>48</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -4254,15 +4232,14 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B150"/>
-      <c r="C150" s="5" t="s">
-        <v>388</v>
+      <c r="A150" t="s">
+        <v>403</v>
+      </c>
+      <c r="C150" t="s">
+        <v>190</v>
       </c>
       <c r="D150" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>142</v>
@@ -4270,27 +4247,25 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>224</v>
-      </c>
-      <c r="B151" t="s">
-        <v>268</v>
-      </c>
-      <c r="C151" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B151"/>
+      <c r="C151" t="s">
+        <v>421</v>
+      </c>
+      <c r="D151" t="s">
+        <v>48</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>404</v>
-      </c>
-      <c r="C152" t="s">
-        <v>190</v>
       </c>
       <c r="D152" t="s">
         <v>48</v>
@@ -4301,10 +4276,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C153" s="3">
         <v>200.7</v>
@@ -4318,10 +4293,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C154" s="3">
         <v>200.8</v>
@@ -4335,16 +4310,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D155" t="s">
-        <v>345</v>
+        <v>79</v>
+      </c>
+      <c r="C155" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>142</v>
@@ -4352,16 +4327,16 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D156" t="s">
-        <v>345</v>
+        <v>79</v>
+      </c>
+      <c r="C156" s="3">
+        <v>218.2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>142</v>
@@ -4369,16 +4344,16 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D157" t="s">
+        <v>345</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>142</v>
@@ -4386,13 +4361,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" s="3">
-        <v>200.7</v>
+        <v>193</v>
+      </c>
+      <c r="B158" t="s">
+        <v>195</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>48</v>
@@ -4403,30 +4378,28 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>48</v>
+        <v>193</v>
+      </c>
+      <c r="B159"/>
+      <c r="C159" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D159" t="s">
+        <v>345</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C160" s="3">
-        <v>200.9</v>
+      <c r="A160" t="s">
+        <v>224</v>
+      </c>
+      <c r="B160" t="s">
+        <v>268</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>48</v>
@@ -4436,17 +4409,14 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>53</v>
+      <c r="A161" t="s">
+        <v>404</v>
+      </c>
+      <c r="C161" t="s">
+        <v>190</v>
       </c>
       <c r="D161" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>142</v>
@@ -4454,16 +4424,16 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D162" t="s">
-        <v>345</v>
+        <v>12</v>
+      </c>
+      <c r="C162" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>142</v>
@@ -4471,16 +4441,16 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D163" t="s">
-        <v>345</v>
+        <v>12</v>
+      </c>
+      <c r="C163" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>142</v>
@@ -4488,16 +4458,16 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C164" s="3">
-        <v>335.4</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" t="s">
+        <v>345</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>142</v>
@@ -4505,13 +4475,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D165" t="s">
         <v>345</v>
@@ -4522,16 +4492,16 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D166" t="s">
-        <v>345</v>
+        <v>152</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>142</v>
@@ -4539,144 +4509,149 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>344</v>
+        <v>84</v>
+      </c>
+      <c r="C167" s="3">
+        <v>200.7</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C169" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" t="s">
+        <v>345</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D171" t="s">
+        <v>345</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D172" t="s">
+        <v>345</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C173" s="3">
+        <v>335.4</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D174" t="s">
+        <v>345</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>13</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C168" t="s">
-        <v>386</v>
-      </c>
-      <c r="D168" t="s">
-        <v>48</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169"/>
-      <c r="C169" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D169" t="s">
-        <v>56</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>222</v>
-      </c>
-      <c r="B171" t="s">
-        <v>266</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>225</v>
-      </c>
-      <c r="B172" t="s">
-        <v>269</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>228</v>
-      </c>
-      <c r="B173" t="s">
-        <v>272</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>422</v>
-      </c>
-      <c r="B174"/>
-      <c r="C174">
-        <v>624.1</v>
-      </c>
-      <c r="D174" t="s">
-        <v>48</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>142</v>
@@ -4684,128 +4659,127 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>226</v>
-      </c>
-      <c r="B176" t="s">
-        <v>270</v>
-      </c>
-      <c r="C176" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" t="s">
+        <v>447</v>
+      </c>
+      <c r="D176" t="s">
+        <v>56</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D177" t="s">
+        <v>345</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" t="s">
+        <v>386</v>
+      </c>
+      <c r="D179" t="s">
+        <v>48</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180"/>
+      <c r="C180" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D180" t="s">
+        <v>56</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B182" t="s">
+        <v>266</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>227</v>
-      </c>
-      <c r="B177" t="s">
-        <v>271</v>
-      </c>
-      <c r="C177" s="3" t="s">
+      <c r="D182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>225</v>
+      </c>
+      <c r="B183" t="s">
+        <v>269</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>229</v>
-      </c>
-      <c r="B178" t="s">
-        <v>273</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B179"/>
-      <c r="C179" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D179" t="s">
-        <v>345</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -4814,12 +4788,15 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>406</v>
-      </c>
-      <c r="C184" t="s">
-        <v>190</v>
-      </c>
-      <c r="D184" t="s">
+        <v>228</v>
+      </c>
+      <c r="B184" t="s">
+        <v>272</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -4828,84 +4805,80 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>230</v>
-      </c>
-      <c r="B185" t="s">
-        <v>274</v>
-      </c>
-      <c r="C185" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B185"/>
+      <c r="C185">
+        <v>624.1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>48</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>226</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>231</v>
-      </c>
-      <c r="B186" t="s">
-        <v>275</v>
-      </c>
-      <c r="C186" s="3" t="s">
+      <c r="D187" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>227</v>
+      </c>
+      <c r="B188" t="s">
+        <v>271</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D188" t="s">
-        <v>345</v>
+      <c r="D188" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>16</v>
+      <c r="A189" t="s">
+        <v>229</v>
+      </c>
+      <c r="B189" t="s">
+        <v>273</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D189" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>142</v>
@@ -4913,13 +4886,11 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B190"/>
       <c r="C190" s="3" t="s">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="D190" t="s">
         <v>345</v>
@@ -4929,17 +4900,15 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D191" t="s">
-        <v>345</v>
+      <c r="A191" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>142</v>
@@ -4947,210 +4916,210 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B194" s="18"/>
+      <c r="C194" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>406</v>
+      </c>
+      <c r="C195" t="s">
+        <v>190</v>
+      </c>
+      <c r="D195" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>230</v>
+      </c>
+      <c r="B196" t="s">
+        <v>274</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>231</v>
+      </c>
+      <c r="B197" t="s">
+        <v>275</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D199" t="s">
+        <v>345</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D200" t="s">
+        <v>345</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D201" t="s">
+        <v>345</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D202" t="s">
+        <v>345</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D192" t="s">
-        <v>345</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="1" t="s">
+      <c r="D203" t="s">
+        <v>345</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B193" s="16"/>
-      <c r="C193" s="3" t="s">
+      <c r="B204" s="16"/>
+      <c r="C204" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D193" t="s">
-        <v>345</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D194" t="s">
-        <v>345</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>316</v>
-      </c>
-      <c r="B198" t="s">
-        <v>341</v>
-      </c>
-      <c r="C198" t="s">
-        <v>342</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>312</v>
-      </c>
-      <c r="B199" t="s">
-        <v>337</v>
-      </c>
-      <c r="C199" t="s">
-        <v>342</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>232</v>
-      </c>
-      <c r="B200" t="s">
-        <v>276</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>233</v>
-      </c>
-      <c r="B201" t="s">
-        <v>277</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>234</v>
-      </c>
-      <c r="B202" t="s">
-        <v>278</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>315</v>
-      </c>
-      <c r="B203" t="s">
-        <v>340</v>
-      </c>
-      <c r="C203" t="s">
-        <v>342</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>311</v>
-      </c>
-      <c r="B204" t="s">
-        <v>336</v>
-      </c>
-      <c r="C204" t="s">
-        <v>342</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>48</v>
+      <c r="D204" t="s">
+        <v>345</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>142</v>
@@ -5158,15 +5127,12 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>235</v>
-      </c>
-      <c r="B205" t="s">
-        <v>279</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D205" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C205" t="s">
+        <v>445</v>
+      </c>
+      <c r="D205" t="s">
         <v>48</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -5175,15 +5141,12 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>236</v>
-      </c>
-      <c r="B206" t="s">
-        <v>280</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D206" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206">
+        <v>200.7</v>
+      </c>
+      <c r="D206" t="s">
         <v>48</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -5191,16 +5154,13 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D207" s="1" t="s">
+      <c r="A207" t="s">
+        <v>203</v>
+      </c>
+      <c r="C207">
+        <v>200.8</v>
+      </c>
+      <c r="D207" t="s">
         <v>48</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -5209,16 +5169,13 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C208" s="3">
-        <v>353.2</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>48</v>
+        <v>202</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D208" t="s">
+        <v>345</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>142</v>
@@ -5226,13 +5183,13 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>48</v>
@@ -5242,16 +5199,16 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C210" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D210" s="1" t="s">
+      <c r="A210" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -5259,16 +5216,14 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C211" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="A211" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D211" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -5276,34 +5231,34 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D212" t="s">
-        <v>345</v>
+      <c r="A212" t="s">
+        <v>316</v>
+      </c>
+      <c r="B212" t="s">
+        <v>341</v>
+      </c>
+      <c r="C212" t="s">
+        <v>342</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D213" t="s">
-        <v>345</v>
+      <c r="A213" t="s">
+        <v>312</v>
+      </c>
+      <c r="B213" t="s">
+        <v>337</v>
+      </c>
+      <c r="C213" t="s">
+        <v>342</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>142</v>
@@ -5311,10 +5266,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B214" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>191</v>
@@ -5327,14 +5282,14 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C215" s="3">
-        <v>200.7</v>
+      <c r="A215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215" t="s">
+        <v>277</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>48</v>
@@ -5344,14 +5299,14 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C216" s="3">
-        <v>200.8</v>
+      <c r="A216" t="s">
+        <v>234</v>
+      </c>
+      <c r="B216" t="s">
+        <v>278</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>48</v>
@@ -5361,14 +5316,14 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C217" s="3">
-        <v>200.9</v>
+      <c r="A217" t="s">
+        <v>315</v>
+      </c>
+      <c r="B217" t="s">
+        <v>340</v>
+      </c>
+      <c r="C217" t="s">
+        <v>342</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>48</v>
@@ -5378,65 +5333,67 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D218" t="s">
-        <v>345</v>
+      <c r="A218" t="s">
+        <v>311</v>
+      </c>
+      <c r="B218" t="s">
+        <v>336</v>
+      </c>
+      <c r="C218" t="s">
+        <v>342</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>101</v>
+      <c r="A219" t="s">
+        <v>235</v>
+      </c>
+      <c r="B219" t="s">
+        <v>279</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D219" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>101</v>
+      <c r="A220" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" t="s">
+        <v>280</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D220" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D221" s="8" t="s">
+      <c r="A221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -5444,13 +5401,16 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>407</v>
-      </c>
-      <c r="C222" t="s">
-        <v>190</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="A222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C222" s="3">
+        <v>353.2</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -5459,13 +5419,13 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C223" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>48</v>
@@ -5476,13 +5436,13 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C224" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>48</v>
@@ -5493,16 +5453,16 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D225" t="s">
-        <v>345</v>
+        <v>99</v>
+      </c>
+      <c r="C225" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>142</v>
@@ -5510,13 +5470,13 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D226" t="s">
         <v>345</v>
@@ -5527,30 +5487,30 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C227" s="3">
-        <v>614</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D227" t="s">
+        <v>345</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C228" s="3">
-        <v>200.7</v>
+      <c r="A228" t="s">
+        <v>237</v>
+      </c>
+      <c r="B228" t="s">
+        <v>281</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>48</v>
@@ -5561,13 +5521,13 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C229" s="3">
-        <v>200.8</v>
+        <v>200.7</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>48</v>
@@ -5578,13 +5538,13 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C230" s="3">
-        <v>1638</v>
+        <v>200.8</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>48</v>
@@ -5595,16 +5555,16 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D231" t="s">
-        <v>345</v>
+        <v>101</v>
+      </c>
+      <c r="C231" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>142</v>
@@ -5612,13 +5572,13 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D232" t="s">
         <v>345</v>
@@ -5628,14 +5588,17 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>390</v>
-      </c>
-      <c r="C233" t="s">
-        <v>190</v>
+      <c r="A233" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D233" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>142</v>
@@ -5643,32 +5606,30 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C234" s="3">
-        <v>245.1</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D234" t="s">
+        <v>345</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C235" s="3">
-        <v>245.2</v>
-      </c>
-      <c r="D235" s="1" t="s">
+      <c r="A235" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D235" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -5676,16 +5637,13 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C236" s="3">
-        <v>245.7</v>
-      </c>
-      <c r="D236" s="1" t="s">
+      <c r="A236" t="s">
+        <v>407</v>
+      </c>
+      <c r="C236" t="s">
+        <v>190</v>
+      </c>
+      <c r="D236" t="s">
         <v>48</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -5694,13 +5652,13 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>107</v>
+        <v>19</v>
+      </c>
+      <c r="C237" s="3">
+        <v>200.7</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>48</v>
@@ -5711,13 +5669,13 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>196</v>
+        <v>19</v>
+      </c>
+      <c r="C238" s="3">
+        <v>200.8</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>48</v>
@@ -5728,13 +5686,13 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D239" t="s">
         <v>345</v>
@@ -5745,30 +5703,32 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D240" t="s">
+        <v>345</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D241" s="8" t="s">
+      <c r="A241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C241" s="3">
+        <v>614</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -5776,11 +5736,11 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" t="s">
-        <v>398</v>
-      </c>
-      <c r="C242" t="s">
-        <v>190</v>
+      <c r="A242" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D242" t="s">
         <v>48</v>
@@ -5790,13 +5750,16 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" t="s">
-        <v>408</v>
-      </c>
-      <c r="C243" t="s">
-        <v>190</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="A243" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -5804,14 +5767,16 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" t="s">
-        <v>418</v>
-      </c>
-      <c r="B244"/>
-      <c r="C244" t="s">
-        <v>147</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="A244" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -5820,13 +5785,13 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C245" s="3">
-        <v>200.7</v>
+        <v>1638</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>48</v>
@@ -5837,16 +5802,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C246" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D246" t="s">
+        <v>345</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>142</v>
@@ -5854,10 +5819,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>53</v>
@@ -5871,15 +5836,12 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>238</v>
-      </c>
-      <c r="B248" t="s">
-        <v>282</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D248" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C248" t="s">
+        <v>190</v>
+      </c>
+      <c r="D248" t="s">
         <v>48</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -5888,13 +5850,13 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C249" s="3">
-        <v>200.7</v>
+        <v>245.1</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>48</v>
@@ -5905,13 +5867,13 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C250" s="3">
-        <v>200.8</v>
+        <v>245.2</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>48</v>
@@ -5922,16 +5884,16 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D251" t="s">
-        <v>345</v>
+        <v>106</v>
+      </c>
+      <c r="C251" s="3">
+        <v>245.7</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>142</v>
@@ -5939,13 +5901,13 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>48</v>
@@ -5956,16 +5918,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C253" s="3">
-        <v>10206</v>
+        <v>106</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>142</v>
@@ -5973,13 +5935,13 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D254" t="s">
         <v>345</v>
@@ -5990,180 +5952,170 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D255" t="s">
-        <v>345</v>
+        <v>150</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D256" s="1" t="s">
+      <c r="A256" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="18"/>
+      <c r="C256" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D256" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C257" s="3">
-        <v>353.2</v>
-      </c>
-      <c r="D257" s="1" t="s">
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>398</v>
+      </c>
+      <c r="C257" t="s">
+        <v>190</v>
+      </c>
+      <c r="D257" t="s">
         <v>48</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>116</v>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>408</v>
+      </c>
+      <c r="C258" t="s">
+        <v>190</v>
       </c>
       <c r="D258" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>239</v>
-      </c>
-      <c r="B259" t="s">
-        <v>283</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D259" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B259"/>
+      <c r="C259" t="s">
+        <v>147</v>
+      </c>
+      <c r="D259" t="s">
         <v>48</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
-      <c r="A260" t="s">
-        <v>240</v>
-      </c>
-      <c r="B260" t="s">
-        <v>284</v>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" t="s">
         <v>48</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
-      <c r="A261" t="s">
-        <v>242</v>
-      </c>
-      <c r="B261" t="s">
-        <v>286</v>
-      </c>
-      <c r="C261" s="3" t="s">
+    <row r="261" spans="1:5">
+      <c r="A261" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D263" t="s">
+        <v>345</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>238</v>
+      </c>
+      <c r="B264" t="s">
+        <v>282</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" t="s">
-        <v>243</v>
-      </c>
-      <c r="B262" t="s">
-        <v>287</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" t="s">
-        <v>205</v>
-      </c>
-      <c r="B263" t="s">
-        <v>249</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" t="s">
-        <v>389</v>
-      </c>
-      <c r="C264" t="s">
-        <v>190</v>
-      </c>
-      <c r="D264" t="s">
+      <c r="D264" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
-      <c r="A265" t="s">
-        <v>206</v>
-      </c>
-      <c r="B265" t="s">
-        <v>250</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>191</v>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C265" s="3">
+        <v>200.7</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>48</v>
@@ -6172,124 +6124,134 @@
         <v>142</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B266" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C266" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D267" t="s">
+        <v>345</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C269" s="3">
+        <v>10206</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D270" t="s">
+        <v>345</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D271" t="s">
+        <v>345</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D266" t="s">
-        <v>345</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D267" t="s">
-        <v>345</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" t="s">
-        <v>409</v>
-      </c>
-      <c r="C268" t="s">
-        <v>190</v>
-      </c>
-      <c r="D268" t="s">
-        <v>48</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="28.5">
-      <c r="A269" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B269" s="15"/>
-      <c r="C269" s="18">
-        <v>624.1</v>
-      </c>
-      <c r="D269" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E269" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D272" s="8" t="s">
+      <c r="C272" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F272"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C273" s="3">
-        <v>614</v>
+        <v>353.2</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>48</v>
@@ -6300,17 +6262,17 @@
       <c r="F273"/>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" t="s">
-        <v>208</v>
-      </c>
-      <c r="B274" t="s">
-        <v>252</v>
+      <c r="A274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
+      </c>
+      <c r="D274" t="s">
+        <v>345</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>142</v>
@@ -6319,15 +6281,12 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>209</v>
-      </c>
-      <c r="B275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D275" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C275" t="s">
+        <v>429</v>
+      </c>
+      <c r="D275" t="s">
         <v>48</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -6337,12 +6296,15 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>391</v>
-      </c>
-      <c r="C276" t="s">
-        <v>190</v>
-      </c>
-      <c r="D276" t="s">
+        <v>239</v>
+      </c>
+      <c r="B276" t="s">
+        <v>283</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -6352,13 +6314,13 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="B277" t="s">
-        <v>339</v>
-      </c>
-      <c r="C277" t="s">
-        <v>342</v>
+        <v>284</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>48</v>
@@ -6370,13 +6332,13 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="B278" t="s">
-        <v>335</v>
-      </c>
-      <c r="C278" t="s">
-        <v>342</v>
+        <v>286</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>48</v>
@@ -6388,10 +6350,10 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B279" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>191</v>
@@ -6405,14 +6367,14 @@
       <c r="F279"/>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>201</v>
+      <c r="A280" t="s">
+        <v>205</v>
+      </c>
+      <c r="B280" t="s">
+        <v>249</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>48</v>
@@ -6423,89 +6385,83 @@
       <c r="F280"/>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B281" s="1" t="s">
+      <c r="A281" t="s">
+        <v>389</v>
+      </c>
+      <c r="C281" t="s">
+        <v>190</v>
+      </c>
+      <c r="D281" t="s">
+        <v>48</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F281"/>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>430</v>
+      </c>
+      <c r="C282" t="s">
+        <v>431</v>
+      </c>
+      <c r="D282" t="s">
+        <v>48</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>206</v>
+      </c>
+      <c r="B283" t="s">
+        <v>250</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C281" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F281"/>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B282" s="1" t="s">
+      <c r="C284" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D284" t="s">
+        <v>345</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C282" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D282" t="s">
-        <v>345</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F282"/>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F283"/>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" t="s">
-        <v>245</v>
-      </c>
-      <c r="B284" t="s">
-        <v>289</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F284"/>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" t="s">
-        <v>246</v>
-      </c>
-      <c r="B285" t="s">
-        <v>290</v>
-      </c>
       <c r="C285" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>48</v>
+        <v>346</v>
+      </c>
+      <c r="D285" t="s">
+        <v>345</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>142</v>
@@ -6513,16 +6469,13 @@
       <c r="F285"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C286" s="3">
-        <v>420.1</v>
-      </c>
-      <c r="D286" s="1" t="s">
+      <c r="A286" t="s">
+        <v>409</v>
+      </c>
+      <c r="C286" t="s">
+        <v>190</v>
+      </c>
+      <c r="D286" t="s">
         <v>48</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -6530,33 +6483,31 @@
       </c>
       <c r="F286"/>
     </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B287"/>
-      <c r="C287" s="10">
-        <v>420.4</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E287" s="1" t="s">
+    <row r="287" spans="1:6" ht="28.5">
+      <c r="A287" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B287" s="15"/>
+      <c r="C287" s="17">
+        <v>624.1</v>
+      </c>
+      <c r="D287" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E287" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F287"/>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C288" s="3">
-        <v>365.3</v>
-      </c>
-      <c r="D288" s="1" t="s">
+      <c r="A288" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B288" s="18"/>
+      <c r="C288" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D288" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -6565,17 +6516,15 @@
       <c r="F288"/>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D289" t="s">
-        <v>345</v>
+      <c r="A289" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B289" s="18"/>
+      <c r="C289" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>142</v>
@@ -6583,17 +6532,15 @@
       <c r="F289"/>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D290" t="s">
-        <v>345</v>
+      <c r="A290" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>142</v>
@@ -6602,13 +6549,13 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C291" s="3">
-        <v>200.7</v>
+        <v>614</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>48</v>
@@ -6620,15 +6567,12 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C292" s="3">
-        <v>365.3</v>
-      </c>
-      <c r="D292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D292" t="s">
         <v>48</v>
       </c>
       <c r="E292" s="1" t="s">
@@ -6637,14 +6581,14 @@
       <c r="F292"/>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C293" s="3">
-        <v>365.4</v>
+      <c r="A293" t="s">
+        <v>208</v>
+      </c>
+      <c r="B293" t="s">
+        <v>252</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>48</v>
@@ -6655,17 +6599,17 @@
       <c r="F293"/>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>29</v>
+      <c r="A294" t="s">
+        <v>209</v>
+      </c>
+      <c r="B294" t="s">
+        <v>253</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D294" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>142</v>
@@ -6673,17 +6617,14 @@
       <c r="F294"/>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>120</v>
+      <c r="A295" t="s">
+        <v>391</v>
+      </c>
+      <c r="C295" t="s">
+        <v>190</v>
       </c>
       <c r="D295" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>142</v>
@@ -6691,17 +6632,17 @@
       <c r="F295"/>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D296" t="s">
-        <v>345</v>
+      <c r="A296" t="s">
+        <v>314</v>
+      </c>
+      <c r="B296" t="s">
+        <v>339</v>
+      </c>
+      <c r="C296" t="s">
+        <v>342</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>142</v>
@@ -6710,31 +6651,31 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="B297" t="s">
-        <v>254</v>
-      </c>
-      <c r="C297" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C297" t="s">
+        <v>342</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>244</v>
+      </c>
+      <c r="B298" t="s">
+        <v>288</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F297"/>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>48</v>
@@ -6746,16 +6687,16 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>347</v>
+        <v>199</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D299" t="s">
-        <v>345</v>
+        <v>200</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>142</v>
@@ -6764,13 +6705,13 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>347</v>
+        <v>43</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>343</v>
+        <v>151</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>48</v>
@@ -6778,19 +6719,20 @@
       <c r="E300" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="F300"/>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" t="s">
-        <v>247</v>
-      </c>
-      <c r="B301" t="s">
-        <v>291</v>
+      <c r="A301" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="D301" t="s">
+        <v>345</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>142</v>
@@ -6798,30 +6740,30 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C302" s="3">
-        <v>200.7</v>
+        <v>49</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C303" s="3">
-        <v>200.8</v>
+      <c r="A303" t="s">
+        <v>245</v>
+      </c>
+      <c r="B303" t="s">
+        <v>289</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>48</v>
@@ -6831,14 +6773,14 @@
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C304" s="3">
-        <v>200.9</v>
+      <c r="A304" t="s">
+        <v>246</v>
+      </c>
+      <c r="B304" t="s">
+        <v>290</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>48</v>
@@ -6849,16 +6791,16 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D305" t="s">
-        <v>345</v>
+        <v>49</v>
+      </c>
+      <c r="C305" s="3">
+        <v>420.1</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>142</v>
@@ -6866,16 +6808,14 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D306" t="s">
-        <v>345</v>
+        <v>27</v>
+      </c>
+      <c r="B306"/>
+      <c r="C306" s="10">
+        <v>420.4</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>142</v>
@@ -6883,13 +6823,13 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C307" s="3">
-        <v>200.7</v>
+        <v>365.3</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>48</v>
@@ -6900,16 +6840,16 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C308" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D308" t="s">
+        <v>345</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>142</v>
@@ -6917,16 +6857,16 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C309" s="3">
-        <v>200.9</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D309" t="s">
+        <v>345</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>142</v>
@@ -6934,16 +6874,16 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D310" t="s">
-        <v>345</v>
+        <v>28</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C310" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>142</v>
@@ -6951,13 +6891,13 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C311" s="3">
-        <v>615</v>
+        <v>365.3</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>48</v>
@@ -6968,16 +6908,16 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D312" t="s">
-        <v>345</v>
+        <v>28</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C312" s="3">
+        <v>365.4</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>142</v>
@@ -6985,16 +6925,16 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>131</v>
+        <v>28</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>48</v>
+        <v>119</v>
+      </c>
+      <c r="D313" t="s">
+        <v>345</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>142</v>
@@ -7002,30 +6942,32 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="D314" t="s">
+        <v>345</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" t="s">
-        <v>44</v>
-      </c>
-      <c r="B315"/>
-      <c r="C315" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D315" s="5" t="s">
+      <c r="A315" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D315" t="s">
         <v>345</v>
       </c>
       <c r="E315" s="1" t="s">
@@ -7033,15 +6975,17 @@
       </c>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B316"/>
-      <c r="C316" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>345</v>
+      <c r="A316" t="s">
+        <v>210</v>
+      </c>
+      <c r="B316" t="s">
+        <v>254</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>142</v>
@@ -7049,13 +6993,13 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>48</v>
@@ -7066,16 +7010,16 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="D318" t="s">
+        <v>345</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>142</v>
@@ -7083,33 +7027,33 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D319" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>49</v>
+      <c r="A320" t="s">
+        <v>247</v>
+      </c>
+      <c r="B320" t="s">
+        <v>291</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D320" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>142</v>
@@ -7117,15 +7061,12 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>309</v>
-      </c>
-      <c r="B321" t="s">
-        <v>334</v>
+        <v>441</v>
       </c>
       <c r="C321" t="s">
-        <v>342</v>
-      </c>
-      <c r="D321" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D321" t="s">
         <v>48</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -7134,10 +7075,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="C322" t="s">
-        <v>190</v>
+        <v>444</v>
       </c>
       <c r="D322" t="s">
         <v>48</v>
@@ -7147,14 +7088,16 @@
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B323" s="8"/>
-      <c r="C323" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D323" s="8" t="s">
+      <c r="A323" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C323" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E323" s="1" t="s">
@@ -7163,13 +7106,13 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C324" s="3">
-        <v>200.7</v>
+        <v>200.8</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>48</v>
@@ -7180,13 +7123,13 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C325" s="3">
-        <v>200.8</v>
+        <v>200.9</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>48</v>
@@ -7197,16 +7140,16 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C326" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D326" t="s">
+        <v>345</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>142</v>
@@ -7214,29 +7157,32 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C327" s="3">
+        <v>128</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D327" t="s">
+        <v>345</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C328" s="3">
         <v>200.7</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" t="s">
-        <v>411</v>
-      </c>
-      <c r="C328" t="s">
-        <v>190</v>
-      </c>
-      <c r="D328" t="s">
+      <c r="D328" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E328" s="1" t="s">
@@ -7245,14 +7191,16 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B329"/>
-      <c r="C329" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D329" t="s">
-        <v>345</v>
+        <v>129</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C329" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>142</v>
@@ -7260,16 +7208,16 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D330" t="s">
-        <v>345</v>
+        <v>130</v>
+      </c>
+      <c r="C330" s="3">
+        <v>200.9</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>142</v>
@@ -7277,13 +7225,13 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="D331" t="s">
         <v>345</v>
@@ -7294,13 +7242,13 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>197</v>
+        <v>31</v>
+      </c>
+      <c r="C332" s="3">
+        <v>615</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>48</v>
@@ -7310,14 +7258,17 @@
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C333" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D333" s="19" t="s">
-        <v>48</v>
+      <c r="A333" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D333" t="s">
+        <v>345</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>142</v>
@@ -7325,14 +7276,16 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B334"/>
+        <v>44</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C334" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D334" t="s">
-        <v>345</v>
+        <v>144</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>142</v>
@@ -7340,13 +7293,13 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>150</v>
+        <v>343</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>48</v>
@@ -7356,44 +7309,46 @@
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>48</v>
+      <c r="A336" t="s">
+        <v>44</v>
+      </c>
+      <c r="B336"/>
+      <c r="C336" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" t="s">
-        <v>412</v>
-      </c>
-      <c r="C337" t="s">
-        <v>190</v>
-      </c>
-      <c r="D337" t="s">
-        <v>48</v>
+      <c r="A337" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B337"/>
+      <c r="C337" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" t="s">
-        <v>413</v>
-      </c>
-      <c r="C338" t="s">
-        <v>190</v>
-      </c>
-      <c r="D338" t="s">
+      <c r="A338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E338" s="1" t="s">
@@ -7401,13 +7356,16 @@
       </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" t="s">
-        <v>397</v>
-      </c>
-      <c r="C339" t="s">
-        <v>190</v>
-      </c>
-      <c r="D339" t="s">
+      <c r="A339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E339" s="1" t="s">
@@ -7415,14 +7373,17 @@
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" t="s">
-        <v>414</v>
-      </c>
-      <c r="C340" t="s">
-        <v>190</v>
+      <c r="A340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D340" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>142</v>
@@ -7430,30 +7391,27 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="C341" t="s">
-        <v>190</v>
+        <v>435</v>
       </c>
       <c r="D341" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C342" s="3">
-        <v>200.7</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>48</v>
+      <c r="A342" t="s">
+        <v>436</v>
+      </c>
+      <c r="C342" t="s">
+        <v>437</v>
+      </c>
+      <c r="D342" t="s">
+        <v>345</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>142</v>
@@ -7461,63 +7419,61 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C343" s="3">
-        <v>200.8</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D343" t="s">
+        <v>345</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D344" t="s">
-        <v>345</v>
+      <c r="A344" t="s">
+        <v>309</v>
+      </c>
+      <c r="B344" t="s">
+        <v>334</v>
+      </c>
+      <c r="C344" t="s">
+        <v>342</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>53</v>
+      <c r="A345" t="s">
+        <v>410</v>
+      </c>
+      <c r="C345" t="s">
+        <v>190</v>
       </c>
       <c r="D345" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D346" s="1" t="s">
+      <c r="A346" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B346" s="18"/>
+      <c r="C346" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D346" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E346" s="1" t="s">
@@ -7526,26 +7482,32 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>427</v>
+        <v>134</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C347" s="3">
+        <v>200.7</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" t="s">
-        <v>428</v>
-      </c>
-      <c r="C348" t="s">
-        <v>429</v>
-      </c>
-      <c r="D348" t="s">
+      <c r="A348" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C348" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -7553,13 +7515,16 @@
       </c>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" t="s">
-        <v>430</v>
-      </c>
-      <c r="C349" t="s">
-        <v>431</v>
-      </c>
-      <c r="D349" t="s">
+      <c r="A349" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C349" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -7567,28 +7532,31 @@
       </c>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C350" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D350" s="20" t="s">
-        <v>345</v>
+      <c r="A350" t="s">
+        <v>136</v>
+      </c>
+      <c r="C350" t="s">
+        <v>343</v>
+      </c>
+      <c r="D350" t="s">
+        <v>48</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" t="s">
-        <v>432</v>
-      </c>
-      <c r="C351" t="s">
-        <v>433</v>
-      </c>
-      <c r="D351" t="s">
-        <v>345</v>
+      <c r="A351" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C351" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>142</v>
@@ -7596,13 +7564,13 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>434</v>
+        <v>137</v>
       </c>
       <c r="C352" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
       <c r="D352" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>142</v>
@@ -7610,68 +7578,78 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C353" t="s">
-        <v>437</v>
+        <v>190</v>
       </c>
       <c r="D353" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" t="s">
-        <v>8</v>
-      </c>
-      <c r="C354" t="s">
-        <v>145</v>
+      <c r="A354" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B354"/>
+      <c r="C354" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="D354" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" t="s">
-        <v>136</v>
-      </c>
-      <c r="C355" t="s">
-        <v>343</v>
+      <c r="A355" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D355" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" t="s">
-        <v>137</v>
-      </c>
-      <c r="C356" t="s">
-        <v>343</v>
+      <c r="A356" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D356" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" t="s">
-        <v>438</v>
-      </c>
-      <c r="C357" t="s">
-        <v>439</v>
-      </c>
-      <c r="D357" t="s">
+      <c r="A357" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D357" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E357" s="1" t="s">
@@ -7679,13 +7657,13 @@
       </c>
     </row>
     <row r="358" spans="1:5">
-      <c r="A358" t="s">
-        <v>440</v>
-      </c>
-      <c r="C358" t="s">
-        <v>439</v>
-      </c>
-      <c r="D358" t="s">
+      <c r="A358" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="C358" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D358" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -7693,27 +7671,31 @@
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" t="s">
-        <v>441</v>
-      </c>
-      <c r="C359" t="s">
-        <v>442</v>
+      <c r="A359" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B359"/>
+      <c r="C359" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="D359" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" t="s">
-        <v>443</v>
-      </c>
-      <c r="C360" t="s">
-        <v>444</v>
-      </c>
-      <c r="D360" t="s">
+      <c r="A360" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E360" s="1" t="s">
@@ -7721,13 +7703,16 @@
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" t="s">
-        <v>203</v>
-      </c>
-      <c r="C361" t="s">
-        <v>445</v>
-      </c>
-      <c r="D361" t="s">
+      <c r="A361" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E361" s="1" t="s">
@@ -7736,10 +7721,10 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="C362" t="s">
-        <v>446</v>
+        <v>190</v>
       </c>
       <c r="D362" t="s">
         <v>48</v>
@@ -7750,10 +7735,10 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>203</v>
-      </c>
-      <c r="C363">
-        <v>200.7</v>
+        <v>413</v>
+      </c>
+      <c r="C363" t="s">
+        <v>190</v>
       </c>
       <c r="D363" t="s">
         <v>48</v>
@@ -7764,24 +7749,24 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>86</v>
+        <v>397</v>
       </c>
       <c r="C364" t="s">
-        <v>447</v>
+        <v>190</v>
       </c>
       <c r="D364" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>191</v>
+      <c r="A365" t="s">
+        <v>414</v>
+      </c>
+      <c r="C365" t="s">
+        <v>190</v>
       </c>
       <c r="D365" t="s">
         <v>48</v>
@@ -7791,11 +7776,11 @@
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>191</v>
+      <c r="A366" t="s">
+        <v>416</v>
+      </c>
+      <c r="C366" t="s">
+        <v>190</v>
       </c>
       <c r="D366" t="s">
         <v>48</v>
@@ -7806,12 +7791,15 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D367" t="s">
+        <v>140</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C367" s="3">
+        <v>200.7</v>
+      </c>
+      <c r="D367" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E367" s="1" t="s">
@@ -7819,13 +7807,16 @@
       </c>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D368" t="s">
+      <c r="A368" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C368" s="3">
+        <v>200.8</v>
+      </c>
+      <c r="D368" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E368" s="1" t="s">
@@ -7834,21 +7825,41 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D369" t="s">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D370" t="s">
+        <v>345</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E296">
-    <sortState ref="A2:E345">
+  <autoFilter ref="A1:E297">
+    <sortState ref="A2:E369">
       <sortCondition ref="A1:A296"/>
     </sortState>
   </autoFilter>

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="450">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1371,6 +1371,12 @@
   </si>
   <si>
     <t>D7284</t>
+  </si>
+  <si>
+    <t>Hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>4500-S2(F)</t>
   </si>
 </sst>
 </file>
@@ -1780,11 +1786,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E372" sqref="E372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7857,6 +7863,20 @@
         <v>142</v>
       </c>
     </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>448</v>
+      </c>
+      <c r="C371" t="s">
+        <v>449</v>
+      </c>
+      <c r="D371" t="s">
+        <v>345</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E297">
     <sortState ref="A2:E369">

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="451">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1377,6 +1377,9 @@
   </si>
   <si>
     <t>4500-S2(F)</t>
+  </si>
+  <si>
+    <t>365.4</t>
   </si>
 </sst>
 </file>
@@ -1786,11 +1789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F371"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E372" sqref="E372"/>
+      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7877,6 +7880,35 @@
         <v>142</v>
       </c>
     </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>125</v>
+      </c>
+      <c r="C372" t="s">
+        <v>450</v>
+      </c>
+      <c r="D372" t="s">
+        <v>48</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>448</v>
+      </c>
+      <c r="B373"/>
+      <c r="C373" t="s">
+        <v>435</v>
+      </c>
+      <c r="D373" t="s">
+        <v>345</v>
+      </c>
+      <c r="E373" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E297">
     <sortState ref="A2:E369">

--- a/3_13_2019_CFR_Methods.xlsx
+++ b/3_13_2019_CFR_Methods.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="451">
   <si>
     <t>Char_Name</t>
   </si>
@@ -1789,11 +1789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
+      <selection pane="bottomLeft" activeCell="A375" sqref="A375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7909,6 +7909,20 @@
         <v>142</v>
       </c>
     </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>434</v>
+      </c>
+      <c r="C374" t="s">
+        <v>449</v>
+      </c>
+      <c r="D374" t="s">
+        <v>345</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E297">
     <sortState ref="A2:E369">
